--- a/shortcut_keys.xlsx
+++ b/shortcut_keys.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="iThoughts" sheetId="4" r:id="rId1"/>
+    <sheet name="Firefox" sheetId="6" r:id="rId1"/>
+    <sheet name="Thunderbird" sheetId="5" r:id="rId2"/>
+    <sheet name="iThoughts" sheetId="4" r:id="rId3"/>
+    <sheet name="Windows10" sheetId="7" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="testname01">[2]Sheet1!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">テーブル134[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">テーブル1[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">テーブル13[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">テーブル1345[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="testname01" localSheetId="0">[1]Sheet1!#REF!</definedName>
+    <definedName name="testname01" localSheetId="1">[1]Sheet1!#REF!</definedName>
+    <definedName name="testname01" localSheetId="3">[1]Sheet1!#REF!</definedName>
+    <definedName name="testname01">[1]Sheet1!#REF!</definedName>
     <definedName name="testname03">!$A$1:$B$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -22,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="177">
   <si>
     <t>Ctrl</t>
   </si>
@@ -49,9 +59,6 @@
     <t>:---</t>
   </si>
   <si>
-    <t>|:---|:---|:---|:---|:---|</t>
-  </si>
-  <si>
     <t>↑/↓</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -277,6 +284,572 @@
   <si>
     <t>表示 アウトラインモードOn/Off</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Tab</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>Tab</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>既読/未読 メッセージ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>既読/未読 スレッド</t>
+    <rPh sb="3" eb="5">
+      <t>ミドク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>全スレッド 広げる/折りたたむ</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>*/\</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Right/Left</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スレッド 広げる/折りたたむ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/Shift</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>迷惑マーク 付与</t>
+    <rPh sb="6" eb="8">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>迷惑マーク 解除</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スター 付与/解除</t>
+    <rPh sb="4" eb="6">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規メッセージ</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ズーム In/Out</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>+/-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索 クイックフィルター</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索 フォルダー内の詳細検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>f/b</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Ctrl</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>n/p</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォーカス切替 メールペイン 次/前</t>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォーカス切替 UI要素 次/前</t>
+    <rPh sb="5" eb="7">
+      <t>キリカエ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メッセージ選択切替(未読) 次/前</t>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キリカエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ミドク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メッセージ選択切替 次/前</t>
+    <rPh sb="10" eb="11">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>返信(送信者のみ/全受信者)</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ソウシンシャ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ジュシンシャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/Shift</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タブ移動 次/前</t>
+    <rPh sb="5" eb="6">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カレンダータブ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新しい予定＠カレンダータブ</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新しいToDo＠カレンダータブ</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ブックマーク登録</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>戻る/進む</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ススム</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Left/Right</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>Win</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>表示 共有チャーム</t>
+    <rPh sb="3" eb="5">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>表示 アプリのコマンドバー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>表示 アドバンスドメニュー(スタートメニューの右クリックメニュー)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タスクバー 巡回</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>通知領域（タスクトレイ）へフォーカス</t>
+    <rPh sb="0" eb="2">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョウイキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>表示 デスクトップ(一時的)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>表示 デスクトップ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PrtSc</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スクリーンショット保存 to \\Pictures\\Screenshots</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>検索バーを開く</t>
+  </si>
+  <si>
+    <t>検索ユーティリティを開始する</t>
+  </si>
+  <si>
+    <t>履歴バーを開く</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>お気に入りバーを開く</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>[ファイルを開く]ダイアログボックスを開く</t>
+  </si>
+  <si>
+    <t>同じWebアドレスで別のブラウザのインスタンスを開く</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>[ファイルを開く]ダイアログボックスを開く。CtrlLキーと同じ</t>
+  </si>
+  <si>
+    <t>[印刷]ダイアログボックスを開く</t>
+  </si>
+  <si>
+    <t>現在のWebページを更新する</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>現在のウィンドウを閉じる</t>
+  </si>
+  <si>
+    <t>F4キー</t>
+  </si>
+  <si>
+    <t>複数の文書を同時に開くことができるプログラムで、作業中の文書を閉じる</t>
+  </si>
+  <si>
+    <t>項目をドラッグする</t>
+  </si>
+  <si>
+    <t>ファイルをコピーする</t>
+  </si>
+  <si>
+    <t>Esc</t>
+  </si>
+  <si>
+    <t>[スタート]メニューを表示する</t>
+  </si>
+  <si>
+    <t>方向キー</t>
+  </si>
+  <si>
+    <t>テキストブロックを強調表示する</t>
+  </si>
+  <si>
+    <t>選択した項目へのショートカットを作成する</t>
+  </si>
+  <si>
+    <t>Del</t>
+  </si>
+  <si>
+    <t>選択した項目を、ごみ箱に移動せずに完全に削除する</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>選択した項目のショートカットメニューを表示する</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>選択した項目のプロパティを表示する</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>作業中のウィンドウのショートカットメニューを開く</t>
+  </si>
+  <si>
+    <t>開いている項目を切り替える</t>
+  </si>
+  <si>
+    <t>項目を開いた順に切り替える</t>
+  </si>
+  <si>
+    <t>作業中のウィンドウのシステムメニューを開く</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>使用中の項目を閉じる、または作業中のプログラムを終了する</t>
+  </si>
+  <si>
+    <t>メニュー内の下線付きの文字キー</t>
+  </si>
+  <si>
+    <t>対応するメニューを表示する</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>選択した項目の名前を変更する</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>ファイルまたはフォルダを検索する</t>
+  </si>
+  <si>
+    <t>マイコンピュータまたはエクスプローラでアドレスバーの一覧を表示する</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>作業中のウィンドウを更新する</t>
+  </si>
+  <si>
+    <t>ウィンドウ内またはデスクトップ上の画面要素を切り替える</t>
+  </si>
+  <si>
+    <t>作業中のプログラムのメニューバーをアクティブにする</t>
+  </si>
+  <si>
+    <t>BackSpace</t>
+  </si>
+  <si>
+    <t>マイコンピュータまたはエクスプローラで1階層上のフォルダを表示する</t>
+  </si>
+  <si>
+    <t>Pause</t>
+  </si>
+  <si>
+    <t>システムのプロパティを表示</t>
+  </si>
+  <si>
+    <t>検索ウィンドウを表示</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>【仮想デスクトップ】新規デスクトップ作成</t>
+  </si>
+  <si>
+    <t>【仮想デスクトップ】タスクビュー表示</t>
+  </si>
+  <si>
+    <t>【仮想デスクトップ】デスクトップに移動 前/次</t>
+    <rPh sb="20" eb="21">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左/右側のメニューを開く、またはサブメニューを開く</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -350,7 +923,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -367,9 +940,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -378,7 +948,44 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="58">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -607,6 +1214,759 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
         <color theme="1"/>
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
@@ -644,6 +2004,23 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="iThoughts"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="setting"/>
     </sheetNames>
     <definedNames>
@@ -656,34 +2033,69 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="iThoughts"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="テーブル134" displayName="テーブル134" ref="A1:F91" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A1:F91"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Ctrl" totalsRowLabel="集計" dataDxfId="27" totalsRowDxfId="28"/>
+    <tableColumn id="2" name="Shift" dataDxfId="25" totalsRowDxfId="26"/>
+    <tableColumn id="3" name="Alt" dataDxfId="23" totalsRowDxfId="24"/>
+    <tableColumn id="4" name="key" dataDxfId="21" totalsRowDxfId="22"/>
+    <tableColumn id="5" name="機能" dataDxfId="19" totalsRowDxfId="20"/>
+    <tableColumn id="7" name="|Ctrl|Shift|Alt|key|機能|" totalsRowFunction="count" dataDxfId="17" totalsRowDxfId="18" dataCellStyle="標準 2">
+      <calculatedColumnFormula>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:F99" headerRowDxfId="13" dataDxfId="12">
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル13" displayName="テーブル13" ref="A1:F91" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:F91"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Ctrl" totalsRowLabel="集計" dataDxfId="40" totalsRowDxfId="41"/>
+    <tableColumn id="2" name="Shift" dataDxfId="38" totalsRowDxfId="39"/>
+    <tableColumn id="3" name="Alt" dataDxfId="36" totalsRowDxfId="37"/>
+    <tableColumn id="4" name="key" dataDxfId="34" totalsRowDxfId="35"/>
+    <tableColumn id="5" name="機能" dataDxfId="32" totalsRowDxfId="33"/>
+    <tableColumn id="7" name="|Ctrl|Shift|Alt|key|機能|" totalsRowFunction="count" dataDxfId="16" totalsRowDxfId="31" dataCellStyle="標準 2">
+      <calculatedColumnFormula>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:F99" headerRowDxfId="57" dataDxfId="56">
   <autoFilter ref="A1:F99"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Ctrl" totalsRowLabel="集計" dataDxfId="10" totalsRowDxfId="11"/>
-    <tableColumn id="2" name="Shift" dataDxfId="8" totalsRowDxfId="9"/>
-    <tableColumn id="3" name="Alt" dataDxfId="6" totalsRowDxfId="7"/>
-    <tableColumn id="4" name="key" dataDxfId="4" totalsRowDxfId="5"/>
-    <tableColumn id="5" name="機能" dataDxfId="2" totalsRowDxfId="3"/>
-    <tableColumn id="7" name="|Ctrl|Shift|Alt|key|機能|" totalsRowFunction="count" dataDxfId="0" totalsRowDxfId="1">
-      <calculatedColumnFormula>IF(ISBLANK(E2),"","|"&amp;[1]!concstr(A2:E2,"|")&amp;"|")</calculatedColumnFormula>
+    <tableColumn id="1" name="Ctrl" totalsRowLabel="集計" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="2" name="Shift" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="3" name="Alt" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="4" name="key" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="5" name="機能" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="7" name="|Ctrl|Shift|Alt|key|機能|" totalsRowFunction="count" dataDxfId="45" totalsRowDxfId="44">
+      <calculatedColumnFormula>IF(ISBLANK(E2),"","|"&amp;[2]!concstr(A2:E2,"|")&amp;"|")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル1345" displayName="テーブル1345" ref="A1:G85" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:G85"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Ctrl" totalsRowLabel="集計" dataDxfId="12" totalsRowDxfId="13"/>
+    <tableColumn id="2" name="Shift" dataDxfId="10" totalsRowDxfId="11"/>
+    <tableColumn id="8" name="Alt" dataDxfId="0" totalsRowDxfId="1" dataCellStyle="標準 2"/>
+    <tableColumn id="3" name="Win" dataDxfId="8" totalsRowDxfId="9"/>
+    <tableColumn id="4" name="Key" dataDxfId="6" totalsRowDxfId="7"/>
+    <tableColumn id="5" name="機能" dataDxfId="4" totalsRowDxfId="5"/>
+    <tableColumn id="7" name="|Ctrl|Shift|Alt|key|機能|" totalsRowFunction="count" dataDxfId="2" totalsRowDxfId="3" dataCellStyle="標準 2">
+      <calculatedColumnFormula>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -977,13 +2389,1438 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="7.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="50.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="2" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="1.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v>|:---|:---|:---|:---|:---|</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||d|ブックマーク登録|</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Alt|Left/Right|戻る/進む|</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="6"/>
+      <c r="F9" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F29" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F30" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F35" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F41" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F42" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F43" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F44" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F45" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F46" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F47" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F49" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F50" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F51" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F52" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F53" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F54" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F55" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F56" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F57" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F58" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F59" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F60" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F61" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F62" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F63" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F64" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F65" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F66" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F67" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F68" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F69" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F70" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F71" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F72" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F73" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F74" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F75" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F76" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F77" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F78" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F79" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F80" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F81" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F82" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F83" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F84" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F85" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F86" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F87" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F88" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F89" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F90" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F91" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C91">
+      <formula1>"Alt"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B3:B91">
+      <formula1>"Shift"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:A91">
+      <formula1>"Ctrl"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F91"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="7.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="50.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="2" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="1.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v>|:---|:---|:---|:---|:---|</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||Right/Left|スレッド 広げる/折りたたむ|</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||*/\|全スレッド 広げる/折りたたむ|</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||m|既読/未読 メッセージ|</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||r|既読/未読 スレッド|</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||j|迷惑マーク 付与|</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift||j|迷惑マーク 解除|</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||s|スター 付与/解除|</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||f/b|メッセージ選択切替 次/前|</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||n/p|メッセージ選択切替(未読) 次/前|</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v>||/Shift||Tab|フォーカス切替 UI要素 次/前|</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v>||/Shift||F6|フォーカス切替 メールペイン 次/前|</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||n|新規メッセージ|</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|/Shift||r|返信(送信者のみ/全受信者)|</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||+/-|ズーム In/Out|</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||k|検索 クイックフィルター|</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||f|検索 フォルダー内の詳細検索|</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|/Shift||Tab|タブ移動 次/前|</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||c|カレンダータブ|</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||i|新しい予定＠カレンダータブ|</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||d|新しいToDo＠カレンダータブ|</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F29" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F30" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F35" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F41" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F42" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F43" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F44" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F45" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F46" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F47" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F49" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F50" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F51" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F52" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F53" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F54" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F55" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F56" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F57" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F58" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F59" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F60" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F61" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F62" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F63" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F64" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F65" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F66" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F67" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F68" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F69" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F70" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F71" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F72" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F73" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F74" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F75" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F76" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F77" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F78" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F79" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F80" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F81" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F82" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F83" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F84" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F85" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F86" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F87" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F88" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F89" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F90" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F91" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:A91">
+      <formula1>"Ctrl"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B3:B91">
+      <formula1>"Shift"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C91">
+      <formula1>"Alt"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F99"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -993,7 +3830,7 @@
     <col min="3" max="3" width="6" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
     <col min="5" max="5" width="42.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="35.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="50.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="2" style="3"/>
   </cols>
   <sheetData>
@@ -1033,8 +3870,9 @@
       <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>7</v>
+      <c r="F2" s="3" t="str">
+        <f>IF(ISBLANK(E2),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <v>|:---|:---|:---|:---|:---|</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1042,13 +3880,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" s="3" t="str">
-        <f>IF(ISBLANK(E3),"","|"&amp;[1]!concstr(A3:E3,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||↑/↓|トピック 順番入替え|</v>
       </c>
     </row>
@@ -1057,13 +3895,13 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" s="3" t="str">
-        <f>IF(ISBLANK(E4),"","|"&amp;[1]!concstr(A4:E4,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|||Alt|1..9|トピック お気に入りアイコン|</v>
       </c>
     </row>
@@ -1072,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F5" s="3" t="str">
-        <f>IF(ISBLANK(E5),"","|"&amp;[1]!concstr(A5:E5,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||Delete|トピック 選択中トピックのみ削除|</v>
       </c>
     </row>
@@ -1087,13 +3925,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="F6" s="3" t="str">
-        <f>IF(ISBLANK(E6),"","|"&amp;[1]!concstr(A6:E6,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||k|トピック ハイパーリンク 挿入|</v>
       </c>
     </row>
@@ -1105,25 +3943,25 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F7" s="3" t="str">
-        <f>IF(ISBLANK(E7),"","|"&amp;[1]!concstr(A7:E7,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||k|トピック ハイパーリンク 開く|</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F8" s="3" t="str">
-        <f>IF(ISBLANK(E8),"","|"&amp;[1]!concstr(A8:E8,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>||||p|タスク 進捗Up|</v>
       </c>
     </row>
@@ -1132,37 +3970,37 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="F9" s="3" t="str">
-        <f>IF(ISBLANK(E9),"","|"&amp;[1]!concstr(A9:E9,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>||Shift||p|タスク 完了(進捗Down)|</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="F10" s="3" t="str">
-        <f>IF(ISBLANK(E10),"","|"&amp;[1]!concstr(A10:E10,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>||||c|タスク コスト|</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F11" s="3" t="str">
-        <f>IF(ISBLANK(E11),"","|"&amp;[1]!concstr(A11:E11,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>||||e|タスク 労力|</v>
       </c>
     </row>
@@ -1170,14 +4008,14 @@
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F12" s="3" t="str">
-        <f>IF(ISBLANK(E12),"","|"&amp;[1]!concstr(A12:E12,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||1-5|タスク 優先度|</v>
       </c>
     </row>
@@ -1186,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F13" s="3" t="str">
-        <f>IF(ISBLANK(E13),"","|"&amp;[1]!concstr(A13:E13,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||+/-|フォント サイズUp/Down|</v>
       </c>
     </row>
@@ -1201,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F14" s="3" t="str">
-        <f>IF(ISBLANK(E14),"","|"&amp;[1]!concstr(A14:E14,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||b|フォント 太字|</v>
       </c>
     </row>
@@ -1216,13 +4054,13 @@
         <v>0</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F15" s="3" t="str">
-        <f>IF(ISBLANK(E15),"","|"&amp;[1]!concstr(A15:E15,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||u|フォント イタリック|</v>
       </c>
     </row>
@@ -1234,13 +4072,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="3" t="str">
-        <f>IF(ISBLANK(E16),"","|"&amp;[1]!concstr(A16:E16,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||u|フォント 取り消し線(テキスト選択時)|</v>
       </c>
     </row>
@@ -1252,25 +4090,25 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F17" s="3" t="str">
-        <f>IF(ISBLANK(E17),"","|"&amp;[1]!concstr(A17:E17,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||t|表示 ノートウィンドウ View/Hide|</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F18" s="3" t="str">
-        <f>IF(ISBLANK(E18),"","|"&amp;[1]!concstr(A18:E18,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>||||F4|表示 ノートウィンドウ View/Hide|</v>
       </c>
     </row>
@@ -1279,13 +4117,13 @@
         <v>0</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F19" s="3" t="str">
-        <f>IF(ISBLANK(E19),"","|"&amp;[1]!concstr(A19:E19,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||t|表示 ノートモード切替(編集/閲覧)|</v>
       </c>
     </row>
@@ -1294,25 +4132,25 @@
         <v>0</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F20" s="3" t="str">
-        <f>IF(ISBLANK(E20),"","|"&amp;[1]!concstr(A20:E20,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||0|表示 オートズームOn/Off|</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F21" s="3" t="str">
-        <f>IF(ISBLANK(E21),"","|"&amp;[1]!concstr(A21:E21,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>||||.|表示 ブランチView/Hide|</v>
       </c>
     </row>
@@ -1321,13 +4159,13 @@
         <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F22" s="3" t="str">
-        <f>IF(ISBLANK(E22),"","|"&amp;[1]!concstr(A22:E22,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||PgUp/Dn|表示 ズームIn/Out|</v>
       </c>
     </row>
@@ -1339,13 +4177,13 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F23" s="3" t="str">
-        <f>IF(ISBLANK(E23),"","|"&amp;[1]!concstr(A23:E23,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||f|表示 フォーカスモードOn/Off|</v>
       </c>
     </row>
@@ -1357,463 +4195,463 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F24" s="3" t="str">
-        <f>IF(ISBLANK(E24),"","|"&amp;[1]!concstr(A24:E24,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||o|表示 アウトラインモードOn/Off|</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="3" t="str">
-        <f>IF(ISBLANK(E25),"","|"&amp;[1]!concstr(A25:E25,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="3" t="str">
-        <f>IF(ISBLANK(E26),"","|"&amp;[1]!concstr(A26:E26,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="3" t="str">
-        <f>IF(ISBLANK(E27),"","|"&amp;[1]!concstr(A27:E27,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="3" t="str">
-        <f>IF(ISBLANK(E28),"","|"&amp;[1]!concstr(A28:E28,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="3" t="str">
-        <f>IF(ISBLANK(E29),"","|"&amp;[1]!concstr(A29:E29,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="3" t="str">
-        <f>IF(ISBLANK(E30),"","|"&amp;[1]!concstr(A30:E30,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="3" t="str">
-        <f>IF(ISBLANK(E31),"","|"&amp;[1]!concstr(A31:E31,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F32" s="3" t="str">
-        <f>IF(ISBLANK(E32),"","|"&amp;[1]!concstr(A32:E32,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F33" s="3" t="str">
-        <f>IF(ISBLANK(E33),"","|"&amp;[1]!concstr(A33:E33,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F34" s="3" t="str">
-        <f>IF(ISBLANK(E34),"","|"&amp;[1]!concstr(A34:E34,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F35" s="3" t="str">
-        <f>IF(ISBLANK(E35),"","|"&amp;[1]!concstr(A35:E35,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F36" s="3" t="str">
-        <f>IF(ISBLANK(E36),"","|"&amp;[1]!concstr(A36:E36,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F37" s="3" t="str">
-        <f>IF(ISBLANK(E37),"","|"&amp;[1]!concstr(A37:E37,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F38" s="3" t="str">
-        <f>IF(ISBLANK(E38),"","|"&amp;[1]!concstr(A38:E38,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="3" t="str">
-        <f>IF(ISBLANK(E39),"","|"&amp;[1]!concstr(A39:E39,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F40" s="3" t="str">
-        <f>IF(ISBLANK(E40),"","|"&amp;[1]!concstr(A40:E40,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F41" s="3" t="str">
-        <f>IF(ISBLANK(E41),"","|"&amp;[1]!concstr(A41:E41,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F42" s="3" t="str">
-        <f>IF(ISBLANK(E42),"","|"&amp;[1]!concstr(A42:E42,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F43" s="3" t="str">
-        <f>IF(ISBLANK(E43),"","|"&amp;[1]!concstr(A43:E43,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F44" s="3" t="str">
-        <f>IF(ISBLANK(E44),"","|"&amp;[1]!concstr(A44:E44,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F45" s="3" t="str">
-        <f>IF(ISBLANK(E45),"","|"&amp;[1]!concstr(A45:E45,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F46" s="3" t="str">
-        <f>IF(ISBLANK(E46),"","|"&amp;[1]!concstr(A46:E46,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F47" s="3" t="str">
-        <f>IF(ISBLANK(E47),"","|"&amp;[1]!concstr(A47:E47,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F48" s="3" t="str">
-        <f>IF(ISBLANK(E48),"","|"&amp;[1]!concstr(A48:E48,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F49" s="3" t="str">
-        <f>IF(ISBLANK(E49),"","|"&amp;[1]!concstr(A49:E49,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F50" s="3" t="str">
-        <f>IF(ISBLANK(E50),"","|"&amp;[1]!concstr(A50:E50,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F51" s="3" t="str">
-        <f>IF(ISBLANK(E51),"","|"&amp;[1]!concstr(A51:E51,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F52" s="3" t="str">
-        <f>IF(ISBLANK(E52),"","|"&amp;[1]!concstr(A52:E52,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F53" s="3" t="str">
-        <f>IF(ISBLANK(E53),"","|"&amp;[1]!concstr(A53:E53,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F54" s="3" t="str">
-        <f>IF(ISBLANK(E54),"","|"&amp;[1]!concstr(A54:E54,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F55" s="3" t="str">
-        <f>IF(ISBLANK(E55),"","|"&amp;[1]!concstr(A55:E55,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F56" s="3" t="str">
-        <f>IF(ISBLANK(E56),"","|"&amp;[1]!concstr(A56:E56,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F57" s="3" t="str">
-        <f>IF(ISBLANK(E57),"","|"&amp;[1]!concstr(A57:E57,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F58" s="3" t="str">
-        <f>IF(ISBLANK(E58),"","|"&amp;[1]!concstr(A58:E58,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F59" s="3" t="str">
-        <f>IF(ISBLANK(E59),"","|"&amp;[1]!concstr(A59:E59,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F60" s="3" t="str">
-        <f>IF(ISBLANK(E60),"","|"&amp;[1]!concstr(A60:E60,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F61" s="3" t="str">
-        <f>IF(ISBLANK(E61),"","|"&amp;[1]!concstr(A61:E61,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F62" s="3" t="str">
-        <f>IF(ISBLANK(E62),"","|"&amp;[1]!concstr(A62:E62,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F63" s="3" t="str">
-        <f>IF(ISBLANK(E63),"","|"&amp;[1]!concstr(A63:E63,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F64" s="3" t="str">
-        <f>IF(ISBLANK(E64),"","|"&amp;[1]!concstr(A64:E64,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F65" s="3" t="str">
-        <f>IF(ISBLANK(E65),"","|"&amp;[1]!concstr(A65:E65,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F66" s="3" t="str">
-        <f>IF(ISBLANK(E66),"","|"&amp;[1]!concstr(A66:E66,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F67" s="3" t="str">
-        <f>IF(ISBLANK(E67),"","|"&amp;[1]!concstr(A67:E67,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F68" s="3" t="str">
-        <f>IF(ISBLANK(E68),"","|"&amp;[1]!concstr(A68:E68,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F69" s="3" t="str">
-        <f>IF(ISBLANK(E69),"","|"&amp;[1]!concstr(A69:E69,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F70" s="3" t="str">
-        <f>IF(ISBLANK(E70),"","|"&amp;[1]!concstr(A70:E70,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F71" s="3" t="str">
-        <f>IF(ISBLANK(E71),"","|"&amp;[1]!concstr(A71:E71,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F72" s="3" t="str">
-        <f>IF(ISBLANK(E72),"","|"&amp;[1]!concstr(A72:E72,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F73" s="3" t="str">
-        <f>IF(ISBLANK(E73),"","|"&amp;[1]!concstr(A73:E73,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F74" s="3" t="str">
-        <f>IF(ISBLANK(E74),"","|"&amp;[1]!concstr(A74:E74,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F75" s="3" t="str">
-        <f>IF(ISBLANK(E75),"","|"&amp;[1]!concstr(A75:E75,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F76" s="3" t="str">
-        <f>IF(ISBLANK(E76),"","|"&amp;[1]!concstr(A76:E76,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F77" s="3" t="str">
-        <f>IF(ISBLANK(E77),"","|"&amp;[1]!concstr(A77:E77,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F78" s="3" t="str">
-        <f>IF(ISBLANK(E78),"","|"&amp;[1]!concstr(A78:E78,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F79" s="3" t="str">
-        <f>IF(ISBLANK(E79),"","|"&amp;[1]!concstr(A79:E79,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F80" s="3" t="str">
-        <f>IF(ISBLANK(E80),"","|"&amp;[1]!concstr(A80:E80,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F81" s="3" t="str">
-        <f>IF(ISBLANK(E81),"","|"&amp;[1]!concstr(A81:E81,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="82" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F82" s="3" t="str">
-        <f>IF(ISBLANK(E82),"","|"&amp;[1]!concstr(A82:E82,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F83" s="3" t="str">
-        <f>IF(ISBLANK(E83),"","|"&amp;[1]!concstr(A83:E83,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F84" s="3" t="str">
-        <f>IF(ISBLANK(E84),"","|"&amp;[1]!concstr(A84:E84,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F85" s="3" t="str">
-        <f>IF(ISBLANK(E85),"","|"&amp;[1]!concstr(A85:E85,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F86" s="3" t="str">
-        <f>IF(ISBLANK(E86),"","|"&amp;[1]!concstr(A86:E86,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F87" s="3" t="str">
-        <f>IF(ISBLANK(E87),"","|"&amp;[1]!concstr(A87:E87,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F88" s="3" t="str">
-        <f>IF(ISBLANK(E88),"","|"&amp;[1]!concstr(A88:E88,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="89" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F89" s="3" t="str">
-        <f>IF(ISBLANK(E89),"","|"&amp;[1]!concstr(A89:E89,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F90" s="3" t="str">
-        <f>IF(ISBLANK(E90),"","|"&amp;[1]!concstr(A90:E90,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="91" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F91" s="3" t="str">
-        <f>IF(ISBLANK(E91),"","|"&amp;[1]!concstr(A91:E91,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="92" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F92" s="3" t="str">
-        <f>IF(ISBLANK(E92),"","|"&amp;[1]!concstr(A92:E92,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="93" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F93" s="3" t="str">
-        <f>IF(ISBLANK(E93),"","|"&amp;[1]!concstr(A93:E93,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F94" s="3" t="str">
-        <f>IF(ISBLANK(E94),"","|"&amp;[1]!concstr(A94:E94,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="95" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F95" s="3" t="str">
-        <f>IF(ISBLANK(E95),"","|"&amp;[1]!concstr(A95:E95,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="96" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F96" s="3" t="str">
-        <f>IF(ISBLANK(E96),"","|"&amp;[1]!concstr(A96:E96,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="97" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F97" s="3" t="str">
-        <f>IF(ISBLANK(E97),"","|"&amp;[1]!concstr(A97:E97,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="98" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F98" s="3" t="str">
-        <f>IF(ISBLANK(E98),"","|"&amp;[1]!concstr(A98:E98,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="99" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F99" s="3" t="str">
-        <f>IF(ISBLANK(E99),"","|"&amp;[1]!concstr(A99:E99,"|")&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
@@ -1831,8 +4669,1099 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="7.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="50.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="2" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="1.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|:---|:---|:---|:---|:---|</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||E|検索バーを開く|</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||F|検索ユーティリティを開始する|</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||H|履歴バーを開く|</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||I|お気に入りバーを開く|</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||L|[ファイルを開く]ダイアログボックスを開く|</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||N|同じWebアドレスで別のブラウザのインスタンスを開く|</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||O|[ファイルを開く]ダイアログボックスを開く。CtrlLキーと同じ|</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||P|[印刷]ダイアログボックスを開く|</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||R|現在のWebページを更新する|</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||W|現在のウィンドウを閉じる|</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||F4キー|複数の文書を同時に開くことができるプログラムで、作業中の文書を閉じる|</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||項目をドラッグする|ファイルをコピーする|</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||Esc|[スタート]メニューを表示する|</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||方向キー|テキストブロックを強調表示する|</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||項目をドラッグする|選択した項目へのショートカットを作成する|</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift||Del|選択した項目を、ごみ箱に移動せずに完全に削除する|</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift||F10|選択した項目のショートカットメニューを表示する|</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||Enter|選択した項目のプロパティを表示する|</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||Space|作業中のウィンドウのショートカットメニューを開く|</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||Tab|開いている項目を切り替える|</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||Esc|項目を開いた順に切り替える|</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||Space|作業中のウィンドウのシステムメニューを開く|</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F4|使用中の項目を閉じる、または作業中のプログラムを終了する|</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||メニュー内の下線付きの文字キー|対応するメニューを表示する|</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="1"/>
+      <c r="E27" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F2|選択した項目の名前を変更する|</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="1"/>
+      <c r="E28" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F3|ファイルまたはフォルダを検索する|</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="1"/>
+      <c r="E29" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F4|マイコンピュータまたはエクスプローラでアドレスバーの一覧を表示する|</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="1"/>
+      <c r="E30" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F5|作業中のウィンドウを更新する|</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="1"/>
+      <c r="E31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F6|ウィンドウ内またはデスクトップ上の画面要素を切り替える|</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D32" s="1"/>
+      <c r="E32" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G32" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F10|作業中のプログラムのメニューバーをアクティブにする|</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D33" s="1"/>
+      <c r="E33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G33" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||Left/Right|左/右側のメニューを開く、またはサブメニューを開く|</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D34" s="1"/>
+      <c r="E34" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G34" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||BackSpace|マイコンピュータまたはエクスプローラで1階層上のフォルダを表示する|</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Win|Pause|システムのプロパティを表示|</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Win|F|検索ウィンドウを表示|</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||Win|D|【仮想デスクトップ】新規デスクトップ作成|</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||Win|Left/Right|【仮想デスクトップ】デスクトップに移動 前/次|</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G39" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Win|Tab|【仮想デスクトップ】タスクビュー表示|</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Win|h|表示 共有チャーム|</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G41" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Win|b|通知領域（タスクトレイ）へフォーカス|</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G42" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Win|t|タスクバー 巡回|</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Win|x|表示 アドバンスドメニュー(スタートメニューの右クリックメニュー)|</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D44" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G44" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Win|z|表示 アプリのコマンドバー|</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G45" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Win|d|表示 デスクトップ|</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Win|,|表示 デスクトップ(一時的)|</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G47" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Win|PrtSc|スクリーンショット保存 to \\Pictures\\Screenshots|</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D48" s="1"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D49" s="1"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D50" s="1"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D51" s="1"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D52" s="1"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D53" s="1"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D54" s="1"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D55" s="1"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D56" s="1"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D57" s="1"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D58" s="1"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D59" s="1"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D60" s="1"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D61" s="1"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D62" s="1"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D63" s="1"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D64" s="1"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D65" s="1"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D66" s="1"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D67" s="1"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D68" s="1"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D69" s="1"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D70" s="1"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D71" s="1"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D72" s="1"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D73" s="1"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D74" s="1"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D75" s="1"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D76" s="1"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D77" s="1"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D78" s="1"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D79" s="1"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D80" s="1"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D81" s="1"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D82" s="1"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D83" s="1"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D84" s="1"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D85" s="1"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:A85">
+      <formula1>"Ctrl"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B3:B85">
+      <formula1>"Shift"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C85">
+      <formula1>"Alt"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D85">
+      <formula1>"Win"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/shortcut_keys.xlsx
+++ b/shortcut_keys.xlsx
@@ -4,26 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Firefox" sheetId="6" r:id="rId1"/>
-    <sheet name="Thunderbird" sheetId="5" r:id="rId2"/>
-    <sheet name="iThoughts" sheetId="4" r:id="rId3"/>
-    <sheet name="Windows10" sheetId="7" r:id="rId4"/>
+    <sheet name="Windows10" sheetId="7" r:id="rId1"/>
+    <sheet name="Firefox" sheetId="6" r:id="rId2"/>
+    <sheet name="Thunderbird" sheetId="5" r:id="rId3"/>
+    <sheet name="iThoughts" sheetId="4" r:id="rId4"/>
+    <sheet name="Vim" sheetId="8" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">テーブル134[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">テーブル1[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">テーブル13[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">テーブル1345[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">テーブル134[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">テーブル1[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">テーブル13[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Vim!$A$1:$E$78</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">テーブル1345[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="testname01" localSheetId="1">[1]Sheet1!#REF!</definedName>
+    <definedName name="testname01" localSheetId="2">[1]Sheet1!#REF!</definedName>
+    <definedName name="testname01" localSheetId="4">[1]Sheet1!#REF!</definedName>
     <definedName name="testname01" localSheetId="0">[1]Sheet1!#REF!</definedName>
-    <definedName name="testname01" localSheetId="1">[1]Sheet1!#REF!</definedName>
-    <definedName name="testname01" localSheetId="3">[1]Sheet1!#REF!</definedName>
     <definedName name="testname01">[1]Sheet1!#REF!</definedName>
     <definedName name="testname03">!$A$1:$B$2</definedName>
   </definedNames>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="200">
   <si>
     <t>Ctrl</t>
   </si>
@@ -41,9 +43,6 @@
   </si>
   <si>
     <t>Alt</t>
-  </si>
-  <si>
-    <t>key</t>
   </si>
   <si>
     <t>機能</t>
@@ -51,9 +50,6 @@
       <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>|Ctrl|Shift|Alt|key|機能|</t>
   </si>
   <si>
     <t>:---</t>
@@ -848,6 +844,109 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>gv</t>
+  </si>
+  <si>
+    <t>再度同じ範囲を選択</t>
+  </si>
+  <si>
+    <t>ge</t>
+  </si>
+  <si>
+    <t>前単語の末尾へ移動</t>
+  </si>
+  <si>
+    <t>&lt;C-r&gt; /</t>
+  </si>
+  <si>
+    <t>最後に検索に使用したワード検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v ⇒ o </t>
+  </si>
+  <si>
+    <t>選択範囲の末尾にカーソルを移動</t>
+  </si>
+  <si>
+    <t>挿入モード⇒&lt;C-r&gt;=0xFFFF</t>
+  </si>
+  <si>
+    <t>簡易16⇒10進数変換（例では65535）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/\V </t>
+  </si>
+  <si>
+    <t>テキストで検索</t>
+  </si>
+  <si>
+    <t>f/b</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>移動 1画面分 上/下</t>
+    <rPh sb="8" eb="9">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>u/d</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>移動 半画面分 上/下</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>+/-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>先頭に移動 次行/前行</t>
+    <rPh sb="9" eb="10">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>h/m/l</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>移動 前/次の空行</t>
+    <rPh sb="5" eb="6">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[/]</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>|Ctrl|Shift|Alt|Win|Key|機能|</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>|Ctrl|Shift|Alt|Key|機能|</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カーソル移動 画面 最上行/中央/最下行</t>
+    <rPh sb="17" eb="20">
+      <t>サイカギョウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -948,7 +1047,148 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="72">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1002,111 +1242,6 @@
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1177,6 +1312,146 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
         <color theme="1"/>
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
@@ -1214,164 +1489,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
         <color theme="1"/>
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
@@ -1465,133 +1582,133 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
         <color theme="1"/>
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1702,24 +1819,6 @@
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1967,7 +2066,258 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
         <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
       </font>
@@ -2017,33 +2367,18 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="setting"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="concstr"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="テーブル134" displayName="テーブル134" ref="A1:F91" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="A1:F91"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Ctrl" totalsRowLabel="集計" dataDxfId="27" totalsRowDxfId="28"/>
-    <tableColumn id="2" name="Shift" dataDxfId="25" totalsRowDxfId="26"/>
-    <tableColumn id="3" name="Alt" dataDxfId="23" totalsRowDxfId="24"/>
-    <tableColumn id="4" name="key" dataDxfId="21" totalsRowDxfId="22"/>
-    <tableColumn id="5" name="機能" dataDxfId="19" totalsRowDxfId="20"/>
-    <tableColumn id="7" name="|Ctrl|Shift|Alt|key|機能|" totalsRowFunction="count" dataDxfId="17" totalsRowDxfId="18" dataCellStyle="標準 2">
-      <calculatedColumnFormula>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル1345" displayName="テーブル1345" ref="A1:G85" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A1:G85"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Ctrl" totalsRowLabel="集計" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="2" name="Shift" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="8" name="Alt" dataDxfId="24" totalsRowDxfId="23" dataCellStyle="標準 2"/>
+    <tableColumn id="3" name="Win" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="4" name="Key" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="5" name="機能" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="7" name="|Ctrl|Shift|Alt|Win|Key|機能|" totalsRowFunction="count" dataDxfId="0" totalsRowDxfId="16" dataCellStyle="標準 2">
+      <calculatedColumnFormula>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2051,16 +2386,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル13" displayName="テーブル13" ref="A1:F91" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="テーブル134" displayName="テーブル134" ref="A1:F91" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="A1:F91"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Ctrl" totalsRowLabel="集計" dataDxfId="40" totalsRowDxfId="41"/>
-    <tableColumn id="2" name="Shift" dataDxfId="38" totalsRowDxfId="39"/>
-    <tableColumn id="3" name="Alt" dataDxfId="36" totalsRowDxfId="37"/>
-    <tableColumn id="4" name="key" dataDxfId="34" totalsRowDxfId="35"/>
-    <tableColumn id="5" name="機能" dataDxfId="32" totalsRowDxfId="33"/>
-    <tableColumn id="7" name="|Ctrl|Shift|Alt|key|機能|" totalsRowFunction="count" dataDxfId="16" totalsRowDxfId="31" dataCellStyle="標準 2">
-      <calculatedColumnFormula>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
+    <tableColumn id="1" name="Ctrl" totalsRowLabel="集計" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="2" name="Shift" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="3" name="Alt" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="4" name="Key" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="5" name="機能" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="7" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="標準 2">
+      <calculatedColumnFormula>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2068,16 +2403,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:F99" headerRowDxfId="57" dataDxfId="56">
-  <autoFilter ref="A1:F99"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル13" displayName="テーブル13" ref="A1:F91" headerRowDxfId="57" dataDxfId="56">
+  <autoFilter ref="A1:F91"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Ctrl" totalsRowLabel="集計" dataDxfId="55" totalsRowDxfId="54"/>
     <tableColumn id="2" name="Shift" dataDxfId="53" totalsRowDxfId="52"/>
     <tableColumn id="3" name="Alt" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="4" name="key" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="4" name="Key" dataDxfId="49" totalsRowDxfId="48"/>
     <tableColumn id="5" name="機能" dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="7" name="|Ctrl|Shift|Alt|key|機能|" totalsRowFunction="count" dataDxfId="45" totalsRowDxfId="44">
-      <calculatedColumnFormula>IF(ISBLANK(E2),"","|"&amp;[2]!concstr(A2:E2,"|")&amp;"|")</calculatedColumnFormula>
+    <tableColumn id="7" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="45" totalsRowDxfId="44" dataCellStyle="標準 2">
+      <calculatedColumnFormula>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2085,17 +2420,33 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル1345" displayName="テーブル1345" ref="A1:G85" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:G85"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:F99" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:F99"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Ctrl" totalsRowLabel="集計" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="2" name="Shift" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="3" name="Alt" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="4" name="Key" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="5" name="機能" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="7" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="31" dataCellStyle="標準 2">
+      <calculatedColumnFormula>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="テーブル13456" displayName="テーブル13456" ref="A1:F78" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:F78"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Ctrl" totalsRowLabel="集計" dataDxfId="12" totalsRowDxfId="13"/>
     <tableColumn id="2" name="Shift" dataDxfId="10" totalsRowDxfId="11"/>
-    <tableColumn id="8" name="Alt" dataDxfId="0" totalsRowDxfId="1" dataCellStyle="標準 2"/>
-    <tableColumn id="3" name="Win" dataDxfId="8" totalsRowDxfId="9"/>
+    <tableColumn id="8" name="Alt" dataDxfId="8" totalsRowDxfId="9" dataCellStyle="標準 2"/>
     <tableColumn id="4" name="Key" dataDxfId="6" totalsRowDxfId="7"/>
     <tableColumn id="5" name="機能" dataDxfId="4" totalsRowDxfId="5"/>
-    <tableColumn id="7" name="|Ctrl|Shift|Alt|key|機能|" totalsRowFunction="count" dataDxfId="2" totalsRowDxfId="3" dataCellStyle="標準 2">
-      <calculatedColumnFormula>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
+    <tableColumn id="7" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="2" totalsRowDxfId="3" dataCellStyle="標準 2">
+      <calculatedColumnFormula>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2389,25 +2740,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="7.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
+    <col min="1" max="3" width="6.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="42.77734375" style="2" customWidth="1"/>
     <col min="6" max="6" width="50.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="2" style="3"/>
+    <col min="7" max="7" width="83.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="2" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2417,601 +2769,1056 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="1.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="1.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v>|:---|:---|:---|:---|:---|</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|:---|:---|:---|:---|:---|:---|</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||||E|検索バーを開く|</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||||F|検索ユーティリティを開始する|</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||||H|履歴バーを開く|</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||||I|お気に入りバーを開く|</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||||L|[ファイルを開く]ダイアログボックスを開く|</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||||N|同じWebアドレスで別のブラウザのインスタンスを開く|</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||||O|[ファイルを開く]ダイアログボックスを開く。CtrlLキーと同じ|</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||||P|[印刷]ダイアログボックスを開く|</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||||R|現在のWebページを更新する|</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||||W|現在のウィンドウを閉じる|</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||||F4キー|複数の文書を同時に開くことができるプログラムで、作業中の文書を閉じる|</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||||項目をドラッグする|ファイルをコピーする|</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||||Esc|[スタート]メニューを表示する|</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift|||方向キー|テキストブロックを強調表示する|</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift|||項目をドラッグする|選択した項目へのショートカットを作成する|</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift|||Del|選択した項目を、ごみ箱に移動せずに完全に削除する|</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift|||F10|選択した項目のショートカットメニューを表示する|</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Alt||Enter|選択した項目のプロパティを表示する|</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Alt||Space|作業中のウィンドウのショートカットメニューを開く|</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Alt||Tab|開いている項目を切り替える|</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Alt||Esc|項目を開いた順に切り替える|</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Alt||Space|作業中のウィンドウのシステムメニューを開く|</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Alt||F4|使用中の項目を閉じる、または作業中のプログラムを終了する|</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Alt||メニュー内の下線付きの文字キー|対応するメニューを表示する|</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="1"/>
+      <c r="E27" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||||F2|選択した項目の名前を変更する|</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="1"/>
+      <c r="E28" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||||F3|ファイルまたはフォルダを検索する|</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="1"/>
+      <c r="E29" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||||F4|マイコンピュータまたはエクスプローラでアドレスバーの一覧を表示する|</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="1"/>
+      <c r="E30" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||||F5|作業中のウィンドウを更新する|</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="1"/>
+      <c r="E31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||||F6|ウィンドウ内またはデスクトップ上の画面要素を切り替える|</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D32" s="1"/>
+      <c r="E32" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||||F10|作業中のプログラムのメニューバーをアクティブにする|</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D33" s="1"/>
+      <c r="E33" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||d|ブックマーク登録|</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="F33" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G33" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||||Left/Right|左/右側のメニューを開く、またはサブメニューを開く|</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D34" s="1"/>
+      <c r="E34" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G34" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||||BackSpace|マイコンピュータまたはエクスプローラで1階層上のフォルダを表示する|</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D35" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v>|||Alt|Left/Right|戻る/進む|</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F6" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F7" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F8" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="6"/>
-      <c r="F9" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F10" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F11" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F12" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F13" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F14" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F15" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F16" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F17" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F18" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F19" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F21" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F22" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F23" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F24" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F25" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F26" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F27" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F28" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F29" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F30" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F31" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F32" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F33" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F34" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F35" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F36" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F37" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F38" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F39" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F40" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F41" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F42" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F43" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F44" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F45" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F46" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F47" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F48" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F49" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F50" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F51" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F52" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F53" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F54" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F55" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F56" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F57" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F58" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F59" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F60" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F61" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F62" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F63" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F64" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F65" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F66" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F67" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F68" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F69" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F70" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F71" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F72" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F73" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F74" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F75" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F76" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F77" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F78" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F79" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F80" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F81" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F82" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F83" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F84" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F85" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F86" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F87" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F88" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F89" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F90" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F91" s="3" t="str">
-        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+      <c r="E35" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||Win|Pause|システムのプロパティを表示|</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||Win|F|検索ウィンドウを表示|</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||Win|D|【仮想デスクトップ】新規デスクトップ作成|</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||Win|Left/Right|【仮想デスクトップ】デスクトップに移動 前/次|</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G39" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||Win|Tab|【仮想デスクトップ】タスクビュー表示|</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||Win|h|表示 共有チャーム|</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G41" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||Win|b|通知領域（タスクトレイ）へフォーカス|</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||Win|t|タスクバー 巡回|</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||Win|x|表示 アドバンスドメニュー(スタートメニューの右クリックメニュー)|</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G44" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||Win|z|表示 アプリのコマンドバー|</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G45" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||Win|d|表示 デスクトップ|</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||Win|,|表示 デスクトップ(一時的)|</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G47" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||Win|PrtSc|スクリーンショット保存 to \\Pictures\\Screenshots|</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D48" s="1"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D49" s="1"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D50" s="1"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D51" s="1"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D52" s="1"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D53" s="1"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D54" s="1"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D55" s="1"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D56" s="1"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D57" s="1"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D58" s="1"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D59" s="1"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D60" s="1"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D61" s="1"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D62" s="1"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D63" s="1"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D64" s="1"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D65" s="1"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D66" s="1"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D67" s="1"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D68" s="1"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D69" s="1"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D70" s="1"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D71" s="1"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D72" s="1"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D73" s="1"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D74" s="1"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D75" s="1"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D76" s="1"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D77" s="1"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D78" s="1"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D79" s="1"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D80" s="1"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D81" s="1"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D82" s="1"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D83" s="1"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D84" s="1"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D85" s="1"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C91">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:A85">
+      <formula1>"Ctrl"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B3:B85">
+      <formula1>"Shift"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C85">
       <formula1>"Alt"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B3:B91">
-      <formula1>"Shift"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:A91">
-      <formula1>"Ctrl"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D85">
+      <formula1>"Win"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3035,7 +3842,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="7.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="6.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
     <col min="5" max="5" width="42.77734375" style="2" customWidth="1"/>
     <col min="6" max="6" width="50.21875" style="3" bestFit="1" customWidth="1"/>
@@ -3053,96 +3860,732 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="1.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v>|:---|:---|:---|:---|:---|</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||d|ブックマーク登録|</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Alt|Left/Right|戻る/進む|</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="6"/>
+      <c r="F9" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F29" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F30" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F35" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F41" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F42" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F43" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F44" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F45" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F46" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F47" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F49" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F50" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F51" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F52" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F53" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F54" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F55" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F56" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F57" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F58" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F59" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F60" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F61" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F62" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F63" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F64" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F65" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F66" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F67" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F68" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F69" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F70" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F71" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F72" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F73" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F74" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F75" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F76" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F77" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F78" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F79" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F80" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F81" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F82" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F83" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F84" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F85" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F86" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F87" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F88" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F89" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F90" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F91" s="3" t="str">
+        <f>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C91">
+      <formula1>"Alt"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B3:B91">
+      <formula1>"Shift"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:A91">
+      <formula1>"Ctrl"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F91"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E3" sqref="E3"/>
+      <selection pane="topRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="6.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="50.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="2" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="1.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v>|:---|:---|:---|:---|:---|</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F3" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v>||||Right/Left|スレッド 広げる/折りたたむ|</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F4" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||*/\|全スレッド 広げる/折りたたむ|</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F5" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v>||||m|既読/未読 メッセージ|</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F6" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v>||||r|既読/未読 スレッド|</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F7" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v>||||j|迷惑マーク 付与|</v>
       </c>
     </row>
@@ -3151,79 +4594,79 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F8" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v>||Shift||j|迷惑マーク 解除|</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v>||||s|スター 付与/解除|</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F10" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v>||||f/b|メッセージ選択切替 次/前|</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F11" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v>||||n/p|メッセージ選択切替(未読) 次/前|</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F12" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v>||/Shift||Tab|フォーカス切替 UI要素 次/前|</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F13" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v>||/Shift||F6|フォーカス切替 メールペイン 次/前|</v>
       </c>
     </row>
@@ -3232,13 +4675,13 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F14" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||n|新規メッセージ|</v>
       </c>
     </row>
@@ -3247,16 +4690,16 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F15" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|/Shift||r|返信(送信者のみ/全受信者)|</v>
       </c>
     </row>
@@ -3265,13 +4708,13 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F16" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||+/-|ズーム In/Out|</v>
       </c>
     </row>
@@ -3283,13 +4726,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F17" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||k|検索 クイックフィルター|</v>
       </c>
     </row>
@@ -3301,13 +4744,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F18" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||f|検索 フォルダー内の詳細検索|</v>
       </c>
     </row>
@@ -3316,16 +4759,16 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F19" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|/Shift||Tab|タブ移動 次/前|</v>
       </c>
     </row>
@@ -3337,13 +4780,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F20" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||c|カレンダータブ|</v>
       </c>
     </row>
@@ -3352,442 +4795,442 @@
         <v>0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F21" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||i|新しい予定＠カレンダータブ|</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F22" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||d|新しいToDo＠カレンダータブ|</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F32" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F33" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F34" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F35" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F36" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F37" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F38" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F40" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F41" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F42" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F43" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F44" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F45" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F46" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F47" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F48" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F49" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F50" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F51" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F52" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F53" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F54" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F55" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F56" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F57" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F58" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F59" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F60" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F61" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F62" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F63" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F64" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F65" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F66" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F67" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F68" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F69" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F70" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F71" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F72" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F73" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F74" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F75" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F76" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F77" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F78" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F79" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F80" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F81" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="82" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F82" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F83" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F84" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F85" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F86" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F87" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F88" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="89" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F89" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F90" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="91" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F91" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
@@ -3812,22 +5255,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
+      <selection pane="topRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="1" customWidth="1"/>
+    <col min="1" max="3" width="6.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
     <col min="5" max="5" width="42.77734375" style="2" customWidth="1"/>
     <col min="6" max="6" width="50.21875" style="3" bestFit="1" customWidth="1"/>
@@ -3845,33 +5287,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="1.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" s="3" t="str">
-        <f>IF(ISBLANK(E2),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|:---|:---|:---|:---|:---|</v>
       </c>
     </row>
@@ -3880,13 +5322,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||↑/↓|トピック 順番入替え|</v>
       </c>
     </row>
@@ -3895,13 +5337,13 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|||Alt|1..9|トピック お気に入りアイコン|</v>
       </c>
     </row>
@@ -3910,13 +5352,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||Delete|トピック 選択中トピックのみ削除|</v>
       </c>
     </row>
@@ -3925,13 +5367,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||k|トピック ハイパーリンク 挿入|</v>
       </c>
     </row>
@@ -3943,25 +5385,25 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||k|トピック ハイパーリンク 開く|</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F8" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>||||p|タスク 進捗Up|</v>
       </c>
     </row>
@@ -3970,37 +5412,37 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>||Shift||p|タスク 完了(進捗Down)|</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>||||c|タスク コスト|</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F11" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>||||e|タスク 労力|</v>
       </c>
     </row>
@@ -4009,13 +5451,13 @@
         <v>0</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F12" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||1-5|タスク 優先度|</v>
       </c>
     </row>
@@ -4024,13 +5466,13 @@
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F13" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||+/-|フォント サイズUp/Down|</v>
       </c>
     </row>
@@ -4039,13 +5481,13 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||b|フォント 太字|</v>
       </c>
     </row>
@@ -4054,13 +5496,13 @@
         <v>0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||u|フォント イタリック|</v>
       </c>
     </row>
@@ -4072,13 +5514,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F16" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||u|フォント 取り消し線(テキスト選択時)|</v>
       </c>
     </row>
@@ -4090,25 +5532,25 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F17" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||t|表示 ノートウィンドウ View/Hide|</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F18" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>||||F4|表示 ノートウィンドウ View/Hide|</v>
       </c>
     </row>
@@ -4117,13 +5559,13 @@
         <v>0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F19" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||t|表示 ノートモード切替(編集/閲覧)|</v>
       </c>
     </row>
@@ -4132,25 +5574,25 @@
         <v>0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F20" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||0|表示 オートズームOn/Off|</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F21" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>||||.|表示 ブランチView/Hide|</v>
       </c>
     </row>
@@ -4159,13 +5601,13 @@
         <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F22" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||PgUp/Dn|表示 ズームIn/Out|</v>
       </c>
     </row>
@@ -4177,13 +5619,13 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F23" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||f|表示 フォーカスモードOn/Off|</v>
       </c>
     </row>
@@ -4195,463 +5637,463 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F24" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||o|表示 アウトラインモードOn/Off|</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F32" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F33" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F34" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F35" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F36" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F37" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F38" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F40" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F41" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F42" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F43" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F44" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F45" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F46" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F47" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F48" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F49" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F50" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F51" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F52" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F53" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F54" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F55" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F56" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F57" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F58" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F59" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F60" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F61" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F62" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F63" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F64" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F65" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F66" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F67" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F68" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F69" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F70" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F71" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F72" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F73" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F74" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F75" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F76" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F77" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F78" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F79" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F80" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F81" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="82" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F82" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F83" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F84" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F85" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F86" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F87" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F88" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="89" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F89" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F90" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="91" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F91" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="92" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F92" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="93" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F93" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F94" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="95" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F95" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="96" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F96" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="97" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F97" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="98" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F98" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="99" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F99" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
+        <f>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
@@ -4676,27 +6118,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E3" sqref="E3"/>
+      <selection pane="topRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="7.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="50.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="6.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="50.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="2" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4706,1056 +6149,648 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>102</v>
+      <c r="D1" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="1.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="1.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
         <v>|:---|:---|:---|:---|:---|</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1"/>
+    <row r="3" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="E3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||E|検索バーを開く|</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>194</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift||[/]|移動 前/次の空行|</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||F|検索ユーティリティを開始する|</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>176</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||gv|再度同じ範囲を選択|</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="E5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||H|履歴バーを開く|</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>178</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||ge|前単語の末尾へ移動|</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="E6" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||I|お気に入りバーを開く|</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>180</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||&lt;C-r&gt; /|最後に検索に使用したワード検索|</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="E7" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G7" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||L|[ファイルを開く]ダイアログボックスを開く|</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>182</v>
+      </c>
+      <c r="F7" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||v ⇒ o |選択範囲の末尾にカーソルを移動|</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||N|同じWebアドレスで別のブラウザのインスタンスを開く|</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>184</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||挿入モード⇒&lt;C-r&gt;=0xFFFF|簡易16⇒10進数変換（例では65535）|</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="E9" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||O|[ファイルを開く]ダイアログボックスを開く。CtrlLキーと同じ|</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>186</v>
+      </c>
+      <c r="F9" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||/\V |テキストで検索|</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="E10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G10" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||P|[印刷]ダイアログボックスを開く|</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>199</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift||h/m/l|カーソル移動 画面 最上行/中央/最下行|</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="E11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||R|現在のWebページを更新する|</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||+/-|先頭に移動 次行/前行|</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="E12" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G12" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||W|現在のウィンドウを閉じる|</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||f/b|移動 1画面分 上/下|</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="E13" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G13" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||F4キー|複数の文書を同時に開くことができるプログラムで、作業中の文書を閉じる|</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G14" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||項目をドラッグする|ファイルをコピーする|</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G15" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||Esc|[スタート]メニューを表示する|</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G16" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||方向キー|テキストブロックを強調表示する|</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G17" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||項目をドラッグする|選択した項目へのショートカットを作成する|</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G18" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift||Del|選択した項目を、ごみ箱に移動せずに完全に削除する|</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G19" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift||F10|選択した項目のショートカットメニューを表示する|</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G20" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||Enter|選択した項目のプロパティを表示する|</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G21" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||Space|作業中のウィンドウのショートカットメニューを開く|</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||Tab|開いている項目を切り替える|</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G23" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||Esc|項目を開いた順に切り替える|</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G24" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||Space|作業中のウィンドウのシステムメニューを開く|</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G25" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||F4|使用中の項目を閉じる、または作業中のプログラムを終了する|</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G26" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||メニュー内の下線付きの文字キー|対応するメニューを表示する|</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D27" s="1"/>
-      <c r="E27" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G27" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||F2|選択した項目の名前を変更する|</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="1"/>
-      <c r="E28" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G28" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||F3|ファイルまたはフォルダを検索する|</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D29" s="1"/>
-      <c r="E29" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G29" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||F4|マイコンピュータまたはエクスプローラでアドレスバーの一覧を表示する|</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D30" s="1"/>
-      <c r="E30" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G30" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||F5|作業中のウィンドウを更新する|</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D31" s="1"/>
-      <c r="E31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G31" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||F6|ウィンドウ内またはデスクトップ上の画面要素を切り替える|</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D32" s="1"/>
-      <c r="E32" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G32" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||F10|作業中のプログラムのメニューバーをアクティブにする|</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D33" s="1"/>
-      <c r="E33" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G33" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||Left/Right|左/右側のメニューを開く、またはサブメニューを開く|</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D34" s="1"/>
-      <c r="E34" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G34" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||BackSpace|マイコンピュータまたはエクスプローラで1階層上のフォルダを表示する|</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D35" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G35" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>|||Win|Pause|システムのプロパティを表示|</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D36" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G36" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>|||Win|F|検索ウィンドウを表示|</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G37" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl||Win|D|【仮想デスクトップ】新規デスクトップ作成|</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G38" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl||Win|Left/Right|【仮想デスクトップ】デスクトップに移動 前/次|</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D39" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G39" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>|||Win|Tab|【仮想デスクトップ】タスクビュー表示|</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D40" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G40" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>|||Win|h|表示 共有チャーム|</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D41" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G41" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>|||Win|b|通知領域（タスクトレイ）へフォーカス|</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D42" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G42" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>|||Win|t|タスクバー 巡回|</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D43" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G43" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>|||Win|x|表示 アドバンスドメニュー(スタートメニューの右クリックメニュー)|</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D44" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G44" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>|||Win|z|表示 アプリのコマンドバー|</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D45" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G45" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>|||Win|d|表示 デスクトップ|</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D46" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G46" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>|||Win|,|表示 デスクトップ(一時的)|</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D47" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G47" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v>|||Win|PrtSc|スクリーンショット保存 to \\Pictures\\Screenshots|</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D48" s="1"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D49" s="1"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="1"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="1"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D52" s="1"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D53" s="1"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D54" s="1"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D55" s="1"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D56" s="1"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D57" s="1"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D58" s="1"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D59" s="1"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D60" s="1"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D61" s="1"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D62" s="1"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D63" s="1"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D64" s="1"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D65" s="1"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D66" s="1"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D67" s="1"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D68" s="1"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D69" s="1"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D70" s="1"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D71" s="1"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D72" s="1"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D73" s="1"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D74" s="1"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D75" s="1"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D76" s="1"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D77" s="1"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D78" s="1"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D79" s="1"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D80" s="1"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D81" s="1"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D82" s="1"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D83" s="1"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D84" s="1"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D85" s="1"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
+        <v>190</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||u/d|移動 半画面分 上/下|</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="2"/>
+      <c r="F14" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="2"/>
+      <c r="F15" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="2"/>
+      <c r="F16" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="2"/>
+      <c r="F17" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="2"/>
+      <c r="F18" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="2"/>
+      <c r="F19" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="2"/>
+      <c r="F20" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="2"/>
+      <c r="F21" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="2"/>
+      <c r="F22" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="2"/>
+      <c r="F23" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="2"/>
+      <c r="F24" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E25" s="2"/>
+      <c r="F25" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E26" s="2"/>
+      <c r="F26" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E27" s="2"/>
+      <c r="F27" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E28" s="2"/>
+      <c r="F28" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="2"/>
+      <c r="F29" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E30" s="2"/>
+      <c r="F30" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E31" s="2"/>
+      <c r="F31" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="2"/>
+      <c r="F32" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="2"/>
+      <c r="F33" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="2"/>
+      <c r="F34" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E35" s="2"/>
+      <c r="F35" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="2"/>
+      <c r="F36" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E37" s="2"/>
+      <c r="F37" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E38" s="2"/>
+      <c r="F38" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D39" s="6"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="2"/>
+      <c r="F40" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="2"/>
+      <c r="F41" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E42" s="2"/>
+      <c r="F42" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E43" s="2"/>
+      <c r="F43" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E44" s="2"/>
+      <c r="F44" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E45" s="2"/>
+      <c r="F45" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E46" s="2"/>
+      <c r="F46" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E47" s="2"/>
+      <c r="F47" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E48" s="2"/>
+      <c r="F48" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E49" s="2"/>
+      <c r="F49" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E50" s="2"/>
+      <c r="F50" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E51" s="2"/>
+      <c r="F51" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E52" s="2"/>
+      <c r="F52" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E53" s="2"/>
+      <c r="F53" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E54" s="2"/>
+      <c r="F54" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E55" s="2"/>
+      <c r="F55" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E56" s="2"/>
+      <c r="F56" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E57" s="2"/>
+      <c r="F57" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E58" s="2"/>
+      <c r="F58" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E59" s="2"/>
+      <c r="F59" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E60" s="2"/>
+      <c r="F60" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E61" s="2"/>
+      <c r="F61" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E62" s="2"/>
+      <c r="F62" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E63" s="2"/>
+      <c r="F63" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E64" s="2"/>
+      <c r="F64" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E65" s="2"/>
+      <c r="F65" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E66" s="2"/>
+      <c r="F66" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E67" s="2"/>
+      <c r="F67" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E68" s="2"/>
+      <c r="F68" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E69" s="2"/>
+      <c r="F69" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E70" s="2"/>
+      <c r="F70" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E71" s="2"/>
+      <c r="F71" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E72" s="2"/>
+      <c r="F72" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E73" s="2"/>
+      <c r="F73" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E74" s="2"/>
+      <c r="F74" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E75" s="2"/>
+      <c r="F75" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E76" s="2"/>
+      <c r="F76" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E77" s="2"/>
+      <c r="F77" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E78" s="2"/>
+      <c r="F78" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:A85">
-      <formula1>"Ctrl"</formula1>
+  <dataValidations disablePrompts="1" count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C78">
+      <formula1>"Alt"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B3:B85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B3:B78">
       <formula1>"Shift"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C85">
-      <formula1>"Alt"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D85">
-      <formula1>"Win"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:A78">
+      <formula1>"Ctrl"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/shortcut_keys.xlsx
+++ b/shortcut_keys.xlsx
@@ -1,40 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C378A342-A616-49B0-8ABB-BB4D9A75C12A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21732" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Windows10" sheetId="7" r:id="rId1"/>
-    <sheet name="Firefox" sheetId="6" r:id="rId2"/>
-    <sheet name="Thunderbird" sheetId="5" r:id="rId3"/>
-    <sheet name="iThoughts" sheetId="4" r:id="rId4"/>
-    <sheet name="Vim" sheetId="8" r:id="rId5"/>
+    <sheet name="Outlook" sheetId="9" r:id="rId2"/>
+    <sheet name="Excel" sheetId="10" r:id="rId3"/>
+    <sheet name="Visio" sheetId="14" r:id="rId4"/>
+    <sheet name="Word" sheetId="12" r:id="rId5"/>
+    <sheet name="Firefox" sheetId="6" r:id="rId6"/>
+    <sheet name="Thunderbird" sheetId="5" r:id="rId7"/>
+    <sheet name="iThoughts" sheetId="4" r:id="rId8"/>
+    <sheet name="Vim" sheetId="8" r:id="rId9"/>
+    <sheet name="XChangeViewer" sheetId="11" r:id="rId10"/>
+    <sheet name="X-Finder" sheetId="13" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">テーブル134[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">テーブル1[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">テーブル13[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Vim!$A$1:$E$78</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">テーブル178[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">テーブル134[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">テーブル1[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">テーブル17[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">テーブル13[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">Vim!$A$1:$E$78</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">テーブル1312[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">テーブル1345[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">テーブル17810[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">テーブル1789[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">テーブル1781011[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="testname01" localSheetId="2">[1]Sheet1!#REF!</definedName>
+    <definedName name="testname01" localSheetId="5">[1]Sheet1!#REF!</definedName>
     <definedName name="testname01" localSheetId="1">[1]Sheet1!#REF!</definedName>
-    <definedName name="testname01" localSheetId="2">[1]Sheet1!#REF!</definedName>
+    <definedName name="testname01" localSheetId="6">[1]Sheet1!#REF!</definedName>
+    <definedName name="testname01" localSheetId="8">[1]Sheet1!#REF!</definedName>
+    <definedName name="testname01" localSheetId="3">[1]Sheet1!#REF!</definedName>
+    <definedName name="testname01" localSheetId="0">[1]Sheet1!#REF!</definedName>
     <definedName name="testname01" localSheetId="4">[1]Sheet1!#REF!</definedName>
-    <definedName name="testname01" localSheetId="0">[1]Sheet1!#REF!</definedName>
+    <definedName name="testname01" localSheetId="9">[1]Sheet1!#REF!</definedName>
+    <definedName name="testname01" localSheetId="10">[1]Sheet1!#REF!</definedName>
     <definedName name="testname01">[1]Sheet1!#REF!</definedName>
     <definedName name="testname03">!$A$1:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="468">
   <si>
     <t>Ctrl</t>
   </si>
@@ -950,11 +969,916 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>[メール] ビューに切り替える</t>
+  </si>
+  <si>
+    <t>[予定表] ビューに切り替える</t>
+  </si>
+  <si>
+    <t>[連絡先] ビューに切り替える</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>新規メッセージ</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>送信</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>会議出席依頼 作成</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォルダー 作成</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>連絡先 作成</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>予定 作成</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>開封済み</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>未開封</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>9[)]</t>
+  </si>
+  <si>
+    <t>選択行を表示</t>
+  </si>
+  <si>
+    <t>選択列を表示</t>
+  </si>
+  <si>
+    <t>5[%]</t>
+  </si>
+  <si>
+    <t>[パーセンテージ] 表示形式 (小数点以下の桁数 0) を設定</t>
+  </si>
+  <si>
+    <t>3[#]</t>
+  </si>
+  <si>
+    <t>[日付] 表示形式</t>
+  </si>
+  <si>
+    <t>:[*]</t>
+  </si>
+  <si>
+    <t>アクティブ セル領域 (アクティブ セルを含み、空白の行と列で囲まれているデータ領域) を選択</t>
+  </si>
+  <si>
+    <t>@[`]</t>
+  </si>
+  <si>
+    <t>数式と計算結果の表示を切り替え</t>
+  </si>
+  <si>
+    <t>折りたたまれた数式バーを展開し、展開されていた数式バーを折りたたみ</t>
+  </si>
+  <si>
+    <t>[セルの書式設定] ダイアログ ボックスを表示</t>
+  </si>
+  <si>
+    <t>アウトライン記号の表示と非表示を切り替え</t>
+  </si>
+  <si>
+    <t>選択行を非表示</t>
+  </si>
+  <si>
+    <t>選択列を非表示</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>現在の範囲からグラフを作成</t>
+  </si>
+  <si>
+    <t>PageUp(Down)</t>
+  </si>
+  <si>
+    <t>一画面分左に(右に)横スクロール</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>オートSUM機能</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>グループ化</t>
+  </si>
+  <si>
+    <t>←</t>
+  </si>
+  <si>
+    <t>グループ化解除</t>
+  </si>
+  <si>
+    <t>[関数の挿入] ダイアログ ボックスを表示</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>新規シートの挿入</t>
+  </si>
+  <si>
+    <t>直前の操作を繰り返す</t>
+  </si>
+  <si>
+    <t>【文字入力時】相対参照から絶対参照へ(複数回押すことで、行のみ列のみ選択可能)</t>
+  </si>
+  <si>
+    <t>[ジャンプ] ダイアログ ボックスを表示</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>[スペルチェック] ダイアログ ボックスを表示して、作業中のワークシートまたは選択した範囲内のスペルをチェック</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>名前を付けて保存</t>
+  </si>
+  <si>
+    <t>F2 ⇒ F9</t>
+  </si>
+  <si>
+    <t>計算式を見せずに数値に変える</t>
+  </si>
+  <si>
+    <t>【数式入力時】編集モード⇔入力モード切替</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Spase</t>
+  </si>
+  <si>
+    <t>一時的に手のひらツール</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>行末にジャンプ</t>
+  </si>
+  <si>
+    <t>ヘルプ・Officeアシスタントの表示</t>
+  </si>
+  <si>
+    <t>次のフィールドにジャンプ</t>
+  </si>
+  <si>
+    <t>［名前を付けて保存］ダイアログの表示</t>
+  </si>
+  <si>
+    <t>定型句の挿入</t>
+  </si>
+  <si>
+    <t>直前の操作の繰り返し</t>
+  </si>
+  <si>
+    <t>［ジャンプ（検索と置換）］ダイアログの表示</t>
+  </si>
+  <si>
+    <t>［スペルチェックと文章校正］の実行</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>フィールドの更新</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>行頭にジャンプ</t>
+  </si>
+  <si>
+    <t>文書全体の選択</t>
+  </si>
+  <si>
+    <t>［フォント］ダイアログの表示</t>
+  </si>
+  <si>
+    <t>［中央揃え］の設定</t>
+  </si>
+  <si>
+    <t>［検索（と置換）］ダイアログの表示</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>ウムラウトの入力</t>
+  </si>
+  <si>
+    <t>文末にジャンプ</t>
+  </si>
+  <si>
+    <t>［改ページ］の挿入</t>
+  </si>
+  <si>
+    <t>［言語］バーのショートカットメニューの表示</t>
+  </si>
+  <si>
+    <t>フィールドのロック</t>
+  </si>
+  <si>
+    <t>［印刷プレビュー］の実行</t>
+  </si>
+  <si>
+    <t>次のウィンドウに切り替え</t>
+  </si>
+  <si>
+    <t>フィールドの挿入</t>
+  </si>
+  <si>
+    <t>［（検索と）置換］ダイアログの表示</t>
+  </si>
+  <si>
+    <t>文頭にジャンプ</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>［両端揃え］の設定</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>［ハイパーリンクの挿入］ダイアログの表示</t>
+  </si>
+  <si>
+    <t>［左揃え］の設定</t>
+  </si>
+  <si>
+    <t>ファイルの新規作成</t>
+  </si>
+  <si>
+    <t>［ファイルを開く］ダイアログの表示</t>
+  </si>
+  <si>
+    <t>［印刷］ダイアログの表示</t>
+  </si>
+  <si>
+    <t>段落書式の解除</t>
+  </si>
+  <si>
+    <t>［右揃え］の設定</t>
+  </si>
+  <si>
+    <t>［上書き保存］の実行</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>ぶら下げインデントの設定（2002,2003）</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>直前の操作の繰り返し・やり直し</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>直前の操作を元に戻す</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>曲折アクセント付き文字の入力</t>
+  </si>
+  <si>
+    <t>フォント書式の解除</t>
+  </si>
+  <si>
+    <t>次のフィールドへジャンプ</t>
+  </si>
+  <si>
+    <t>最大化の実行</t>
+  </si>
+  <si>
+    <t>Visual Basic Editorの起動</t>
+  </si>
+  <si>
+    <t>定型句の登録</t>
+  </si>
+  <si>
+    <t>Wordの終了</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>［マクロ］ダイアログの表示</t>
+  </si>
+  <si>
+    <t>すべてのフィールドの表示切り替え</t>
+  </si>
+  <si>
+    <t>段落内で改行</t>
+  </si>
+  <si>
+    <t>ポップヒントの表示</t>
+  </si>
+  <si>
+    <t>前のフィールドにジャンプ</t>
+  </si>
+  <si>
+    <t>次を検索</t>
+  </si>
+  <si>
+    <t>直前の編集箇所へのジャンプ</t>
+  </si>
+  <si>
+    <t>［類義語辞典］ダイアログの表示</t>
+  </si>
+  <si>
+    <t>選択しているフィールドの表示切り替え</t>
+  </si>
+  <si>
+    <t>［見出し1］スタイルを設定</t>
+  </si>
+  <si>
+    <t>［見出し2］スタイルを設定</t>
+  </si>
+  <si>
+    <t>［見出し3］スタイルを設定</t>
+  </si>
+  <si>
+    <t>「c」の入力</t>
+  </si>
+  <si>
+    <t>脚注の挿入</t>
+  </si>
+  <si>
+    <t>新しいコメントの挿入</t>
+  </si>
+  <si>
+    <t>［下書き表示］モードに切り替え</t>
+  </si>
+  <si>
+    <t>［アウトライン表示］モードに切り替え</t>
+  </si>
+  <si>
+    <t>［印刷レイアウト表示］モードに切り替え</t>
+  </si>
+  <si>
+    <t>「R」の入力</t>
+  </si>
+  <si>
+    <t>ウィンドウの分割</t>
+  </si>
+  <si>
+    <t>「?」の入力</t>
+  </si>
+  <si>
+    <t>罫線の削除</t>
+  </si>
+  <si>
+    <t>日付（フィールド）の入力</t>
+  </si>
+  <si>
+    <t>前のフィールドへジャンプ</t>
+  </si>
+  <si>
+    <t>［翻訳］作業ウィンドウの表示</t>
+  </si>
+  <si>
+    <t>ページ数（フィールド）の入力</t>
+  </si>
+  <si>
+    <t>時刻（フィールド）の入力</t>
+  </si>
+  <si>
+    <t>［レベル下げ］の実行</t>
+  </si>
+  <si>
+    <t>［レベル上げ］の実行</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>アクセント付き文字の入力</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>［変更履歴の記録］の開始</t>
+  </si>
+  <si>
+    <t>［段区切り］の挿入</t>
+  </si>
+  <si>
+    <t>フィールドのロック解除</t>
+  </si>
+  <si>
+    <t>［ブックマーク］ダイアログの表示</t>
+  </si>
+  <si>
+    <t>前のウィンドウに切り替え</t>
+  </si>
+  <si>
+    <t>フィールドを実行結果に変更</t>
+  </si>
+  <si>
+    <t>フィールドコードの文字変換</t>
+  </si>
+  <si>
+    <t>［文字数カウント］ダイアログの表示</t>
+  </si>
+  <si>
+    <t>［箇条書き］の設定</t>
+  </si>
+  <si>
+    <t>［標準］スタイルを設定</t>
+  </si>
+  <si>
+    <t>スタイルの設定</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>低アクセント付き文字の入力</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>チルダ付き文字の入力</t>
+  </si>
+  <si>
+    <t>フォントサイズを1ランク縮小/拡大</t>
+    <rPh sb="15" eb="17">
+      <t>カクダイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;/&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォントサイズを1pt縮小/拡大</t>
+    <rPh sb="14" eb="16">
+      <t>カクダイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PgDn/Up</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>次/前ページの先頭にジャンプ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1画面下/上にジャンプ</t>
+    <rPh sb="5" eb="6">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>［上付き］/［下付き］の設定・解除</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>;/=</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>ルートに移動</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>すべての選択を解除</t>
+  </si>
+  <si>
+    <t>すべての選択を反転</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>アドレスバーに移動</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>インクリメンタル サーチ</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>拡張子のインクリメンタル サーチ</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>フォルダの表示設定を保存</t>
+  </si>
+  <si>
+    <t>ウインドウサイズを揃える</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>他のウインドウとの入れ替え</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>ポップアップメニュー1</t>
+  </si>
+  <si>
+    <t>ポップアップメニュー2</t>
+  </si>
+  <si>
+    <t>ドライブリスト</t>
+  </si>
+  <si>
+    <t>分割の切り替え</t>
+  </si>
+  <si>
+    <t>分割画面の切り替え</t>
+  </si>
+  <si>
+    <t>フォーカスしたアイテムの選択を反転して次のアイテムにフォーカスを移動</t>
+  </si>
+  <si>
+    <t>一つ上の階層に移動</t>
+  </si>
+  <si>
+    <t>戻る</t>
+  </si>
+  <si>
+    <t>他のウインドウのパス一覧</t>
+  </si>
+  <si>
+    <t>タブの履歴</t>
+  </si>
+  <si>
+    <t>左のタブに移動</t>
+  </si>
+  <si>
+    <t>右のタブに移動</t>
+  </si>
+  <si>
+    <t>タブ メニュー</t>
+  </si>
+  <si>
+    <t>タブの一覧</t>
+  </si>
+  <si>
+    <t>ナビゲートロックの切り替え</t>
+  </si>
+  <si>
+    <t>別ウインドウを開く</t>
+  </si>
+  <si>
+    <t>Ins</t>
+  </si>
+  <si>
+    <t>パスの抽出</t>
+  </si>
+  <si>
+    <t>最近閉じたタブの一覧</t>
+  </si>
+  <si>
+    <t>→/←/↑/↓</t>
+  </si>
+  <si>
+    <t>右/左/上/下に移動</t>
+    <rPh sb="2" eb="3">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>←</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>↑</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Ins</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Esc</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Space</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ツールフォルダの場合は項目を上/下に移動</t>
+    <rPh sb="16" eb="17">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>↑/↓</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>←/→</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タブを左/右に移動</t>
+    <rPh sb="5" eb="6">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>\*</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>図形間でフォーカスを1つ移動</t>
+  </si>
+  <si>
+    <t>[図形の整列] ダイアログ</t>
+  </si>
+  <si>
+    <t>マウスホイール</t>
+  </si>
+  <si>
+    <t>左右スクロール</t>
+  </si>
+  <si>
+    <t>[オブジェクト選択ツール]</t>
+  </si>
+  <si>
+    <t>[テキスト ツール]</t>
+  </si>
+  <si>
+    <t>[コネクタ]</t>
+  </si>
+  <si>
+    <t>[直線ツール]</t>
+  </si>
+  <si>
+    <t>[円弧ツール]</t>
+  </si>
+  <si>
+    <t>[四角形ツール]</t>
+  </si>
+  <si>
+    <t>[円/楕円ツール]</t>
+  </si>
+  <si>
+    <t>[接続ポイント]</t>
+  </si>
+  <si>
+    <t>[テキスト ボックス ツール]</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>ページサイズ ウィンドウに合わせる</t>
+  </si>
+  <si>
+    <t>f7</t>
+  </si>
+  <si>
+    <t>開いている図面ウィンドウを左右に並べて表示</t>
+  </si>
+  <si>
+    <t>(Shift)</t>
+  </si>
+  <si>
+    <t>テキスト 書式のコピー/貼り付け</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>h/j</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>オブジェクト 左右反転/上下反転</t>
+    <rPh sb="12" eb="14">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンテン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>l/r</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>オブジェクト 最前面/最背面に移動</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&gt;/&lt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テキスト フォント 拡大/縮小</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テキスト 横 左揃え/右揃え/中央揃え/両端揃え</t>
+    <rPh sb="11" eb="12">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ソロ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ソロ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>リョウタン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ソロ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>l/r/c/j</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>t/m/v</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テキスト 縦 上揃え/中央揃え/下揃え</t>
+    <rPh sb="16" eb="17">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ソロ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>g/u</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>オブジェクト グループ化/グループ化解除</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>オブジェクト 回転 反時計回り/時計回り</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1022,7 +1946,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1042,48 +1966,15 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="72">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="154">
     <dxf>
       <font>
         <b val="0"/>
@@ -1351,6 +2242,7 @@
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1438,7 +2330,6 @@
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1454,6 +2345,8 @@
         <sz val="9"/>
         <color theme="1"/>
         <name val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1512,24 +2405,6 @@
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1563,8 +2438,45 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
         <color theme="1"/>
         <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1582,146 +2494,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
         <color theme="1"/>
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
@@ -1745,6 +2517,111 @@
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1796,6 +2673,146 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
         <color theme="1"/>
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
@@ -1819,146 +2836,6 @@
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2047,6 +2924,146 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
         <color theme="1"/>
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
@@ -2066,6 +3083,98 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
         <color rgb="FF000000"/>
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
@@ -2105,6 +3214,7 @@
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -2122,6 +3232,221 @@
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -2157,6 +3482,41 @@
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
@@ -2193,6 +3553,1047 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2345,6 +4746,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2368,16 +4772,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル1345" displayName="テーブル1345" ref="A1:G85" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="A1:G85"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1345" displayName="テーブル1345" ref="A1:G85" headerRowDxfId="153" dataDxfId="152">
+  <autoFilter ref="A1:G85" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Ctrl" totalsRowLabel="集計" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="2" name="Shift" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="8" name="Alt" dataDxfId="24" totalsRowDxfId="23" dataCellStyle="標準 2"/>
-    <tableColumn id="3" name="Win" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="4" name="Key" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="5" name="機能" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="7" name="|Ctrl|Shift|Alt|Win|Key|機能|" totalsRowFunction="count" dataDxfId="0" totalsRowDxfId="16" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="151" totalsRowDxfId="150"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Shift" dataDxfId="149" totalsRowDxfId="148"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Alt" dataDxfId="147" totalsRowDxfId="146" dataCellStyle="標準 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Win" dataDxfId="145" totalsRowDxfId="144"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Key" dataDxfId="143" totalsRowDxfId="142"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="機能" dataDxfId="141" totalsRowDxfId="140"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="|Ctrl|Shift|Alt|Win|Key|機能|" totalsRowFunction="count" dataDxfId="139" totalsRowDxfId="138" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2385,16 +4789,118 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{74162BA7-0E42-48B6-B99F-4D7F769D24F9}" name="テーブル1789" displayName="テーブル1789" ref="A1:F99" headerRowDxfId="53" dataDxfId="52">
+  <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{62FA586D-EF03-4D43-A10E-78D2AF735C71}" name="Ctrl" totalsRowLabel="集計" dataDxfId="50" totalsRowDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{C5A7C3F6-4F42-4530-8FD3-1990CF3F9124}" name="Shift" dataDxfId="48" totalsRowDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{A05CE0D9-140D-45A0-888F-253BF948A770}" name="Alt" dataDxfId="46" totalsRowDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{7DA7D284-C06D-4102-9404-5695C13F122B}" name="Key" dataDxfId="44" totalsRowDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{3D010DA0-57B1-4C00-9C5F-DCCF15D9FD17}" name="機能" dataDxfId="42" totalsRowDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{E74BE0E9-7F88-484C-9AEE-D35FA3AED34A}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="40" totalsRowDxfId="41" dataCellStyle="標準 2">
+      <calculatedColumnFormula>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E6EF7B9C-FAC1-42B1-BC95-AF668093141D}" name="テーブル1781011" displayName="テーブル1781011" ref="A1:F88" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="A1:F88" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{10591B97-DA49-4E0D-BF23-0888174E098F}" name="Ctrl" totalsRowLabel="集計" dataDxfId="23" totalsRowDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{EDA168A4-45CB-47AC-9F73-DAC9B98B27C9}" name="Shift" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{3CB7FF1C-24DD-4B0B-8123-C85716EAD21F}" name="Alt" dataDxfId="20" totalsRowDxfId="21" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{8AEA5FCE-4FCC-42AA-A7BC-DD61C011D20F}" name="Key" dataDxfId="18" totalsRowDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{1A91CD22-6C43-43F8-AD49-13837BC29411}" name="機能" dataDxfId="16" totalsRowDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{B88C40F9-0361-4D7D-B3EE-F9FB5D80EF07}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="15" dataCellStyle="標準 2">
+      <calculatedColumnFormula>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="テーブル134" displayName="テーブル134" ref="A1:F91" headerRowDxfId="71" dataDxfId="70">
-  <autoFilter ref="A1:F91"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5B3D110-E258-4597-BB86-3913C990E2CB}" name="テーブル17" displayName="テーブル17" ref="A1:F99" headerRowDxfId="81" dataDxfId="80">
+  <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Ctrl" totalsRowLabel="集計" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="2" name="Shift" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="3" name="Alt" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="4" name="Key" dataDxfId="63" totalsRowDxfId="62"/>
-    <tableColumn id="5" name="機能" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="7" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{A339EFE5-6258-4149-86B3-E1CEAA4BEE00}" name="Ctrl" totalsRowLabel="集計" dataDxfId="78" totalsRowDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{95FE279B-8D22-4BC8-8A2E-858DDB73272E}" name="Shift" dataDxfId="76" totalsRowDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{38818F14-8583-4816-90BC-42EC8E0CEF9E}" name="Alt" dataDxfId="74" totalsRowDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{59B72529-4238-4F15-B172-C15FB4893E65}" name="Key" dataDxfId="72" totalsRowDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{1D07021F-1DC8-467F-922D-781773F86854}" name="機能" dataDxfId="70" totalsRowDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{B99A910B-404C-4E9F-ABC8-6C1CF3E22617}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="68" totalsRowDxfId="69" dataCellStyle="標準 2">
+      <calculatedColumnFormula>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3651D7F7-A056-4B9F-A254-BC10C8DFD165}" name="テーブル178" displayName="テーブル178" ref="A1:F99" headerRowDxfId="67" dataDxfId="66">
+  <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{68752F33-5B3F-4E9C-B091-B22CC2989F38}" name="Ctrl" totalsRowLabel="集計" dataDxfId="64" totalsRowDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{5167CBDE-CFFA-48FA-949C-7754DEBB5471}" name="Shift" dataDxfId="62" totalsRowDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{A2117648-5D51-418A-8399-3A653EB882CF}" name="Alt" dataDxfId="60" totalsRowDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{2372578A-8AA5-480D-AA77-FC8F0A78D0EA}" name="Key" dataDxfId="58" totalsRowDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{3BE13509-C9C9-46C8-8667-7EAECC678335}" name="機能" dataDxfId="56" totalsRowDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{AE1A202E-0809-4E6C-9470-DFFA229D9669}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="54" totalsRowDxfId="55" dataCellStyle="標準 2">
+      <calculatedColumnFormula>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{64C7855A-AE6E-4D1B-95FD-A0F7F70CC417}" name="テーブル1312" displayName="テーブル1312" ref="A1:F80" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:F80" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{3B675F56-1F29-4E78-BDB6-CA41FB9B1F5C}" name="Ctrl" totalsRowLabel="集計" dataDxfId="10" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{B7008E7C-6419-42EC-940A-5B6A0748F5B1}" name="Shift" dataDxfId="8" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{D10E9664-9EFA-48AC-A609-71DE9D6B26CA}" name="Alt" dataDxfId="6" totalsRowDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{04E5B1BB-D2DF-4C83-97E5-127E5BD91A73}" name="Key" dataDxfId="4" totalsRowDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{1EE32BB4-F6DB-4221-AFF6-F34183FE5769}" name="機能" dataDxfId="2" totalsRowDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{3266105D-4A94-4CBB-8500-927634878533}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="0" totalsRowDxfId="1" dataCellStyle="標準 2">
+      <calculatedColumnFormula>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0BE3AAD5-252A-42BC-B735-5702B821C9F5}" name="テーブル17810" displayName="テーブル17810" ref="A1:F95" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A1:F95" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{AC738BBB-3009-41EE-B57C-C49F293EF770}" name="Ctrl" totalsRowLabel="集計" dataDxfId="36" totalsRowDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{0FA728AD-25AD-41FC-AC69-C8FD9D439BB0}" name="Shift" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{A5C1728F-F016-41C4-894F-916122C25955}" name="Alt" dataDxfId="27" totalsRowDxfId="35" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{7A760A73-B1FA-44DC-9BF4-F09C9E1325A2}" name="Key" dataDxfId="33" totalsRowDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{99F9108C-C22A-4625-A879-60C0A5850F2D}" name="機能" dataDxfId="31" totalsRowDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{0F2ABE32-0915-4657-86F2-4FEBDC3CD8A8}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="29" totalsRowDxfId="30" dataCellStyle="標準 2">
+      <calculatedColumnFormula>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="テーブル134" displayName="テーブル134" ref="A1:F91" headerRowDxfId="137" dataDxfId="136">
+  <autoFilter ref="A1:F91" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="135" totalsRowDxfId="134"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Shift" dataDxfId="133" totalsRowDxfId="132"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Alt" dataDxfId="131" totalsRowDxfId="130"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Key" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="機能" dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="125" totalsRowDxfId="124" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2402,16 +4908,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル13" displayName="テーブル13" ref="A1:F91" headerRowDxfId="57" dataDxfId="56">
-  <autoFilter ref="A1:F91"/>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="テーブル13" displayName="テーブル13" ref="A1:F91" headerRowDxfId="123" dataDxfId="122">
+  <autoFilter ref="A1:F91" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Ctrl" totalsRowLabel="集計" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="2" name="Shift" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="3" name="Alt" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="4" name="Key" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="5" name="機能" dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="7" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="45" totalsRowDxfId="44" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Shift" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Alt" dataDxfId="117" totalsRowDxfId="116"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Key" dataDxfId="115" totalsRowDxfId="114"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="機能" dataDxfId="113" totalsRowDxfId="112"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="111" totalsRowDxfId="110" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2419,16 +4925,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:F99" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:F99"/>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="テーブル1" displayName="テーブル1" ref="A1:F99" headerRowDxfId="109" dataDxfId="108">
+  <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Ctrl" totalsRowLabel="集計" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="2" name="Shift" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="3" name="Alt" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="4" name="Key" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="5" name="機能" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="7" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="31" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="107" totalsRowDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Shift" dataDxfId="105" totalsRowDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Alt" dataDxfId="103" totalsRowDxfId="102"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Key" dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="機能" dataDxfId="99" totalsRowDxfId="98"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="97" totalsRowDxfId="96" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2436,16 +4942,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="テーブル13456" displayName="テーブル13456" ref="A1:F78" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:F78"/>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="テーブル13456" displayName="テーブル13456" ref="A1:F78" headerRowDxfId="95" dataDxfId="94">
+  <autoFilter ref="A1:F78" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Ctrl" totalsRowLabel="集計" dataDxfId="12" totalsRowDxfId="13"/>
-    <tableColumn id="2" name="Shift" dataDxfId="10" totalsRowDxfId="11"/>
-    <tableColumn id="8" name="Alt" dataDxfId="8" totalsRowDxfId="9" dataCellStyle="標準 2"/>
-    <tableColumn id="4" name="Key" dataDxfId="6" totalsRowDxfId="7"/>
-    <tableColumn id="5" name="機能" dataDxfId="4" totalsRowDxfId="5"/>
-    <tableColumn id="7" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="2" totalsRowDxfId="3" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Shift" dataDxfId="91" totalsRowDxfId="90"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Alt" dataDxfId="89" totalsRowDxfId="88" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Key" dataDxfId="87" totalsRowDxfId="86"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="機能" dataDxfId="85" totalsRowDxfId="84"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="83" totalsRowDxfId="82" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2454,7 +4960,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2496,7 +5002,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2529,9 +5035,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2564,6 +5087,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2739,10 +5279,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3808,16 +6348,16 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:A85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:A85" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Ctrl"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B3:B85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B3:B85" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Shift"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C85" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Alt"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D85" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Win"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3829,8 +6369,5544 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D44D25-11F0-4B75-B08C-CCE87BE573F8}">
+  <dimension ref="A1:F99"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E3" sqref="E3"/>
+      <selection pane="topRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="6.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="50.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="2" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="1.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v>|:---|:---|:---|:---|:---|</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||Spase|一時的に手のひらツール|</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="6"/>
+      <c r="F12" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F29" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F30" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F35" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F41" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F42" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F43" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F44" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F45" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F46" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F47" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F49" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F50" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F51" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F52" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F53" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F54" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F55" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F56" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F57" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F58" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F59" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F60" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F61" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F62" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F63" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F64" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F65" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F66" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F67" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F68" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F69" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F70" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F71" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F72" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F73" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F74" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F75" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F76" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F77" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F78" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F79" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F80" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F81" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F82" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F83" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F84" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F85" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F86" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F87" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F88" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F89" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F90" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F91" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F92" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F93" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F94" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F95" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F96" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F97" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F98" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F99" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A99" xr:uid="{6C1EA6AE-8AE8-4D9F-AB86-903EBBA30A8E}">
+      <formula1>"Ctrl"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B99" xr:uid="{0849FCB7-7D06-4E54-9417-C098320B5279}">
+      <formula1>"Shift"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C99" xr:uid="{8BC8387B-CE30-4508-99FA-2EE4190B2A2E}">
+      <formula1>"Alt"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175ECC7F-1CF8-41ED-848A-01EC97406150}">
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E3" sqref="E3"/>
+      <selection pane="topRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="6.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="50.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="2" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="1.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>|:---|:---|:---|:---|:---|</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||\|ルートに移動|</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||/|すべての選択を解除|</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||\*|すべての選択を反転|</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||@|アドレスバーに移動|</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F7" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||’|アドレスバーに移動|</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||,|インクリメンタル サーチ|</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F9" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||.|拡張子のインクリメンタル サーチ|</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||-|フォルダの表示設定を保存|</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||=|ウインドウサイズを揃える|</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||?|他のウインドウとの入れ替え|</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||+|ポップアップメニュー1|</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||;|ポップアップメニュー2|</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||:|ドライブリスト|</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F16" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||&lt;|分割の切り替え|</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F17" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||&gt;|分割画面の切り替え|</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||Space|フォーカスしたアイテムの選択を反転して次のアイテムにフォーカスを移動|</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F19" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||BackSpace|一つ上の階層に移動|</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F20" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||→/←/↑/↓|右/左/上/下に移動|</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F21" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Alt|←|戻る|</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F22" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Alt|↑|他のウインドウのパス一覧|</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F23" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Alt|↓|タブの履歴|</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F24" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||←|左のタブに移動|</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F25" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||→|右のタブに移動|</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F26" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||Tab|左のタブに移動|</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F27" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||Tab|右のタブに移動|</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F28" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||↑|タブ メニュー|</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F29" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||↓|タブの一覧|</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F30" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||←/→|タブを左/右に移動|</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F31" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift|Alt|←/→|タブを左/右に移動|</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F32" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||↑/↓|ツールフォルダの場合は項目を上/下に移動|</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F33" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||Space|ナビゲートロックの切り替え|</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F34" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift||Esc|別ウインドウを開く|</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D35" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F35" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||Ins|パスの抽出|</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F36" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||Ins|最近閉じたタブの一覧|</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F41" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F42" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F43" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F44" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F45" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F46" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F47" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F49" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F50" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F51" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F52" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F53" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F54" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F55" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F56" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F57" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F58" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F59" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F60" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F61" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F62" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F63" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F64" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F65" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F66" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F67" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F68" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F69" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F70" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F71" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F72" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F73" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F74" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F75" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F76" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F77" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F78" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F79" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F80" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F81" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F82" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F83" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F84" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F85" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F86" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F87" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F88" s="7" t="str">
+        <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C87" xr:uid="{3D99FE71-D860-4871-9BB3-0CBF0BA91D2A}">
+      <formula1>"Alt"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B87" xr:uid="{54D0559C-0B10-4575-B9FE-0038034E0ABB}">
+      <formula1>"Shift"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A87" xr:uid="{2FB35397-F5EE-47DB-AB26-629F2D895034}">
+      <formula1>"Ctrl"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A675852B-417C-426A-9D62-7129743CB66C}">
+  <dimension ref="A1:F99"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F1" sqref="F1"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="6.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="50.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="2" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="1.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v>|:---|:---|:---|:---|:---|</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||1|[メール] ビューに切り替える|</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||2|[予定表] ビューに切り替える|</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||3|[連絡先] ビューに切り替える|</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||a|予定 作成|</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||c|連絡先 作成|</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||e|フォルダー 作成|</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F9" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||q|会議出席依頼 作成|</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||q|開封済み|</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||u|未開封|</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||m|新規メッセージ|</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Alt|s|送信|</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F29" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F30" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F35" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F41" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F42" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F43" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F44" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F45" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F46" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F47" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F49" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F50" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F51" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F52" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F53" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F54" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F55" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F56" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F57" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F58" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F59" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F60" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F61" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F62" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F63" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F64" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F65" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F66" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F67" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F68" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F69" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F70" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F71" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F72" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F73" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F74" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F75" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F76" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F77" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F78" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F79" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F80" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F81" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F82" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F83" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F84" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F85" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F86" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F87" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F88" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F89" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F90" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F91" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F92" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F93" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F94" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F95" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F96" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F97" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F98" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F99" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A99" xr:uid="{D60B7C14-B6BA-4C69-AC38-A51EE8CBF282}">
+      <formula1>"Ctrl"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B99" xr:uid="{021C6C4F-03A1-4BA6-B033-89C99068796A}">
+      <formula1>"Shift"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C99" xr:uid="{89FD6F49-A98C-4F5E-9F29-9AE41DAF2BEC}">
+      <formula1>"Alt"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B129C059-5A40-43D7-BB70-4D3EFFE609FB}">
+  <dimension ref="A1:F99"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F1" sqref="F1"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="6.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="50.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="2" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="1.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v>|:---|:---|:---|:---|:---|</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||9[)]|選択行を表示|</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||0|選択列を表示|</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||5[%]|[パーセンテージ] 表示形式 (小数点以下の桁数 0) を設定|</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||3[#]|[日付] 表示形式|</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F7" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||:[*]|アクティブ セル領域 (アクティブ セルを含み、空白の行と列で囲まれているデータ領域) を選択|</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||@[`]|数式と計算結果の表示を切り替え|</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F9" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||U|折りたたまれた数式バーを展開し、展開されていた数式バーを折りたたみ|</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||1|[セルの書式設定] ダイアログ ボックスを表示|</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||8|アウトライン記号の表示と非表示を切り替え|</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||9|選択行を非表示|</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||0|選択列を非表示|</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Alt|F1|現在の範囲からグラフを作成|</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Alt|PageUp(Down)|一画面分左に(右に)横スクロール|</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F16" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift|Alt|=|オートSUM機能|</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F17" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift|Alt|→|グループ化|</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift|Alt|←|グループ化解除|</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F19" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift||F3|[関数の挿入] ダイアログ ボックスを表示|</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F20" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift||F11|新規シートの挿入|</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F21" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F4|直前の操作を繰り返す|</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F22" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F4|【文字入力時】相対参照から絶対参照へ(複数回押すことで、行のみ列のみ選択可能)|</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F23" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F5|[ジャンプ] ダイアログ ボックスを表示|</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F24" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F7|[スペルチェック] ダイアログ ボックスを表示して、作業中のワークシートまたは選択した範囲内のスペルをチェック|</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F25" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F12|名前を付けて保存|</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F26" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F2 ⇒ F9|計算式を見せずに数値に変える|</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F27" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F2|【数式入力時】編集モード⇔入力モード切替|</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F29" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F30" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F35" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F41" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F42" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F43" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F44" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F45" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F46" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F47" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F49" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F50" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F51" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F52" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F53" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F54" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F55" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F56" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F57" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F58" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F59" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F60" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F61" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F62" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F63" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F64" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F65" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F66" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F67" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F68" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F69" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F70" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F71" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F72" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F73" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F74" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F75" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F76" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F77" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F78" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F79" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F80" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F81" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F82" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F83" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F84" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F85" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F86" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F87" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F88" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F89" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F90" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F91" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F92" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F93" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F94" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F95" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F96" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F97" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F98" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F99" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C99" xr:uid="{FF7BEE9C-E158-4724-902D-22D2E3815EC6}">
+      <formula1>"Alt"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B99" xr:uid="{59ADE39C-3897-46CF-B881-1ABA4E0F3F1D}">
+      <formula1>"Shift"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A99" xr:uid="{3A144272-BF4E-4593-925B-6B2486041B33}">
+      <formula1>"Ctrl"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F33B2-7FA2-4740-86D0-2AD97053E21B}">
+  <dimension ref="A1:F80"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F1" sqref="F1"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="6.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="50.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="2" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="1.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v>|:---|:---|:---|:---|:---|</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||Tab|図形間でフォーカスを1つ移動|</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F8|[図形の整列] ダイアログ|</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift||マウスホイール|左右スクロール|</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||1|[オブジェクト選択ツール]|</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F7" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||2|[テキスト ツール]|</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||3|[コネクタ]|</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F9" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||6|[直線ツール]|</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||7|[円弧ツール]|</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||8|[四角形ツール]|</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||9|[円/楕円ツール]|</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||1|[接続ポイント]|</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||4|[テキスト ボックス ツール]|</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||w|ページサイズ ウィンドウに合わせる|</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F16" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||f7|開いている図面ウィンドウを左右に並べて表示|</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F17" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||h/j|オブジェクト 左右反転/上下反転|</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||l/r|オブジェクト 回転 反時計回り/時計回り|</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F19" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|(Shift)||g/u|オブジェクト グループ化/グループ化解除|</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F20" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||f/b|オブジェクト 最前面/最背面に移動|</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F21" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||&gt;/&lt;|テキスト フォント 拡大/縮小|</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F22" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||p|テキスト 書式のコピー/貼り付け|</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F23" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||l/r/c/j|テキスト 横 左揃え/右揃え/中央揃え/両端揃え|</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F24" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||t/m/v|テキスト 縦 上揃え/中央揃え/下揃え|</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F29" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F30" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F35" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F41" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F42" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F43" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F44" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F45" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F46" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F47" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F49" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F50" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F51" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F52" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F53" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F54" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F55" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F56" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F57" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F58" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F59" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F60" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F61" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F62" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F63" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F64" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F65" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F66" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F67" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F68" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F69" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F70" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F71" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F72" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F73" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F74" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F75" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F76" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F77" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F78" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F79" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F80" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C80" xr:uid="{B0834657-2E29-4A19-AE1C-B10FFB76245B}">
+      <formula1>"Alt"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B3:B80" xr:uid="{E9A93F75-2B9B-42D2-8A59-8732AB5D8F80}">
+      <formula1>"Shift"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:A80" xr:uid="{C2F148BE-7B4D-461A-93ED-FD44E03BAC03}">
+      <formula1>"Ctrl"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41991D50-28F6-403B-8295-1028362E0434}">
+  <dimension ref="A1:F95"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F1" sqref="F1"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="6.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="50.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="2" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="1.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|:---|:---|:---|:---|:---|</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||End|行末にジャンプ|</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F1|ヘルプ・Officeアシスタントの表示|</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F3|定型句の挿入|</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F4|直前の操作の繰り返し|</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F7" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F5|［ジャンプ（検索と置換）］ダイアログの表示|</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F7|［スペルチェックと文章校正］の実行|</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F9" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F9|フィールドの更新|</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F11|次のフィールドにジャンプ|</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F12|［名前を付けて保存］ダイアログの表示|</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||Home|行頭にジャンプ|</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||PgDn/Up|1画面下/上にジャンプ|</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||A|文書全体の選択|</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||D|［フォント］ダイアログの表示|</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F16" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||E|［中央揃え］の設定|</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F17" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||F|［検索（と置換）］ダイアログの表示|</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||G|［ジャンプ（検索と置換）］ダイアログの表示|</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F19" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||:|ウムラウトの入力|</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F20" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||End|文末にジャンプ|</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F21" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||Enter|［改ページ］の挿入|</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F22" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||F10|［言語］バーのショートカットメニューの表示|</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F23" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||F11|フィールドのロック|</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F24" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||F2|［印刷プレビュー］の実行|</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F25" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||F6|次のウィンドウに切り替え|</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F26" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||F9|フィールドの挿入|</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F27" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||H|［（検索と）置換］ダイアログの表示|</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F28" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||Home|文頭にジャンプ|</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F29" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||J|［両端揃え］の設定|</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F30" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||K|［ハイパーリンクの挿入］ダイアログの表示|</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F31" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||L|［左揃え］の設定|</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F32" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||N|ファイルの新規作成|</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F33" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||O|［ファイルを開く］ダイアログの表示|</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F34" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||P|［印刷］ダイアログの表示|</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F35" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||PgDn/Up|次/前ページの先頭にジャンプ|</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F36" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||Q|段落書式の解除|</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F37" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||R|［右揃え］の設定|</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F38" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||S|［上書き保存］の実行|</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F39" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||T|ぶら下げインデントの設定（2002,2003）|</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F40" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||Y|直前の操作の繰り返し・やり直し|</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F41" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||Z|直前の操作を元に戻す|</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F42" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||[/]|フォントサイズを1pt縮小/拡大|</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F43" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||^|曲折アクセント付き文字の入力|</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F44" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||Space|フォント書式の解除|</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F45" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Alt|F1|次のフィールドへジャンプ|</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F46" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Alt|F3|定型句の登録|</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F47" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Alt|F4|Wordの終了|</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F48" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Alt|F8|［マクロ］ダイアログの表示|</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F49" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Alt|F9|すべてのフィールドの表示切り替え|</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F50" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Alt|F10|最大化の実行|</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F51" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Alt|F11|Visual Basic Editorの起動|</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F52" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift||Enter|段落内で改行|</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F53" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift||F1|ポップヒントの表示|</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F54" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift||F4|次を検索|</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F55" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift||F5|直前の編集箇所へのジャンプ|</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F56" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift||F7|［類義語辞典］ダイアログの表示|</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F57" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift||F9|選択しているフィールドの表示切り替え|</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F58" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift||F11|前のフィールドにジャンプ|</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F59" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||Alt|1|［見出し1］スタイルを設定|</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F60" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||Alt|2|［見出し2］スタイルを設定|</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F61" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||Alt|3|［見出し3］スタイルを設定|</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F62" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||Alt|C|「c」の入力|</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F63" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||Alt|F|脚注の挿入|</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F64" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||Alt|M|新しいコメントの挿入|</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F65" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||Alt|N|［下書き表示］モードに切り替え|</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F66" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||Alt|O|［アウトライン表示］モードに切り替え|</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F67" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||Alt|P|［印刷レイアウト表示］モードに切り替え|</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F68" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||Alt|R|「R」の入力|</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F69" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||Alt|S|ウィンドウの分割|</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F70" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||Alt|T|「?」の入力|</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F71" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||Alt|U|罫線の削除|</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F72" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift|Alt|D|日付（フィールド）の入力|</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F73" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift|Alt|F1|前のフィールドへジャンプ|</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F74" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift|Alt|F7|［翻訳］作業ウィンドウの表示|</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F75" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift|Alt|P|ページ数（フィールド）の入力|</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F76" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift|Alt|T|時刻（フィールド）の入力|</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F77" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift|Alt|→|［レベル下げ］の実行|</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F78" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift|Alt|←|［レベル上げ］の実行|</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F79" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||'|アクセント付き文字の入力|</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F80" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||;/=|［上付き］/［下付き］の設定・解除|</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F81" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||&lt;/&gt;|フォントサイズを1ランク縮小/拡大|</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F82" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||E|［変更履歴の記録］の開始|</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F83" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||Enter|［段区切り］の挿入|</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F84" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||F5|［ブックマーク］ダイアログの表示|</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F85" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||F6|前のウィンドウに切り替え|</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F86" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||F9|フィールドを実行結果に変更|</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F87" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||F9|フィールドコードの文字変換|</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F88" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||F11|フィールドのロック解除|</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F89" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||G|［文字数カウント］ダイアログの表示|</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F90" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||L|［箇条書き］の設定|</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F91" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||N|［標準］スタイルを設定|</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F92" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||S|スタイルの設定|</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F93" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||`|低アクセント付き文字の入力|</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F94" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||~|チルダ付き文字の入力|</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F95" s="7" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations disablePrompts="1" count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A94" xr:uid="{EAA754BB-739C-4901-B74E-EF76C1F16BF1}">
+      <formula1>"Ctrl"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B94" xr:uid="{961CCA76-715E-4876-94FB-7AA67DF9A076}">
+      <formula1>"Shift"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C94" xr:uid="{DC56ECAC-77BE-4299-850A-13608E0E80B0}">
+      <formula1>"Alt"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -4446,13 +12522,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C91">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C91" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Alt"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B3:B91">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B3:B91" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Shift"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:A91">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:A91" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"Ctrl"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4464,8 +12540,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -5237,13 +13313,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:A91">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:A91" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Ctrl"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B3:B91">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B3:B91" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Shift"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C91">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C91" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Alt"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5255,8 +13331,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -6100,13 +14176,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C99">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C99" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Alt"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B99">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B99" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Shift"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A99">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A99" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"Ctrl"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6118,16 +14194,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E3" sqref="E3"/>
       <selection pane="topRight" activeCell="E3" sqref="E3"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F1:F13"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6782,14 +14858,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C78">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C78" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Alt"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B3:B78">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B3:B78" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"Shift"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:A78">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:A78" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>"Ctrl"</formula1>
     </dataValidation>
   </dataValidations>

--- a/shortcut_keys.xlsx
+++ b/shortcut_keys.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C378A342-A616-49B0-8ABB-BB4D9A75C12A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBF03C1-5DB8-44D2-8348-E31C1084BB68}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21732" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21732" windowHeight="13176" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Windows10" sheetId="7" r:id="rId1"/>
@@ -1991,6 +1991,23 @@
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -2079,6 +2096,7 @@
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2094,6 +2112,8 @@
         <sz val="9"/>
         <color theme="1"/>
         <name val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -2115,24 +2135,6 @@
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2185,10 +2187,150 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
         <color theme="1"/>
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2203,6 +2345,99 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
         <color rgb="FF000000"/>
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
@@ -2242,6 +2477,23 @@
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -2330,6 +2582,1011 @@
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2368,24 +3625,6 @@
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2405,6 +3644,24 @@
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2420,10 +3677,150 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
         <color theme="1"/>
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2438,45 +3835,8 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
         <color theme="1"/>
         <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -2498,6 +3858,24 @@
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2517,111 +3895,6 @@
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2655,1280 +3928,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
         <color rgb="FF000000"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
       </font>
@@ -4790,15 +4790,15 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{74162BA7-0E42-48B6-B99F-4D7F769D24F9}" name="テーブル1789" displayName="テーブル1789" ref="A1:F99" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{74162BA7-0E42-48B6-B99F-4D7F769D24F9}" name="テーブル1789" displayName="テーブル1789" ref="A1:F99" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{62FA586D-EF03-4D43-A10E-78D2AF735C71}" name="Ctrl" totalsRowLabel="集計" dataDxfId="50" totalsRowDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{C5A7C3F6-4F42-4530-8FD3-1990CF3F9124}" name="Shift" dataDxfId="48" totalsRowDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{A05CE0D9-140D-45A0-888F-253BF948A770}" name="Alt" dataDxfId="46" totalsRowDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{7DA7D284-C06D-4102-9404-5695C13F122B}" name="Key" dataDxfId="44" totalsRowDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{3D010DA0-57B1-4C00-9C5F-DCCF15D9FD17}" name="機能" dataDxfId="42" totalsRowDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{E74BE0E9-7F88-484C-9AEE-D35FA3AED34A}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="40" totalsRowDxfId="41" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{62FA586D-EF03-4D43-A10E-78D2AF735C71}" name="Ctrl" totalsRowLabel="集計" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{C5A7C3F6-4F42-4530-8FD3-1990CF3F9124}" name="Shift" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{A05CE0D9-140D-45A0-888F-253BF948A770}" name="Alt" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{7DA7D284-C06D-4102-9404-5695C13F122B}" name="Key" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{3D010DA0-57B1-4C00-9C5F-DCCF15D9FD17}" name="機能" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{E74BE0E9-7F88-484C-9AEE-D35FA3AED34A}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4807,15 +4807,15 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E6EF7B9C-FAC1-42B1-BC95-AF668093141D}" name="テーブル1781011" displayName="テーブル1781011" ref="A1:F88" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E6EF7B9C-FAC1-42B1-BC95-AF668093141D}" name="テーブル1781011" displayName="テーブル1781011" ref="A1:F88" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:F88" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{10591B97-DA49-4E0D-BF23-0888174E098F}" name="Ctrl" totalsRowLabel="集計" dataDxfId="23" totalsRowDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{EDA168A4-45CB-47AC-9F73-DAC9B98B27C9}" name="Shift" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{3CB7FF1C-24DD-4B0B-8123-C85716EAD21F}" name="Alt" dataDxfId="20" totalsRowDxfId="21" dataCellStyle="標準 2"/>
-    <tableColumn id="4" xr3:uid="{8AEA5FCE-4FCC-42AA-A7BC-DD61C011D20F}" name="Key" dataDxfId="18" totalsRowDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{1A91CD22-6C43-43F8-AD49-13837BC29411}" name="機能" dataDxfId="16" totalsRowDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{B88C40F9-0361-4D7D-B3EE-F9FB5D80EF07}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="15" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{10591B97-DA49-4E0D-BF23-0888174E098F}" name="Ctrl" totalsRowLabel="集計" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{EDA168A4-45CB-47AC-9F73-DAC9B98B27C9}" name="Shift" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{3CB7FF1C-24DD-4B0B-8123-C85716EAD21F}" name="Alt" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{8AEA5FCE-4FCC-42AA-A7BC-DD61C011D20F}" name="Key" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{1A91CD22-6C43-43F8-AD49-13837BC29411}" name="機能" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{B88C40F9-0361-4D7D-B3EE-F9FB5D80EF07}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4824,15 +4824,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5B3D110-E258-4597-BB86-3913C990E2CB}" name="テーブル17" displayName="テーブル17" ref="A1:F99" headerRowDxfId="81" dataDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5B3D110-E258-4597-BB86-3913C990E2CB}" name="テーブル17" displayName="テーブル17" ref="A1:F99" headerRowDxfId="137" dataDxfId="136">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A339EFE5-6258-4149-86B3-E1CEAA4BEE00}" name="Ctrl" totalsRowLabel="集計" dataDxfId="78" totalsRowDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{95FE279B-8D22-4BC8-8A2E-858DDB73272E}" name="Shift" dataDxfId="76" totalsRowDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{38818F14-8583-4816-90BC-42EC8E0CEF9E}" name="Alt" dataDxfId="74" totalsRowDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{59B72529-4238-4F15-B172-C15FB4893E65}" name="Key" dataDxfId="72" totalsRowDxfId="73"/>
-    <tableColumn id="5" xr3:uid="{1D07021F-1DC8-467F-922D-781773F86854}" name="機能" dataDxfId="70" totalsRowDxfId="71"/>
-    <tableColumn id="7" xr3:uid="{B99A910B-404C-4E9F-ABC8-6C1CF3E22617}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="68" totalsRowDxfId="69" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{A339EFE5-6258-4149-86B3-E1CEAA4BEE00}" name="Ctrl" totalsRowLabel="集計" dataDxfId="135" totalsRowDxfId="134"/>
+    <tableColumn id="2" xr3:uid="{95FE279B-8D22-4BC8-8A2E-858DDB73272E}" name="Shift" dataDxfId="133" totalsRowDxfId="132"/>
+    <tableColumn id="3" xr3:uid="{38818F14-8583-4816-90BC-42EC8E0CEF9E}" name="Alt" dataDxfId="131" totalsRowDxfId="130"/>
+    <tableColumn id="4" xr3:uid="{59B72529-4238-4F15-B172-C15FB4893E65}" name="Key" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="5" xr3:uid="{1D07021F-1DC8-467F-922D-781773F86854}" name="機能" dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="7" xr3:uid="{B99A910B-404C-4E9F-ABC8-6C1CF3E22617}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="125" totalsRowDxfId="124" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4841,15 +4841,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3651D7F7-A056-4B9F-A254-BC10C8DFD165}" name="テーブル178" displayName="テーブル178" ref="A1:F99" headerRowDxfId="67" dataDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3651D7F7-A056-4B9F-A254-BC10C8DFD165}" name="テーブル178" displayName="テーブル178" ref="A1:F99" headerRowDxfId="123" dataDxfId="122">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{68752F33-5B3F-4E9C-B091-B22CC2989F38}" name="Ctrl" totalsRowLabel="集計" dataDxfId="64" totalsRowDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{5167CBDE-CFFA-48FA-949C-7754DEBB5471}" name="Shift" dataDxfId="62" totalsRowDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{A2117648-5D51-418A-8399-3A653EB882CF}" name="Alt" dataDxfId="60" totalsRowDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{2372578A-8AA5-480D-AA77-FC8F0A78D0EA}" name="Key" dataDxfId="58" totalsRowDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{3BE13509-C9C9-46C8-8667-7EAECC678335}" name="機能" dataDxfId="56" totalsRowDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{AE1A202E-0809-4E6C-9470-DFFA229D9669}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="54" totalsRowDxfId="55" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{68752F33-5B3F-4E9C-B091-B22CC2989F38}" name="Ctrl" totalsRowLabel="集計" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{5167CBDE-CFFA-48FA-949C-7754DEBB5471}" name="Shift" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="3" xr3:uid="{A2117648-5D51-418A-8399-3A653EB882CF}" name="Alt" dataDxfId="117" totalsRowDxfId="116"/>
+    <tableColumn id="4" xr3:uid="{2372578A-8AA5-480D-AA77-FC8F0A78D0EA}" name="Key" dataDxfId="115" totalsRowDxfId="114"/>
+    <tableColumn id="5" xr3:uid="{3BE13509-C9C9-46C8-8667-7EAECC678335}" name="機能" dataDxfId="113" totalsRowDxfId="112"/>
+    <tableColumn id="7" xr3:uid="{AE1A202E-0809-4E6C-9470-DFFA229D9669}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="111" totalsRowDxfId="110" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4858,15 +4858,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{64C7855A-AE6E-4D1B-95FD-A0F7F70CC417}" name="テーブル1312" displayName="テーブル1312" ref="A1:F80" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{64C7855A-AE6E-4D1B-95FD-A0F7F70CC417}" name="テーブル1312" displayName="テーブル1312" ref="A1:F80" headerRowDxfId="109" dataDxfId="108">
   <autoFilter ref="A1:F80" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3B675F56-1F29-4E78-BDB6-CA41FB9B1F5C}" name="Ctrl" totalsRowLabel="集計" dataDxfId="10" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{B7008E7C-6419-42EC-940A-5B6A0748F5B1}" name="Shift" dataDxfId="8" totalsRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{D10E9664-9EFA-48AC-A609-71DE9D6B26CA}" name="Alt" dataDxfId="6" totalsRowDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{04E5B1BB-D2DF-4C83-97E5-127E5BD91A73}" name="Key" dataDxfId="4" totalsRowDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{1EE32BB4-F6DB-4221-AFF6-F34183FE5769}" name="機能" dataDxfId="2" totalsRowDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{3266105D-4A94-4CBB-8500-927634878533}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="0" totalsRowDxfId="1" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{3B675F56-1F29-4E78-BDB6-CA41FB9B1F5C}" name="Ctrl" totalsRowLabel="集計" dataDxfId="107" totalsRowDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{B7008E7C-6419-42EC-940A-5B6A0748F5B1}" name="Shift" dataDxfId="105" totalsRowDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{D10E9664-9EFA-48AC-A609-71DE9D6B26CA}" name="Alt" dataDxfId="103" totalsRowDxfId="102"/>
+    <tableColumn id="4" xr3:uid="{04E5B1BB-D2DF-4C83-97E5-127E5BD91A73}" name="Key" dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="5" xr3:uid="{1EE32BB4-F6DB-4221-AFF6-F34183FE5769}" name="機能" dataDxfId="99" totalsRowDxfId="98"/>
+    <tableColumn id="7" xr3:uid="{3266105D-4A94-4CBB-8500-927634878533}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="97" totalsRowDxfId="96" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4875,15 +4875,15 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0BE3AAD5-252A-42BC-B735-5702B821C9F5}" name="テーブル17810" displayName="テーブル17810" ref="A1:F95" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0BE3AAD5-252A-42BC-B735-5702B821C9F5}" name="テーブル17810" displayName="テーブル17810" ref="A1:F95" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="A1:F95" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AC738BBB-3009-41EE-B57C-C49F293EF770}" name="Ctrl" totalsRowLabel="集計" dataDxfId="36" totalsRowDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{0FA728AD-25AD-41FC-AC69-C8FD9D439BB0}" name="Shift" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{A5C1728F-F016-41C4-894F-916122C25955}" name="Alt" dataDxfId="27" totalsRowDxfId="35" dataCellStyle="標準 2"/>
-    <tableColumn id="4" xr3:uid="{7A760A73-B1FA-44DC-9BF4-F09C9E1325A2}" name="Key" dataDxfId="33" totalsRowDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{99F9108C-C22A-4625-A879-60C0A5850F2D}" name="機能" dataDxfId="31" totalsRowDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{0F2ABE32-0915-4657-86F2-4FEBDC3CD8A8}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="29" totalsRowDxfId="30" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{AC738BBB-3009-41EE-B57C-C49F293EF770}" name="Ctrl" totalsRowLabel="集計" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{0FA728AD-25AD-41FC-AC69-C8FD9D439BB0}" name="Shift" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{A5C1728F-F016-41C4-894F-916122C25955}" name="Alt" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{7A760A73-B1FA-44DC-9BF4-F09C9E1325A2}" name="Key" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{99F9108C-C22A-4625-A879-60C0A5850F2D}" name="機能" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="7" xr3:uid="{0F2ABE32-0915-4657-86F2-4FEBDC3CD8A8}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4892,15 +4892,15 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="テーブル134" displayName="テーブル134" ref="A1:F91" headerRowDxfId="137" dataDxfId="136">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="テーブル134" displayName="テーブル134" ref="A1:F91" headerRowDxfId="82" dataDxfId="81">
   <autoFilter ref="A1:F91" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="135" totalsRowDxfId="134"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Shift" dataDxfId="133" totalsRowDxfId="132"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Alt" dataDxfId="131" totalsRowDxfId="130"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Key" dataDxfId="129" totalsRowDxfId="128"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="機能" dataDxfId="127" totalsRowDxfId="126"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="125" totalsRowDxfId="124" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Shift" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Alt" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Key" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="機能" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4909,15 +4909,15 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="テーブル13" displayName="テーブル13" ref="A1:F91" headerRowDxfId="123" dataDxfId="122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="テーブル13" displayName="テーブル13" ref="A1:F91" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="A1:F91" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="121" totalsRowDxfId="120"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Shift" dataDxfId="119" totalsRowDxfId="118"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Alt" dataDxfId="117" totalsRowDxfId="116"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Key" dataDxfId="115" totalsRowDxfId="114"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="機能" dataDxfId="113" totalsRowDxfId="112"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="111" totalsRowDxfId="110" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Shift" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Alt" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Key" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="機能" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4926,15 +4926,15 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="テーブル1" displayName="テーブル1" ref="A1:F99" headerRowDxfId="109" dataDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="テーブル1" displayName="テーブル1" ref="A1:F99" headerRowDxfId="54" dataDxfId="53">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="107" totalsRowDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Shift" dataDxfId="105" totalsRowDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Alt" dataDxfId="103" totalsRowDxfId="102"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Key" dataDxfId="101" totalsRowDxfId="100"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="機能" dataDxfId="99" totalsRowDxfId="98"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="97" totalsRowDxfId="96" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Shift" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Alt" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Key" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="機能" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4943,15 +4943,15 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="テーブル13456" displayName="テーブル13456" ref="A1:F78" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="テーブル13456" displayName="テーブル13456" ref="A1:F78" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:F78" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="93" totalsRowDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Shift" dataDxfId="91" totalsRowDxfId="90"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Alt" dataDxfId="89" totalsRowDxfId="88" dataCellStyle="標準 2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Key" dataDxfId="87" totalsRowDxfId="86"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="機能" dataDxfId="85" totalsRowDxfId="84"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="83" totalsRowDxfId="82" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Shift" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Alt" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Key" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="機能" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5282,18 +5282,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="6.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="42.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="50.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="83.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="2" style="3"/>
@@ -6378,7 +6378,7 @@
       <selection activeCell="E3" sqref="E3"/>
       <selection pane="topRight" activeCell="E3" sqref="E3"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6386,7 +6386,7 @@
     <col min="1" max="3" width="6.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
     <col min="5" max="5" width="42.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="50.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.21875" style="3" customWidth="1"/>
     <col min="7" max="16384" width="2" style="3"/>
   </cols>
   <sheetData>
@@ -7048,7 +7048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175ECC7F-1CF8-41ED-848A-01EC97406150}">
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E3" sqref="E3"/>
       <selection pane="topRight" activeCell="E3" sqref="E3"/>
@@ -14199,19 +14199,18 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E3" sqref="E3"/>
-      <selection pane="topRight" activeCell="E3" sqref="E3"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="6.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="50.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.77734375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="50.21875" style="3" customWidth="1"/>
     <col min="7" max="16384" width="2" style="3"/>
   </cols>
   <sheetData>

--- a/shortcut_keys.xlsx
+++ b/shortcut_keys.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBF03C1-5DB8-44D2-8348-E31C1084BB68}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8198720D-046A-424B-8217-2361289214FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21732" windowHeight="13176" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21732" windowHeight="13176" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Windows10" sheetId="7" r:id="rId1"/>
@@ -19,10 +19,8 @@
     <sheet name="Vim" sheetId="8" r:id="rId9"/>
     <sheet name="XChangeViewer" sheetId="11" r:id="rId10"/>
     <sheet name="X-Finder" sheetId="13" r:id="rId11"/>
+    <sheet name="秀丸" sheetId="15" r:id="rId12"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId12"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">テーブル178[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">テーブル134[[#All],[Ctrl]:[機能]]</definedName>
@@ -35,25 +33,21 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">テーブル17810[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">テーブル1789[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">テーブル1781011[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="testname01" localSheetId="2">[1]Sheet1!#REF!</definedName>
-    <definedName name="testname01" localSheetId="5">[1]Sheet1!#REF!</definedName>
-    <definedName name="testname01" localSheetId="1">[1]Sheet1!#REF!</definedName>
-    <definedName name="testname01" localSheetId="6">[1]Sheet1!#REF!</definedName>
-    <definedName name="testname01" localSheetId="8">[1]Sheet1!#REF!</definedName>
-    <definedName name="testname01" localSheetId="3">[1]Sheet1!#REF!</definedName>
-    <definedName name="testname01" localSheetId="0">[1]Sheet1!#REF!</definedName>
-    <definedName name="testname01" localSheetId="4">[1]Sheet1!#REF!</definedName>
-    <definedName name="testname01" localSheetId="9">[1]Sheet1!#REF!</definedName>
-    <definedName name="testname01" localSheetId="10">[1]Sheet1!#REF!</definedName>
-    <definedName name="testname01">[1]Sheet1!#REF!</definedName>
-    <definedName name="testname03">!$A$1:$B$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">テーブル1313[[#All],[Ctrl]:[機能]]</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="509">
   <si>
     <t>Ctrl</t>
   </si>
@@ -1061,15 +1055,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>9[)]</t>
-  </si>
-  <si>
-    <t>選択行を表示</t>
-  </si>
-  <si>
-    <t>選択列を表示</t>
-  </si>
-  <si>
     <t>5[%]</t>
   </si>
   <si>
@@ -1082,9 +1067,6 @@
     <t>[日付] 表示形式</t>
   </si>
   <si>
-    <t>:[*]</t>
-  </si>
-  <si>
     <t>アクティブ セル領域 (アクティブ セルを含み、空白の行と列で囲まれているデータ領域) を選択</t>
   </si>
   <si>
@@ -1101,12 +1083,6 @@
   </si>
   <si>
     <t>アウトライン記号の表示と非表示を切り替え</t>
-  </si>
-  <si>
-    <t>選択行を非表示</t>
-  </si>
-  <si>
-    <t>選択列を非表示</t>
   </si>
   <si>
     <t>F1</t>
@@ -1872,6 +1848,307 @@
   </si>
   <si>
     <t>オブジェクト 回転 反時計回り/時計回り</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[形式を選択して貼り付け] 表示</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>F4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>次の空白へジャンプ</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>F8</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>選択範囲の追加/削除</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>F9</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>再計算</t>
+    <rPh sb="0" eb="3">
+      <t>サイケイサン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>F3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>選択行を非表示/表示</t>
+    <rPh sb="4" eb="7">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>選択列を非表示/表示</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>選択セルから名前付き範囲を作成</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セルの書式設定表示</t>
+    <rPh sb="3" eb="5">
+      <t>ショシキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>:[\*]</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タグジャンプ</t>
+  </si>
+  <si>
+    <t>ダイレクトタグジャンプ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>バックタグジャンプ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コピー ファイル名</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コピー 相対ファイルパス</t>
+    <rPh sb="4" eb="6">
+      <t>ソウタイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コピー フォルダパス</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ウィンドウ分割 上下</t>
+    <rPh sb="5" eb="7">
+      <t>ブンカツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ウィンドウ分割 左右</t>
+    <rPh sb="5" eb="7">
+      <t>ブンカツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タグファイルの作成</t>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コピー 拡張子</t>
+    <rPh sb="4" eb="7">
+      <t>カクチョウシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カーソル位置の単語色付け</t>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>F11</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アウトライン解析</t>
+    <rPh sb="6" eb="8">
+      <t>カイセキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>F6</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>F7</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BOX選択開始</t>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BOX貼り付け</t>
+    <rPh sb="3" eb="4">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タブを空白に置換してコピー</t>
+    <rPh sb="3" eb="5">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>del</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>行削除</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>行切り取り</t>
+    <rPh sb="0" eb="1">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Grep</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Grep置換</t>
+    <rPh sb="4" eb="6">
+      <t>チカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>表示/非表示 アウトライン解析枠</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>表示/非表示 ファイルマネージャー枠</t>
+    <rPh sb="17" eb="18">
+      <t>ワク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>表示/非表示 アウトプット枠</t>
+    <rPh sb="13" eb="14">
+      <t>ワク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索文字列に色を付ける＠検索ウィンドウ</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1974,7 +2251,258 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="154">
+  <dxfs count="168">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4754,34 +5282,17 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="iThoughts"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1345" displayName="テーブル1345" ref="A1:G85" headerRowDxfId="153" dataDxfId="152">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1345" displayName="テーブル1345" ref="A1:G85" headerRowDxfId="167" dataDxfId="166">
   <autoFilter ref="A1:G85" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="151" totalsRowDxfId="150"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Shift" dataDxfId="149" totalsRowDxfId="148"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Alt" dataDxfId="147" totalsRowDxfId="146" dataCellStyle="標準 2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Win" dataDxfId="145" totalsRowDxfId="144"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Key" dataDxfId="143" totalsRowDxfId="142"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="機能" dataDxfId="141" totalsRowDxfId="140"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="|Ctrl|Shift|Alt|Win|Key|機能|" totalsRowFunction="count" dataDxfId="139" totalsRowDxfId="138" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="165" totalsRowDxfId="164"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Shift" dataDxfId="163" totalsRowDxfId="162"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Alt" dataDxfId="161" totalsRowDxfId="160" dataCellStyle="標準 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Win" dataDxfId="159" totalsRowDxfId="158"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Key" dataDxfId="157" totalsRowDxfId="156"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="機能" dataDxfId="155" totalsRowDxfId="154"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="|Ctrl|Shift|Alt|Win|Key|機能|" totalsRowFunction="count" dataDxfId="153" totalsRowDxfId="152" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4790,15 +5301,15 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{74162BA7-0E42-48B6-B99F-4D7F769D24F9}" name="テーブル1789" displayName="テーブル1789" ref="A1:F99" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{74162BA7-0E42-48B6-B99F-4D7F769D24F9}" name="テーブル1789" displayName="テーブル1789" ref="A1:F99" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{62FA586D-EF03-4D43-A10E-78D2AF735C71}" name="Ctrl" totalsRowLabel="集計" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{C5A7C3F6-4F42-4530-8FD3-1990CF3F9124}" name="Shift" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{A05CE0D9-140D-45A0-888F-253BF948A770}" name="Alt" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{7DA7D284-C06D-4102-9404-5695C13F122B}" name="Key" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{3D010DA0-57B1-4C00-9C5F-DCCF15D9FD17}" name="機能" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{E74BE0E9-7F88-484C-9AEE-D35FA3AED34A}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{62FA586D-EF03-4D43-A10E-78D2AF735C71}" name="Ctrl" totalsRowLabel="集計" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{C5A7C3F6-4F42-4530-8FD3-1990CF3F9124}" name="Shift" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{A05CE0D9-140D-45A0-888F-253BF948A770}" name="Alt" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{7DA7D284-C06D-4102-9404-5695C13F122B}" name="Key" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{3D010DA0-57B1-4C00-9C5F-DCCF15D9FD17}" name="機能" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{E74BE0E9-7F88-484C-9AEE-D35FA3AED34A}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4807,15 +5318,15 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E6EF7B9C-FAC1-42B1-BC95-AF668093141D}" name="テーブル1781011" displayName="テーブル1781011" ref="A1:F88" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E6EF7B9C-FAC1-42B1-BC95-AF668093141D}" name="テーブル1781011" displayName="テーブル1781011" ref="A1:F88" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:F88" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{10591B97-DA49-4E0D-BF23-0888174E098F}" name="Ctrl" totalsRowLabel="集計" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{EDA168A4-45CB-47AC-9F73-DAC9B98B27C9}" name="Shift" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{3CB7FF1C-24DD-4B0B-8123-C85716EAD21F}" name="Alt" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="標準 2"/>
-    <tableColumn id="4" xr3:uid="{8AEA5FCE-4FCC-42AA-A7BC-DD61C011D20F}" name="Key" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{1A91CD22-6C43-43F8-AD49-13837BC29411}" name="機能" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{B88C40F9-0361-4D7D-B3EE-F9FB5D80EF07}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{10591B97-DA49-4E0D-BF23-0888174E098F}" name="Ctrl" totalsRowLabel="集計" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{EDA168A4-45CB-47AC-9F73-DAC9B98B27C9}" name="Shift" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{3CB7FF1C-24DD-4B0B-8123-C85716EAD21F}" name="Alt" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{8AEA5FCE-4FCC-42AA-A7BC-DD61C011D20F}" name="Key" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{1A91CD22-6C43-43F8-AD49-13837BC29411}" name="機能" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{B88C40F9-0361-4D7D-B3EE-F9FB5D80EF07}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4823,16 +5334,33 @@
 </table>
 </file>
 
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{C8B815C4-BB09-4BB3-8BF3-B5822B84DC0A}" name="テーブル1313" displayName="テーブル1313" ref="A1:F96" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:F96" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{50BEC15D-85D4-415C-9037-D51742AD182A}" name="Ctrl" totalsRowLabel="集計" dataDxfId="10" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{925401EF-C46F-4093-8B20-CD2F27E0D0F5}" name="Shift" dataDxfId="8" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{D4F623E9-6A08-459F-AC9D-50F2770A3DAF}" name="Alt" dataDxfId="6" totalsRowDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{2256EA4B-2B95-47F9-A6E3-B25D81FBE39C}" name="Key" dataDxfId="4" totalsRowDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{32073BBC-2DE3-4101-87D5-F9CEA501F790}" name="機能" dataDxfId="2" totalsRowDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{9108A34A-CB76-4BC9-B009-AFA797F495EB}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="0" totalsRowDxfId="1" dataCellStyle="標準 2">
+      <calculatedColumnFormula>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5B3D110-E258-4597-BB86-3913C990E2CB}" name="テーブル17" displayName="テーブル17" ref="A1:F99" headerRowDxfId="137" dataDxfId="136">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5B3D110-E258-4597-BB86-3913C990E2CB}" name="テーブル17" displayName="テーブル17" ref="A1:F99" headerRowDxfId="151" dataDxfId="150">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A339EFE5-6258-4149-86B3-E1CEAA4BEE00}" name="Ctrl" totalsRowLabel="集計" dataDxfId="135" totalsRowDxfId="134"/>
-    <tableColumn id="2" xr3:uid="{95FE279B-8D22-4BC8-8A2E-858DDB73272E}" name="Shift" dataDxfId="133" totalsRowDxfId="132"/>
-    <tableColumn id="3" xr3:uid="{38818F14-8583-4816-90BC-42EC8E0CEF9E}" name="Alt" dataDxfId="131" totalsRowDxfId="130"/>
-    <tableColumn id="4" xr3:uid="{59B72529-4238-4F15-B172-C15FB4893E65}" name="Key" dataDxfId="129" totalsRowDxfId="128"/>
-    <tableColumn id="5" xr3:uid="{1D07021F-1DC8-467F-922D-781773F86854}" name="機能" dataDxfId="127" totalsRowDxfId="126"/>
-    <tableColumn id="7" xr3:uid="{B99A910B-404C-4E9F-ABC8-6C1CF3E22617}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="125" totalsRowDxfId="124" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{A339EFE5-6258-4149-86B3-E1CEAA4BEE00}" name="Ctrl" totalsRowLabel="集計" dataDxfId="149" totalsRowDxfId="148"/>
+    <tableColumn id="2" xr3:uid="{95FE279B-8D22-4BC8-8A2E-858DDB73272E}" name="Shift" dataDxfId="147" totalsRowDxfId="146"/>
+    <tableColumn id="3" xr3:uid="{38818F14-8583-4816-90BC-42EC8E0CEF9E}" name="Alt" dataDxfId="145" totalsRowDxfId="144"/>
+    <tableColumn id="4" xr3:uid="{59B72529-4238-4F15-B172-C15FB4893E65}" name="Key" dataDxfId="143" totalsRowDxfId="142"/>
+    <tableColumn id="5" xr3:uid="{1D07021F-1DC8-467F-922D-781773F86854}" name="機能" dataDxfId="141" totalsRowDxfId="140"/>
+    <tableColumn id="7" xr3:uid="{B99A910B-404C-4E9F-ABC8-6C1CF3E22617}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="139" totalsRowDxfId="138" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4841,15 +5369,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3651D7F7-A056-4B9F-A254-BC10C8DFD165}" name="テーブル178" displayName="テーブル178" ref="A1:F99" headerRowDxfId="123" dataDxfId="122">
-  <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3651D7F7-A056-4B9F-A254-BC10C8DFD165}" name="テーブル178" displayName="テーブル178" ref="A1:F102" headerRowDxfId="137" dataDxfId="136">
+  <autoFilter ref="A1:F102" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{68752F33-5B3F-4E9C-B091-B22CC2989F38}" name="Ctrl" totalsRowLabel="集計" dataDxfId="121" totalsRowDxfId="120"/>
-    <tableColumn id="2" xr3:uid="{5167CBDE-CFFA-48FA-949C-7754DEBB5471}" name="Shift" dataDxfId="119" totalsRowDxfId="118"/>
-    <tableColumn id="3" xr3:uid="{A2117648-5D51-418A-8399-3A653EB882CF}" name="Alt" dataDxfId="117" totalsRowDxfId="116"/>
-    <tableColumn id="4" xr3:uid="{2372578A-8AA5-480D-AA77-FC8F0A78D0EA}" name="Key" dataDxfId="115" totalsRowDxfId="114"/>
-    <tableColumn id="5" xr3:uid="{3BE13509-C9C9-46C8-8667-7EAECC678335}" name="機能" dataDxfId="113" totalsRowDxfId="112"/>
-    <tableColumn id="7" xr3:uid="{AE1A202E-0809-4E6C-9470-DFFA229D9669}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="111" totalsRowDxfId="110" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{68752F33-5B3F-4E9C-B091-B22CC2989F38}" name="Ctrl" totalsRowLabel="集計" dataDxfId="135" totalsRowDxfId="134"/>
+    <tableColumn id="2" xr3:uid="{5167CBDE-CFFA-48FA-949C-7754DEBB5471}" name="Shift" dataDxfId="133" totalsRowDxfId="132"/>
+    <tableColumn id="3" xr3:uid="{A2117648-5D51-418A-8399-3A653EB882CF}" name="Alt" dataDxfId="131" totalsRowDxfId="130"/>
+    <tableColumn id="4" xr3:uid="{2372578A-8AA5-480D-AA77-FC8F0A78D0EA}" name="Key" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="5" xr3:uid="{3BE13509-C9C9-46C8-8667-7EAECC678335}" name="機能" dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="7" xr3:uid="{AE1A202E-0809-4E6C-9470-DFFA229D9669}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="125" totalsRowDxfId="124" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4858,15 +5386,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{64C7855A-AE6E-4D1B-95FD-A0F7F70CC417}" name="テーブル1312" displayName="テーブル1312" ref="A1:F80" headerRowDxfId="109" dataDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{64C7855A-AE6E-4D1B-95FD-A0F7F70CC417}" name="テーブル1312" displayName="テーブル1312" ref="A1:F80" headerRowDxfId="123" dataDxfId="122">
   <autoFilter ref="A1:F80" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3B675F56-1F29-4E78-BDB6-CA41FB9B1F5C}" name="Ctrl" totalsRowLabel="集計" dataDxfId="107" totalsRowDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{B7008E7C-6419-42EC-940A-5B6A0748F5B1}" name="Shift" dataDxfId="105" totalsRowDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{D10E9664-9EFA-48AC-A609-71DE9D6B26CA}" name="Alt" dataDxfId="103" totalsRowDxfId="102"/>
-    <tableColumn id="4" xr3:uid="{04E5B1BB-D2DF-4C83-97E5-127E5BD91A73}" name="Key" dataDxfId="101" totalsRowDxfId="100"/>
-    <tableColumn id="5" xr3:uid="{1EE32BB4-F6DB-4221-AFF6-F34183FE5769}" name="機能" dataDxfId="99" totalsRowDxfId="98"/>
-    <tableColumn id="7" xr3:uid="{3266105D-4A94-4CBB-8500-927634878533}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="97" totalsRowDxfId="96" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{3B675F56-1F29-4E78-BDB6-CA41FB9B1F5C}" name="Ctrl" totalsRowLabel="集計" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{B7008E7C-6419-42EC-940A-5B6A0748F5B1}" name="Shift" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="3" xr3:uid="{D10E9664-9EFA-48AC-A609-71DE9D6B26CA}" name="Alt" dataDxfId="117" totalsRowDxfId="116"/>
+    <tableColumn id="4" xr3:uid="{04E5B1BB-D2DF-4C83-97E5-127E5BD91A73}" name="Key" dataDxfId="115" totalsRowDxfId="114"/>
+    <tableColumn id="5" xr3:uid="{1EE32BB4-F6DB-4221-AFF6-F34183FE5769}" name="機能" dataDxfId="113" totalsRowDxfId="112"/>
+    <tableColumn id="7" xr3:uid="{3266105D-4A94-4CBB-8500-927634878533}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="111" totalsRowDxfId="110" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4875,15 +5403,15 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0BE3AAD5-252A-42BC-B735-5702B821C9F5}" name="テーブル17810" displayName="テーブル17810" ref="A1:F95" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0BE3AAD5-252A-42BC-B735-5702B821C9F5}" name="テーブル17810" displayName="テーブル17810" ref="A1:F95" headerRowDxfId="109" dataDxfId="108">
   <autoFilter ref="A1:F95" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AC738BBB-3009-41EE-B57C-C49F293EF770}" name="Ctrl" totalsRowLabel="集計" dataDxfId="93" totalsRowDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{0FA728AD-25AD-41FC-AC69-C8FD9D439BB0}" name="Shift" dataDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{A5C1728F-F016-41C4-894F-916122C25955}" name="Alt" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="標準 2"/>
-    <tableColumn id="4" xr3:uid="{7A760A73-B1FA-44DC-9BF4-F09C9E1325A2}" name="Key" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="5" xr3:uid="{99F9108C-C22A-4625-A879-60C0A5850F2D}" name="機能" dataDxfId="86" totalsRowDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{0F2ABE32-0915-4657-86F2-4FEBDC3CD8A8}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{AC738BBB-3009-41EE-B57C-C49F293EF770}" name="Ctrl" totalsRowLabel="集計" dataDxfId="107" totalsRowDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{0FA728AD-25AD-41FC-AC69-C8FD9D439BB0}" name="Shift" dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{A5C1728F-F016-41C4-894F-916122C25955}" name="Alt" dataDxfId="104" totalsRowDxfId="103" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{7A760A73-B1FA-44DC-9BF4-F09C9E1325A2}" name="Key" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="5" xr3:uid="{99F9108C-C22A-4625-A879-60C0A5850F2D}" name="機能" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="7" xr3:uid="{0F2ABE32-0915-4657-86F2-4FEBDC3CD8A8}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="98" totalsRowDxfId="97" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4892,15 +5420,15 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="テーブル134" displayName="テーブル134" ref="A1:F91" headerRowDxfId="82" dataDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="テーブル134" displayName="テーブル134" ref="A1:F91" headerRowDxfId="96" dataDxfId="95">
   <autoFilter ref="A1:F91" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="80" totalsRowDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Shift" dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Alt" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Key" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="機能" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="94" totalsRowDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Shift" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Alt" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Key" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="機能" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4909,15 +5437,15 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="テーブル13" displayName="テーブル13" ref="A1:F91" headerRowDxfId="68" dataDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="テーブル13" displayName="テーブル13" ref="A1:F91" headerRowDxfId="82" dataDxfId="81">
   <autoFilter ref="A1:F91" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Shift" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Alt" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Key" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="機能" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Shift" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Alt" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Key" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="機能" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4926,15 +5454,15 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="テーブル1" displayName="テーブル1" ref="A1:F99" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="テーブル1" displayName="テーブル1" ref="A1:F99" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Shift" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Alt" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Key" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="機能" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Shift" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Alt" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Key" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="機能" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4943,15 +5471,15 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="テーブル13456" displayName="テーブル13456" ref="A1:F78" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="テーブル13456" displayName="テーブル13456" ref="A1:F78" headerRowDxfId="54" dataDxfId="53">
   <autoFilter ref="A1:F78" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Shift" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Alt" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="標準 2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Key" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="機能" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Shift" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Alt" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Key" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="機能" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5280,6 +5808,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -6371,6 +6900,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D44D25-11F0-4B75-B08C-CCE87BE573F8}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -6436,10 +6966,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F3" s="3" t="str">
         <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
@@ -7046,14 +7576,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175ECC7F-1CF8-41ED-848A-01EC97406150}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E3" sqref="E3"/>
       <selection pane="topRight" activeCell="E3" sqref="E3"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7108,10 +7639,10 @@
     </row>
     <row r="3" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F3" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7120,10 +7651,10 @@
     </row>
     <row r="4" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7132,10 +7663,10 @@
     </row>
     <row r="5" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="2" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7144,10 +7675,10 @@
     </row>
     <row r="6" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7156,10 +7687,10 @@
     </row>
     <row r="7" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="2" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7168,10 +7699,10 @@
     </row>
     <row r="8" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D8" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F8" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7180,10 +7711,10 @@
     </row>
     <row r="9" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="2" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7192,10 +7723,10 @@
     </row>
     <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="2" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F10" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7204,10 +7735,10 @@
     </row>
     <row r="11" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7216,10 +7747,10 @@
     </row>
     <row r="12" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D12" s="2" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7228,10 +7759,10 @@
     </row>
     <row r="13" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D13" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F13" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7240,10 +7771,10 @@
     </row>
     <row r="14" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D14" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F14" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7252,10 +7783,10 @@
     </row>
     <row r="15" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D15" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7264,10 +7795,10 @@
     </row>
     <row r="16" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D16" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F16" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7276,10 +7807,10 @@
     </row>
     <row r="17" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D17" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7291,7 +7822,7 @@
         <v>147</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F18" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7303,7 +7834,7 @@
         <v>165</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F19" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7312,10 +7843,10 @@
     </row>
     <row r="20" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="2" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F20" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7327,10 +7858,10 @@
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F21" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7342,10 +7873,10 @@
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7357,10 +7888,10 @@
         <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F23" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7372,10 +7903,10 @@
         <v>0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F24" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7387,10 +7918,10 @@
         <v>0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F25" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7408,7 +7939,7 @@
         <v>55</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F26" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7423,7 +7954,7 @@
         <v>55</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F27" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7435,10 +7966,10 @@
         <v>0</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F28" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7450,10 +7981,10 @@
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F29" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7468,10 +7999,10 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="F30" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7486,10 +8017,10 @@
         <v>2</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="F31" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7504,10 +8035,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F32" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7522,10 +8053,10 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F33" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7537,10 +8068,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F34" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7549,10 +8080,10 @@
     </row>
     <row r="35" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D35" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F35" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7567,10 +8098,10 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="F36" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7910,8 +8441,873 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B994306-1A5A-45E0-B1F2-C6B62D4DBA46}">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A1:F96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E3" sqref="E3"/>
+      <selection pane="topRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="6.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="50.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="2" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="1.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v>|:---|:---|:---|:---|:---|</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F1|タグジャンプ|</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F2|バックタグジャンプ|</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F4|カーソル位置の単語色付け|</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F11|アウトライン解析|</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F7" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||F1|ダイレクトタグジャンプ|</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||F3|ウィンドウ分割 上下|</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F9" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||F4|ウィンドウ分割 左右|</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||F6|表示/非表示 アウトライン解析枠|</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||F7|表示/非表示 ファイルマネージャー枠|</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||F8|表示/非表示 アウトプット枠|</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift||F1|コピー 相対ファイルパス|</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift||F2|コピー ファイル名|</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift||F3|コピー フォルダパス|</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="F16" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift||F4|コピー 拡張子|</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F17" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||F1|タグファイルの作成|</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||↑/↓|BOX選択開始|</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F19" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||c|タブを空白に置換してコピー|</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F20" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||x|行切り取り|</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="F21" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||v|BOX貼り付け|</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F22" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||del|行削除|</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F23" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||g|Grep|</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F24" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||g|Grep置換|</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F25" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Alt|b|検索文字列に色を付ける＠検索ウィンドウ|</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F29" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F30" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F35" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F41" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F42" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F43" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F44" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F45" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F46" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F47" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F49" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F50" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F51" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F52" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F53" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F54" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F55" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F56" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F57" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F58" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F59" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F60" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F61" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F62" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F63" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F64" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F65" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F66" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F67" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F68" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F69" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F70" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F71" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F72" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F73" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F74" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F75" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F76" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F77" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F78" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F79" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F80" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F81" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F82" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F83" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F84" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F85" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F86" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F87" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F88" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F89" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F90" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F91" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F92" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F93" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F94" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F95" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F96" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C96" xr:uid="{8F4FFD69-9493-44C9-A531-25E9EF719074}">
+      <formula1>"Alt"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B3:B96" xr:uid="{03F5CA20-56CD-4925-AD47-A590E0F9588C}">
+      <formula1>"Shift"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:A96" xr:uid="{2C25CAA4-885A-47CB-BA84-33DDE715DF4B}">
+      <formula1>"Ctrl"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A675852B-417C-426A-9D62-7129743CB66C}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -8691,14 +10087,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B129C059-5A40-43D7-BB70-4D3EFFE609FB}">
-  <dimension ref="A1:F99"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8752,129 +10149,87 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="F3" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||9[)]|選択行を表示|</v>
+        <v>||||F4|直前の操作を繰り返す|</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>265</v>
+        <v>152</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||0|選択列を表示|</v>
+        <v>||||F4|【文字入力時】相対参照から絶対参照へ(複数回押すことで、行のみ列のみ選択可能)|</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>229</v>
+        <v>161</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||5[%]|[パーセンテージ] 表示形式 (小数点以下の桁数 0) を設定|</v>
+        <v>||||F5|[ジャンプ] ダイアログ ボックスを表示|</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||3[#]|[日付] 表示形式|</v>
+        <v>||||F7|[スペルチェック] ダイアログ ボックスを表示して、作業中のワークシートまたは選択した範囲内のスペルをチェック|</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||:[*]|アクティブ セル領域 (アクティブ セルを含み、空白の行と列で囲まれているデータ領域) を選択|</v>
+        <v>||||F12|名前を付けて保存|</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="F8" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||@[`]|数式と計算結果の表示を切り替え|</v>
+        <v>||||F2 ⇒ F9|計算式を見せずに数値に変える|</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||U|折りたたまれた数式バーを展開し、展開されていた数式バーを折りたたみ|</v>
+        <v>||||F2|【数式入力時】編集モード⇔入力モード切替|</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8885,7 +10240,7 @@
         <v>210</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F10" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -8897,10 +10252,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -8908,258 +10263,345 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>267</v>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||9|選択行を非表示|</v>
+        <v>||Shift||F3|[関数の挿入] ダイアログ ボックスを表示|</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>265</v>
+        <v>464</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>241</v>
+        <v>465</v>
       </c>
       <c r="F13" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||0|選択列を非表示|</v>
+        <v>||Shift||F4|次の空白へジャンプ|</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="1" t="s">
-        <v>2</v>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>242</v>
+        <v>466</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>243</v>
+        <v>467</v>
       </c>
       <c r="F14" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|||Alt|F1|現在の範囲からグラフを作成|</v>
+        <v>||Shift||F8|選択範囲の追加/削除|</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="1" t="s">
-        <v>2</v>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>244</v>
+        <v>468</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>245</v>
+        <v>469</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|||Alt|PageUp(Down)|一画面分左に(右に)横スクロール|</v>
+        <v>||Shift||F9|再計算|</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F16" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift|Alt|=|オートSUM機能|</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>||Shift||F11|新規シートの挿入|</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift|Alt|→|グループ化|</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>|||Alt|F1|現在の範囲からグラフを作成|</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="F18" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift|Alt|←|グループ化解除|</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>|||Alt|PageUp(Down)|一画面分左に(右に)横スクロール|</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B19" s="1" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>158</v>
+        <v>471</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>252</v>
+        <v>472</v>
       </c>
       <c r="F19" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift||F3|[関数の挿入] ダイアログ ボックスを表示|</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>|Ctrl|/Shift||9|選択行を非表示/表示|</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B20" s="1" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>254</v>
+        <v>473</v>
       </c>
       <c r="F20" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift||F11|新規シートの挿入|</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>|Ctrl|/Shift||0|選択列を非表示/表示|</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D21" s="2" t="s">
-        <v>152</v>
+        <v>226</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="F21" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||F4|直前の操作を繰り返す|</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>|Ctrl|Shift||5[%]|[パーセンテージ] 表示形式 (小数点以下の桁数 0) を設定|</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D22" s="2" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||F4|【文字入力時】相対参照から絶対参照へ(複数回押すことで、行のみ列のみ選択可能)|</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>|Ctrl|Shift||3[#]|[日付] 表示形式|</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D23" s="2" t="s">
-        <v>161</v>
+        <v>478</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="F23" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||F5|[ジャンプ] ダイアログ ボックスを表示|</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>|Ctrl|Shift||:[\*]|アクティブ セル領域 (アクティブ セルを含み、空白の行と列で囲まれているデータ領域) を選択|</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D24" s="2" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="F24" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||F7|[スペルチェック] ダイアログ ボックスを表示して、作業中のワークシートまたは選択した範囲内のスペルをチェック|</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>|Ctrl|Shift||@[`]|数式と計算結果の表示を切り替え|</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D25" s="2" t="s">
-        <v>260</v>
+        <v>475</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="F25" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||F12|名前を付けて保存|</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>|Ctrl|Shift||u|折りたたまれた数式バーを展開し、展開されていた数式バーを折りたたみ|</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D26" s="2" t="s">
-        <v>262</v>
+        <v>476</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>263</v>
+        <v>477</v>
       </c>
       <c r="F26" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||F2 ⇒ F9|計算式を見せずに数値に変える|</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>|Ctrl|Shift||p|セルの書式設定表示|</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D27" s="2" t="s">
-        <v>156</v>
+        <v>470</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>264</v>
+        <v>474</v>
       </c>
       <c r="F27" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||F2|【数式入力時】編集モード⇔入力モード切替|</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>|Ctrl|Shift||F3|選択セルから名前付き範囲を作成|</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="F28" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>||Shift|Alt|=|オートSUM機能|</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="F29" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>||Shift|Alt|→|グループ化|</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="F30" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>||Shift|Alt|←|グループ化解除|</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>463</v>
+      </c>
       <c r="F31" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>|Ctrl||Alt|v|[形式を選択して貼り付け] 表示|</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F32" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
@@ -9567,16 +11009,37 @@
         <v/>
       </c>
     </row>
+    <row r="100" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F100" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F101" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F102" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C99" xr:uid="{FF7BEE9C-E158-4724-902D-22D2E3815EC6}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B19:B20" xr:uid="{A47A44E4-4594-4DC0-AC6C-D194CD9120C6}">
+      <formula1>"Shift"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B31 B32:B102" xr:uid="{59ADE39C-3897-46CF-B881-1ABA4E0F3F1D}">
+      <formula1>"Shift"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C31 C32:C102" xr:uid="{FF7BEE9C-E158-4724-902D-22D2E3815EC6}">
       <formula1>"Alt"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B99" xr:uid="{59ADE39C-3897-46CF-B881-1ABA4E0F3F1D}">
-      <formula1>"Shift"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A99" xr:uid="{3A144272-BF4E-4593-925B-6B2486041B33}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A31 A32:A102" xr:uid="{3A144272-BF4E-4593-925B-6B2486041B33}">
       <formula1>"Ctrl"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9590,6 +11053,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F33B2-7FA2-4740-86D0-2AD97053E21B}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -9655,7 +11119,7 @@
         <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F3" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -9664,10 +11128,10 @@
     </row>
     <row r="4" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -9679,10 +11143,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -9697,7 +11161,7 @@
         <v>210</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -9712,7 +11176,7 @@
         <v>211</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -9727,7 +11191,7 @@
         <v>212</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F8" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -9739,10 +11203,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -9754,10 +11218,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F10" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -9769,10 +11233,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -9784,10 +11248,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -9805,7 +11269,7 @@
         <v>210</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F13" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -9820,10 +11284,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F14" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -9838,10 +11302,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -9856,10 +11320,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F16" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -9871,10 +11335,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -9886,10 +11350,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F18" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -9901,13 +11365,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="F19" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -9925,7 +11389,7 @@
         <v>78</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="F20" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -9940,10 +11404,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="F21" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -9961,7 +11425,7 @@
         <v>15</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -9976,10 +11440,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F23" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -9994,10 +11458,10 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="F24" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -10363,6 +11827,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41991D50-28F6-403B-8295-1028362E0434}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -10425,10 +11890,10 @@
     </row>
     <row r="3" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F3" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10437,10 +11902,10 @@
     </row>
     <row r="4" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10452,7 +11917,7 @@
         <v>158</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10464,7 +11929,7 @@
         <v>152</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10476,7 +11941,7 @@
         <v>161</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10485,10 +11950,10 @@
     </row>
     <row r="8" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D8" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F8" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10497,10 +11962,10 @@
     </row>
     <row r="9" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10509,10 +11974,10 @@
     </row>
     <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F10" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10521,10 +11986,10 @@
     </row>
     <row r="11" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10533,10 +11998,10 @@
     </row>
     <row r="12" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D12" s="6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10545,10 +12010,10 @@
     </row>
     <row r="13" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D13" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F13" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10563,7 +12028,7 @@
         <v>203</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F14" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10578,7 +12043,7 @@
         <v>170</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10593,7 +12058,7 @@
         <v>117</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F16" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10608,7 +12073,7 @@
         <v>49</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10620,10 +12085,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F18" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10635,10 +12100,10 @@
         <v>0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F19" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10650,10 +12115,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F20" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10668,7 +12133,7 @@
         <v>145</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F21" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10683,7 +12148,7 @@
         <v>143</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10695,10 +12160,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F23" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10713,7 +12178,7 @@
         <v>156</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F24" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10728,7 +12193,7 @@
         <v>53</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F25" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10740,10 +12205,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F26" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10758,7 +12223,7 @@
         <v>101</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F27" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10770,10 +12235,10 @@
         <v>0</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F28" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10785,10 +12250,10 @@
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F29" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10800,10 +12265,10 @@
         <v>0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F30" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10818,7 +12283,7 @@
         <v>123</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F31" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10833,7 +12298,7 @@
         <v>50</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F32" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10848,7 +12313,7 @@
         <v>126</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F33" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10863,7 +12328,7 @@
         <v>51</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F34" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10875,10 +12340,10 @@
         <v>0</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F35" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10893,7 +12358,7 @@
         <v>205</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F36" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10908,7 +12373,7 @@
         <v>48</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F37" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10923,7 +12388,7 @@
         <v>209</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F38" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10935,10 +12400,10 @@
         <v>0</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F39" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10950,10 +12415,10 @@
         <v>0</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F40" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10965,10 +12430,10 @@
         <v>0</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F41" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10983,7 +12448,7 @@
         <v>195</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F42" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -10995,10 +12460,10 @@
         <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F43" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11013,7 +12478,7 @@
         <v>147</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F44" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11025,10 +12490,10 @@
         <v>2</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F45" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11043,7 +12508,7 @@
         <v>158</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F46" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11058,7 +12523,7 @@
         <v>152</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F47" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11070,10 +12535,10 @@
         <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F48" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11085,10 +12550,10 @@
         <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F49" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11103,7 +12568,7 @@
         <v>143</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F50" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11115,10 +12580,10 @@
         <v>2</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F51" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11133,7 +12598,7 @@
         <v>145</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F52" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11145,10 +12610,10 @@
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F53" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11163,7 +12628,7 @@
         <v>152</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F54" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11178,7 +12643,7 @@
         <v>161</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F55" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11190,10 +12655,10 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F56" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11205,10 +12670,10 @@
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F57" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11220,10 +12685,10 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F58" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11241,7 +12706,7 @@
         <v>210</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F59" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11259,7 +12724,7 @@
         <v>211</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F60" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11277,7 +12742,7 @@
         <v>212</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F61" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11295,7 +12760,7 @@
         <v>204</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F62" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11313,7 +12778,7 @@
         <v>49</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F63" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11331,7 +12796,7 @@
         <v>207</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F64" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11349,7 +12814,7 @@
         <v>50</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F65" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11367,7 +12832,7 @@
         <v>126</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F66" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11385,7 +12850,7 @@
         <v>51</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F67" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11403,7 +12868,7 @@
         <v>48</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F68" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11421,7 +12886,7 @@
         <v>209</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F69" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11436,10 +12901,10 @@
         <v>2</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F70" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11457,7 +12922,7 @@
         <v>206</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F71" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11475,7 +12940,7 @@
         <v>170</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F72" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11490,10 +12955,10 @@
         <v>2</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F73" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11508,10 +12973,10 @@
         <v>2</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F74" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11529,7 +12994,7 @@
         <v>51</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F75" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11544,10 +13009,10 @@
         <v>2</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F76" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11562,10 +13027,10 @@
         <v>2</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F77" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11580,10 +13045,10 @@
         <v>2</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F78" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11598,10 +13063,10 @@
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F79" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11616,10 +13081,10 @@
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F80" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11634,10 +13099,10 @@
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="F81" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11655,7 +13120,7 @@
         <v>117</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F82" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11673,7 +13138,7 @@
         <v>145</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F83" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11691,7 +13156,7 @@
         <v>161</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F84" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11709,7 +13174,7 @@
         <v>53</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F85" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11724,10 +13189,10 @@
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F86" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11742,10 +13207,10 @@
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F87" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11760,10 +13225,10 @@
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F88" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11778,10 +13243,10 @@
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F89" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11799,7 +13264,7 @@
         <v>123</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F90" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11817,7 +13282,7 @@
         <v>50</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F91" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11835,7 +13300,7 @@
         <v>209</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F92" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11850,10 +13315,10 @@
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F93" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11868,10 +13333,10 @@
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F94" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11907,6 +13372,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -12542,6 +14008,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -12549,7 +14016,7 @@
       <selection activeCell="E3" sqref="E3"/>
       <selection pane="topRight" activeCell="E3" sqref="E3"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13333,6 +14800,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -14196,13 +15664,14 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/shortcut_keys.xlsx
+++ b/shortcut_keys.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8198720D-046A-424B-8217-2361289214FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55828C23-3F8E-4104-AC09-BBA234AEF6CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21732" windowHeight="13176" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="264" windowWidth="21732" windowHeight="12792" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Windows10" sheetId="7" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="525">
   <si>
     <t>Ctrl</t>
   </si>
@@ -1055,36 +1055,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>5[%]</t>
-  </si>
-  <si>
-    <t>[パーセンテージ] 表示形式 (小数点以下の桁数 0) を設定</t>
-  </si>
-  <si>
-    <t>3[#]</t>
-  </si>
-  <si>
-    <t>[日付] 表示形式</t>
-  </si>
-  <si>
-    <t>アクティブ セル領域 (アクティブ セルを含み、空白の行と列で囲まれているデータ領域) を選択</t>
-  </si>
-  <si>
-    <t>@[`]</t>
-  </si>
-  <si>
-    <t>数式と計算結果の表示を切り替え</t>
-  </si>
-  <si>
-    <t>折りたたまれた数式バーを展開し、展開されていた数式バーを折りたたみ</t>
-  </si>
-  <si>
-    <t>[セルの書式設定] ダイアログ ボックスを表示</t>
-  </si>
-  <si>
-    <t>アウトライン記号の表示と非表示を切り替え</t>
-  </si>
-  <si>
     <t>F1</t>
   </si>
   <si>
@@ -1106,18 +1076,9 @@
     <t>→</t>
   </si>
   <si>
-    <t>グループ化</t>
-  </si>
-  <si>
     <t>←</t>
   </si>
   <si>
-    <t>グループ化解除</t>
-  </si>
-  <si>
-    <t>[関数の挿入] ダイアログ ボックスを表示</t>
-  </si>
-  <si>
     <t>F11</t>
   </si>
   <si>
@@ -1127,18 +1088,9 @@
     <t>直前の操作を繰り返す</t>
   </si>
   <si>
-    <t>【文字入力時】相対参照から絶対参照へ(複数回押すことで、行のみ列のみ選択可能)</t>
-  </si>
-  <si>
-    <t>[ジャンプ] ダイアログ ボックスを表示</t>
-  </si>
-  <si>
     <t>F7</t>
   </si>
   <si>
-    <t>[スペルチェック] ダイアログ ボックスを表示して、作業中のワークシートまたは選択した範囲内のスペルをチェック</t>
-  </si>
-  <si>
     <t>F12</t>
   </si>
   <si>
@@ -1146,12 +1098,6 @@
   </si>
   <si>
     <t>F2 ⇒ F9</t>
-  </si>
-  <si>
-    <t>計算式を見せずに数値に変える</t>
-  </si>
-  <si>
-    <t>【数式入力時】編集モード⇔入力モード切替</t>
   </si>
   <si>
     <t>0</t>
@@ -1855,10 +1801,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>[形式を選択して貼り付け] 表示</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>F4</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1897,13 +1839,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>再計算</t>
-    <rPh sb="0" eb="3">
-      <t>サイケイサン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>F3</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1932,23 +1867,6 @@
   </si>
   <si>
     <t>p</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>セルの書式設定表示</t>
-    <rPh sb="3" eb="5">
-      <t>ショシキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>:[\*]</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -2149,6 +2067,190 @@
   </si>
   <si>
     <t>検索文字列に色を付ける＠検索ウィンドウ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>F3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スクロールバー移動</t>
+  </si>
+  <si>
+    <t>\|</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>選択行内のアクティブセル値不一致セルを選択</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>~</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>表示形式 [標準]</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>表示形式 [日付]</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>表示形式 [%]</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Delete</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>表示切替 値⇔数式</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>@</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>F8</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ダイアログボックス表示 [ジャンプ]</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ダイアログボックス表示 [セルの書式設定]</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ダイアログボックス表示 [マクロ]</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アクティブ セル領域 (アクティブ セルを含み、空白の行と列で囲まれているデータ領域) を選択</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ダイアログボックス表示 [形式を選択して貼り付け]</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ダイアログボックス表示 [名前の管理]</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コメントが入力されている全セル選択</t>
+    <rPh sb="12" eb="13">
+      <t>ゼン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>数式バー 展開/折りたたみ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アウトライン記号 表示/非表示 切り替え</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>オブジェクト 表示/非表示 切り替え</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【数式入力時】編集モード⇔入力モード切替</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【値入力時】行末までテキスト削除</t>
+    <rPh sb="1" eb="2">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>→/←</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>グループ化/グループ化解除</t>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>:</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【文字入力時】相対参照⇔絶対参照</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ダイアログボックス表示 [スペルチェック]</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>数式→値 変換</t>
+    <rPh sb="0" eb="2">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ScrollLock+方向キー</t>
+    <rPh sb="11" eb="13">
+      <t>ホウコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>再計算 シート/ブック</t>
+    <rPh sb="0" eb="3">
+      <t>サイケイサン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Shift/</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2223,7 +2325,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2246,6 +2348,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2268,6 +2379,23 @@
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -2356,6 +2484,7 @@
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2448,24 +2577,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5338,12 +5449,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{C8B815C4-BB09-4BB3-8BF3-B5822B84DC0A}" name="テーブル1313" displayName="テーブル1313" ref="A1:F96" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:F96" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{50BEC15D-85D4-415C-9037-D51742AD182A}" name="Ctrl" totalsRowLabel="集計" dataDxfId="10" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{925401EF-C46F-4093-8B20-CD2F27E0D0F5}" name="Shift" dataDxfId="8" totalsRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{D4F623E9-6A08-459F-AC9D-50F2770A3DAF}" name="Alt" dataDxfId="6" totalsRowDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{2256EA4B-2B95-47F9-A6E3-B25D81FBE39C}" name="Key" dataDxfId="4" totalsRowDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{32073BBC-2DE3-4101-87D5-F9CEA501F790}" name="機能" dataDxfId="2" totalsRowDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{9108A34A-CB76-4BC9-B009-AFA797F495EB}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="0" totalsRowDxfId="1" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{50BEC15D-85D4-415C-9037-D51742AD182A}" name="Ctrl" totalsRowLabel="集計" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{925401EF-C46F-4093-8B20-CD2F27E0D0F5}" name="Shift" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{D4F623E9-6A08-459F-AC9D-50F2770A3DAF}" name="Alt" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{2256EA4B-2B95-47F9-A6E3-B25D81FBE39C}" name="Key" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{32073BBC-2DE3-4101-87D5-F9CEA501F790}" name="機能" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{9108A34A-CB76-4BC9-B009-AFA797F495EB}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5369,8 +5480,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3651D7F7-A056-4B9F-A254-BC10C8DFD165}" name="テーブル178" displayName="テーブル178" ref="A1:F102" headerRowDxfId="137" dataDxfId="136">
-  <autoFilter ref="A1:F102" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3651D7F7-A056-4B9F-A254-BC10C8DFD165}" name="テーブル178" displayName="テーブル178" ref="A1:F97" headerRowDxfId="137" dataDxfId="136">
+  <autoFilter ref="A1:F97" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{68752F33-5B3F-4E9C-B091-B22CC2989F38}" name="Ctrl" totalsRowLabel="集計" dataDxfId="135" totalsRowDxfId="134"/>
     <tableColumn id="2" xr3:uid="{5167CBDE-CFFA-48FA-949C-7754DEBB5471}" name="Shift" dataDxfId="133" totalsRowDxfId="132"/>
@@ -6966,10 +7077,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="F3" s="3" t="str">
         <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
@@ -7639,10 +7750,10 @@
     </row>
     <row r="3" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="2" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="F3" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7651,10 +7762,10 @@
     </row>
     <row r="4" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="2" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7663,10 +7774,10 @@
     </row>
     <row r="5" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="2" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7675,10 +7786,10 @@
     </row>
     <row r="6" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="2" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7687,10 +7798,10 @@
     </row>
     <row r="7" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="2" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7699,10 +7810,10 @@
     </row>
     <row r="8" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D8" s="2" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="F8" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7711,10 +7822,10 @@
     </row>
     <row r="9" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="2" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7723,10 +7834,10 @@
     </row>
     <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="2" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="F10" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7735,10 +7846,10 @@
     </row>
     <row r="11" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="6" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7747,10 +7858,10 @@
     </row>
     <row r="12" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D12" s="2" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7759,10 +7870,10 @@
     </row>
     <row r="13" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D13" s="2" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="F13" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7771,10 +7882,10 @@
     </row>
     <row r="14" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D14" s="2" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="F14" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7783,10 +7894,10 @@
     </row>
     <row r="15" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D15" s="2" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7795,10 +7906,10 @@
     </row>
     <row r="16" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D16" s="2" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="F16" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7807,10 +7918,10 @@
     </row>
     <row r="17" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D17" s="2" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7822,7 +7933,7 @@
         <v>147</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="F18" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7834,7 +7945,7 @@
         <v>165</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="F19" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7843,10 +7954,10 @@
     </row>
     <row r="20" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="2" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="F20" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7858,10 +7969,10 @@
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="F21" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7873,10 +7984,10 @@
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7888,10 +7999,10 @@
         <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="F23" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7903,10 +8014,10 @@
         <v>0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="F24" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7918,10 +8029,10 @@
         <v>0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="F25" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7939,7 +8050,7 @@
         <v>55</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="F26" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7954,7 +8065,7 @@
         <v>55</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="F27" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7966,10 +8077,10 @@
         <v>0</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="F28" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7981,10 +8092,10 @@
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="F29" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -7999,10 +8110,10 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="F30" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -8017,10 +8128,10 @@
         <v>2</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="F31" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -8035,10 +8146,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="F32" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -8053,10 +8164,10 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="F33" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -8068,10 +8179,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="F34" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -8080,10 +8191,10 @@
     </row>
     <row r="35" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D35" s="2" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="F35" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -8098,10 +8209,10 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="F36" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -8446,12 +8557,12 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E3" sqref="E3"/>
       <selection pane="topRight" activeCell="E3" sqref="E3"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8506,10 +8617,10 @@
     </row>
     <row r="3" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="2" t="s">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="F3" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -8518,10 +8629,10 @@
     </row>
     <row r="4" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="2" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -8530,10 +8641,10 @@
     </row>
     <row r="5" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="2" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -8542,10 +8653,10 @@
     </row>
     <row r="6" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="2" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -8557,10 +8668,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -8572,10 +8683,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="F8" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -8587,10 +8698,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>486</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -8602,10 +8713,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="F10" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -8617,10 +8728,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -8632,10 +8743,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -8647,10 +8758,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="F13" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -8662,10 +8773,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="F14" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -8677,10 +8788,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -8692,10 +8803,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="F16" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -8710,10 +8821,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -8728,10 +8839,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="F18" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -8749,7 +8860,7 @@
         <v>88</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="F19" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -8767,7 +8878,7 @@
         <v>106</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="F20" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -8782,10 +8893,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="F21" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -8800,10 +8911,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>499</v>
+        <v>477</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -8815,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="F23" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -8833,10 +8944,10 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="F24" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -8851,7 +8962,7 @@
         <v>103</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="F25" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -10088,14 +10199,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B129C059-5A40-43D7-BB70-4D3EFFE609FB}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10153,7 +10264,7 @@
         <v>152</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="F3" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -10165,11 +10276,11 @@
         <v>152</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>250</v>
+        <v>519</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||F4|【文字入力時】相対参照から絶対参照へ(複数回押すことで、行のみ列のみ選択可能)|</v>
+        <v>||||F4|【文字入力時】相対参照⇔絶対参照|</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10177,31 +10288,31 @@
         <v>161</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>251</v>
+        <v>499</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||F5|[ジャンプ] ダイアログ ボックスを表示|</v>
+        <v>||||F5|ダイアログボックス表示 [ジャンプ]|</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="2" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>253</v>
+        <v>520</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||F7|[スペルチェック] ダイアログ ボックスを表示して、作業中のワークシートまたは選択した範囲内のスペルをチェック|</v>
+        <v>||||F7|ダイアログボックス表示 [スペルチェック]|</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="2" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -10210,14 +10321,14 @@
     </row>
     <row r="8" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D8" s="2" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>257</v>
+        <v>521</v>
       </c>
       <c r="F8" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||F2 ⇒ F9|計算式を見せずに数値に変える|</v>
+        <v>||||F2 ⇒ F9|数式→値 変換|</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10225,7 +10336,7 @@
         <v>156</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>258</v>
+        <v>512</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -10233,18 +10344,15 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>210</v>
+        <v>522</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>234</v>
+        <v>488</v>
       </c>
       <c r="F10" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||1|[セルの書式設定] ダイアログ ボックスを表示|</v>
+        <v>||||ScrollLock+方向キー|スクロールバー移動|</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10252,163 +10360,154 @@
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>235</v>
+        <v>210</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>500</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||8|アウトライン記号の表示と非表示を切り替え|</v>
+        <v>|Ctrl|||1|ダイアログボックス表示 [セルの書式設定]|</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>1</v>
+      <c r="A12" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>246</v>
+        <v>508</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>511</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift||F3|[関数の挿入] ダイアログ ボックスを表示|</v>
+        <v>|Ctrl|||6|オブジェクト 表示/非表示 切り替え|</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>1</v>
+      <c r="A13" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>465</v>
+        <v>509</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>510</v>
       </c>
       <c r="F13" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift||F4|次の空白へジャンプ|</v>
+        <v>|Ctrl|||8|アウトライン記号 表示/非表示 切り替え|</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>1</v>
+      <c r="A14" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>467</v>
+        <v>504</v>
       </c>
       <c r="F14" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift||F8|選択範囲の追加/削除|</v>
+        <v>|Ctrl|||F3|ダイアログボックス表示 [名前の管理]|</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>1</v>
+      <c r="A15" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>468</v>
+        <v>489</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift||F9|再計算|</v>
+        <v>|Ctrl|||\||選択行内のアクティブセル値不一致セルを選択|</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>1</v>
+      <c r="A16" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>247</v>
+        <v>495</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>248</v>
+        <v>513</v>
       </c>
       <c r="F16" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift||F11|新規シートの挿入|</v>
+        <v>|Ctrl|||Delete|【値入力時】行末までテキスト削除|</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="1" t="s">
-        <v>2</v>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>236</v>
+        <v>445</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>237</v>
+        <v>446</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|||Alt|F1|現在の範囲からグラフを作成|</v>
+        <v>||Shift||F4|次の空白へジャンプ|</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="1" t="s">
-        <v>2</v>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>238</v>
+        <v>447</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>239</v>
+        <v>448</v>
       </c>
       <c r="F18" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|||Alt|PageUp(Down)|一画面分左に(右に)横スクロール|</v>
+        <v>||Shift||F8|選択範囲の追加/削除|</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>524</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>472</v>
+        <v>523</v>
       </c>
       <c r="F19" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|/Shift||9|選択行を非表示/表示|</v>
+        <v>||Shift/||F9|再計算 シート/ブック|</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>473</v>
+        <v>235</v>
       </c>
       <c r="F20" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|/Shift||0|選択列を非表示/表示|</v>
+        <v>||Shift||F11|新規シートの挿入|</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>226</v>
@@ -10418,43 +10517,37 @@
       </c>
       <c r="F21" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||5[%]|[パーセンテージ] 表示形式 (小数点以下の桁数 0) を設定|</v>
+        <v>|||Alt|F1|現在の範囲からグラフを作成|</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>228</v>
+        <v>498</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>229</v>
+        <v>501</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||3[#]|[日付] 表示形式|</v>
+        <v>|||Alt|F8|ダイアログボックス表示 [マクロ]|</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1</v>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>478</v>
+        <v>228</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F23" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||:[\*]|アクティブ セル領域 (アクティブ セルを含み、空白の行と列で囲まれているデータ領域) を選択|</v>
+        <v>|||Alt|PageUp(Down)|一画面分左に(右に)横スクロール|</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10462,17 +10555,17 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>231</v>
+        <v>65</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>451</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>232</v>
+        <v>452</v>
       </c>
       <c r="F24" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||@[`]|数式と計算結果の表示を切り替え|</v>
+        <v>|Ctrl|/Shift||9|選択行を非表示/表示|</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10480,17 +10573,17 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>475</v>
+        <v>241</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>233</v>
+        <v>453</v>
       </c>
       <c r="F25" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||u|折りたたまれた数式バーを展開し、展開されていた数式バーを折りたたみ|</v>
+        <v>|Ctrl|/Shift||0|選択列を非表示/表示|</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10501,14 +10594,14 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>476</v>
+        <v>516</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="F26" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||p|セルの書式設定表示|</v>
+        <v>|Ctrl|Shift||5|表示形式 [%]|</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10519,185 +10612,257 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>470</v>
+        <v>517</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="F27" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||F3|選択セルから名前付き範囲を作成|</v>
+        <v>|Ctrl|Shift||3|表示形式 [日付]|</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>241</v>
+        <v>491</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>492</v>
       </c>
       <c r="F28" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift|Alt|=|オートSUM機能|</v>
+        <v>|Ctrl|Shift||~|表示形式 [標準]|</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>242</v>
+        <v>518</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>243</v>
+        <v>502</v>
       </c>
       <c r="F29" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift|Alt|→|グループ化|</v>
+        <v>|Ctrl|Shift||:|アクティブ セル領域 (アクティブ セルを含み、空白の行と列で囲まれているデータ領域) を選択|</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>0</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>244</v>
+        <v>497</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>245</v>
+        <v>496</v>
       </c>
       <c r="F30" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift|Alt|←|グループ化解除|</v>
+        <v>|Ctrl|Shift||@|表示切替 値⇔数式|</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>2</v>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>463</v>
+        <v>505</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>506</v>
       </c>
       <c r="F31" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl||Alt|v|[形式を選択して貼り付け] 表示|</v>
+        <v>|Ctrl|Shift||o|コメントが入力されている全セル選択|</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>507</v>
+      </c>
       <c r="F32" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>|Ctrl|Shift||u|数式バー 展開/折りたたみ|</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>500</v>
+      </c>
       <c r="F33" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>|Ctrl|Shift||p|ダイアログボックス表示 [セルの書式設定]|</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>454</v>
+      </c>
       <c r="F34" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>|Ctrl|Shift||F3|選択セルから名前付き範囲を作成|</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="F35" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>||Shift|Alt|=|オートSUM機能|</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>515</v>
+      </c>
       <c r="F36" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>||Shift|Alt|→/←|グループ化/グループ化解除|</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>503</v>
+      </c>
       <c r="F37" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>|Ctrl||Alt|v|ダイアログボックス表示 [形式を選択して貼り付け]|</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F38" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F40" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F41" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F42" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F43" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F44" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F45" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F46" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F47" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F48" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
@@ -10997,51 +11162,16 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F98" s="3" t="str">
-        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F99" s="3" t="str">
-        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F100" s="3" t="str">
-        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F101" s="3" t="str">
-        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F102" s="3" t="str">
-        <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B19:B20" xr:uid="{A47A44E4-4594-4DC0-AC6C-D194CD9120C6}">
-      <formula1>"Shift"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B31 B32:B102" xr:uid="{59ADE39C-3897-46CF-B881-1ABA4E0F3F1D}">
-      <formula1>"Shift"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C31 C32:C102" xr:uid="{FF7BEE9C-E158-4724-902D-22D2E3815EC6}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C97" xr:uid="{FF7BEE9C-E158-4724-902D-22D2E3815EC6}">
       <formula1>"Alt"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A31 A32:A102" xr:uid="{3A144272-BF4E-4593-925B-6B2486041B33}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A2:A97" xr:uid="{EBB9C438-9CA0-42EE-9EB1-464C9F311612}">
       <formula1>"Ctrl"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="B2:B97" xr:uid="{67CA9DA1-15C9-4256-82FE-8BA70E1D8F27}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11119,7 +11249,7 @@
         <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="F3" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -11128,10 +11258,10 @@
     </row>
     <row r="4" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="2" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -11143,10 +11273,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -11161,7 +11291,7 @@
         <v>210</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -11176,7 +11306,7 @@
         <v>211</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -11191,7 +11321,7 @@
         <v>212</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="F8" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -11203,10 +11333,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -11218,10 +11348,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="F10" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -11233,10 +11363,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -11248,10 +11378,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -11269,7 +11399,7 @@
         <v>210</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F13" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -11284,10 +11414,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="F14" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -11302,10 +11432,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -11320,10 +11450,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="F16" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -11335,10 +11465,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -11350,10 +11480,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="F18" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -11365,13 +11495,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="F19" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -11389,7 +11519,7 @@
         <v>78</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="F20" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -11404,10 +11534,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="F21" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -11425,7 +11555,7 @@
         <v>15</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -11440,10 +11570,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="F23" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -11458,10 +11588,10 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="F24" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
@@ -11890,10 +12020,10 @@
     </row>
     <row r="3" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="2" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="F3" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11902,10 +12032,10 @@
     </row>
     <row r="4" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11917,7 +12047,7 @@
         <v>158</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11929,7 +12059,7 @@
         <v>152</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11941,7 +12071,7 @@
         <v>161</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11950,10 +12080,10 @@
     </row>
     <row r="8" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D8" s="2" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="F8" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11962,10 +12092,10 @@
     </row>
     <row r="9" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="2" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11974,10 +12104,10 @@
     </row>
     <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="F10" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11986,10 +12116,10 @@
     </row>
     <row r="11" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="2" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -11998,10 +12128,10 @@
     </row>
     <row r="12" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D12" s="6" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12010,10 +12140,10 @@
     </row>
     <row r="13" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D13" s="2" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="F13" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12028,7 +12158,7 @@
         <v>203</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="F14" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12043,7 +12173,7 @@
         <v>170</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12058,7 +12188,7 @@
         <v>117</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="F16" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12073,7 +12203,7 @@
         <v>49</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12085,10 +12215,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="F18" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12100,10 +12230,10 @@
         <v>0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="F19" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12115,10 +12245,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="F20" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12133,7 +12263,7 @@
         <v>145</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="F21" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12148,7 +12278,7 @@
         <v>143</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12160,10 +12290,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="F23" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12178,7 +12308,7 @@
         <v>156</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="F24" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12193,7 +12323,7 @@
         <v>53</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="F25" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12205,10 +12335,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="F26" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12223,7 +12353,7 @@
         <v>101</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="F27" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12235,10 +12365,10 @@
         <v>0</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="F28" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12250,10 +12380,10 @@
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="F29" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12265,10 +12395,10 @@
         <v>0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="F30" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12283,7 +12413,7 @@
         <v>123</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="F31" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12298,7 +12428,7 @@
         <v>50</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="F32" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12313,7 +12443,7 @@
         <v>126</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="F33" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12328,7 +12458,7 @@
         <v>51</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="F34" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12340,10 +12470,10 @@
         <v>0</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="F35" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12358,7 +12488,7 @@
         <v>205</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="F36" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12373,7 +12503,7 @@
         <v>48</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="F37" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12388,7 +12518,7 @@
         <v>209</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="F38" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12400,10 +12530,10 @@
         <v>0</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="F39" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12415,10 +12545,10 @@
         <v>0</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="F40" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12430,10 +12560,10 @@
         <v>0</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="F41" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12448,7 +12578,7 @@
         <v>195</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="F42" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12460,10 +12590,10 @@
         <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="F43" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12478,7 +12608,7 @@
         <v>147</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="F44" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12490,10 +12620,10 @@
         <v>2</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="F45" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12508,7 +12638,7 @@
         <v>158</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="F46" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12523,7 +12653,7 @@
         <v>152</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="F47" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12535,10 +12665,10 @@
         <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="F48" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12550,10 +12680,10 @@
         <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="F49" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12568,7 +12698,7 @@
         <v>143</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="F50" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12580,10 +12710,10 @@
         <v>2</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F51" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12598,7 +12728,7 @@
         <v>145</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="F52" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12610,10 +12740,10 @@
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="F53" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12628,7 +12758,7 @@
         <v>152</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="F54" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12643,7 +12773,7 @@
         <v>161</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="F55" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12655,10 +12785,10 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="F56" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12670,10 +12800,10 @@
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="F57" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12685,10 +12815,10 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="F58" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12706,7 +12836,7 @@
         <v>210</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="F59" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12724,7 +12854,7 @@
         <v>211</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="F60" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12742,7 +12872,7 @@
         <v>212</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="F61" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12760,7 +12890,7 @@
         <v>204</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="F62" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12778,7 +12908,7 @@
         <v>49</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="F63" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12796,7 +12926,7 @@
         <v>207</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="F64" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12814,7 +12944,7 @@
         <v>50</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="F65" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12832,7 +12962,7 @@
         <v>126</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="F66" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12850,7 +12980,7 @@
         <v>51</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="F67" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12868,7 +12998,7 @@
         <v>48</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="F68" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12886,7 +13016,7 @@
         <v>209</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="F69" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12901,10 +13031,10 @@
         <v>2</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="F70" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12922,7 +13052,7 @@
         <v>206</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F71" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12940,7 +13070,7 @@
         <v>170</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="F72" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12955,10 +13085,10 @@
         <v>2</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="F73" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12973,10 +13103,10 @@
         <v>2</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="F74" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -12994,7 +13124,7 @@
         <v>51</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="F75" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -13009,10 +13139,10 @@
         <v>2</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="F76" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -13027,10 +13157,10 @@
         <v>2</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="F77" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -13045,10 +13175,10 @@
         <v>2</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="F78" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -13063,10 +13193,10 @@
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="F79" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -13081,10 +13211,10 @@
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="F80" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -13099,10 +13229,10 @@
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="F81" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -13120,7 +13250,7 @@
         <v>117</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="F82" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -13138,7 +13268,7 @@
         <v>145</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="F83" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -13156,7 +13286,7 @@
         <v>161</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="F84" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -13174,7 +13304,7 @@
         <v>53</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="F85" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -13189,10 +13319,10 @@
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="F86" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -13207,10 +13337,10 @@
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="F87" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -13225,10 +13355,10 @@
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="F88" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -13243,10 +13373,10 @@
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="F89" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -13264,7 +13394,7 @@
         <v>123</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="F90" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -13282,7 +13412,7 @@
         <v>50</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="F91" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -13300,7 +13430,7 @@
         <v>209</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="F92" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -13315,10 +13445,10 @@
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="F93" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
@@ -13333,10 +13463,10 @@
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="F94" s="3" t="str">
         <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>

--- a/shortcut_keys.xlsx
+++ b/shortcut_keys.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55828C23-3F8E-4104-AC09-BBA234AEF6CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AC93C9-36A0-452A-A2C2-81CE737F9E4E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="264" windowWidth="21732" windowHeight="12792" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21732" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Windows10" sheetId="7" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="527">
   <si>
     <t>Ctrl</t>
   </si>
@@ -2251,6 +2251,14 @@
   </si>
   <si>
     <t>Shift/</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ブックのスタイルを設定</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -10206,7 +10214,7 @@
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10803,9 +10811,21 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>526</v>
+      </c>
       <c r="F38" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
+        <v>||Shift|Alt|7|ブックのスタイルを設定|</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">

--- a/shortcut_keys.xlsx
+++ b/shortcut_keys.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AC93C9-36A0-452A-A2C2-81CE737F9E4E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B57B1CA-8862-46B6-8008-369C29A6171A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21732" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="529">
   <si>
     <t>Ctrl</t>
   </si>
@@ -2259,6 +2259,17 @@
   </si>
   <si>
     <t>ブックのスタイルを設定</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テーブル挿入</t>
+    <rPh sb="4" eb="6">
+      <t>ソウニュウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -10214,7 +10225,7 @@
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10368,14 +10379,14 @@
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>500</v>
+        <v>527</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>528</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||1|ダイアログボックス表示 [セルの書式設定]|</v>
+        <v>|Ctrl|||t|テーブル挿入|</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10383,14 +10394,14 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>508</v>
+        <v>210</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||6|オブジェクト 表示/非表示 切り替え|</v>
+        <v>|Ctrl|||1|ダイアログボックス表示 [セルの書式設定]|</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10398,14 +10409,14 @@
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F13" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||8|アウトライン記号 表示/非表示 切り替え|</v>
+        <v>|Ctrl|||6|オブジェクト 表示/非表示 切り替え|</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10413,14 +10424,14 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>504</v>
+        <v>509</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>510</v>
       </c>
       <c r="F14" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||F3|ダイアログボックス表示 [名前の管理]|</v>
+        <v>|Ctrl|||8|アウトライン記号 表示/非表示 切り替え|</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10428,14 +10439,14 @@
         <v>0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||\||選択行内のアクティブセル値不一致セルを選択|</v>
+        <v>|Ctrl|||F3|ダイアログボックス表示 [名前の管理]|</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10443,29 +10454,29 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="F16" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||Delete|【値入力時】行末までテキスト削除|</v>
+        <v>|Ctrl|||\||選択行内のアクティブセル値不一致セルを選択|</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>1</v>
+      <c r="A17" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>445</v>
+        <v>495</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift||F4|次の空白へジャンプ|</v>
+        <v>|Ctrl|||Delete|【値入力時】行末までテキスト削除|</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10473,59 +10484,59 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F18" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift||F8|選択範囲の追加/削除|</v>
+        <v>||Shift||F4|次の空白へジャンプ|</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>524</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>523</v>
+        <v>448</v>
       </c>
       <c r="F19" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift/||F9|再計算 シート/ブック|</v>
+        <v>||Shift||F8|選択範囲の追加/削除|</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>1</v>
+        <v>524</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>234</v>
+        <v>449</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>235</v>
+        <v>523</v>
       </c>
       <c r="F20" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift||F11|新規シートの挿入|</v>
+        <v>||Shift/||F9|再計算 シート/ブック|</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="1" t="s">
-        <v>2</v>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="F21" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|||Alt|F1|現在の範囲からグラフを作成|</v>
+        <v>||Shift||F11|新規シートの挿入|</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10533,14 +10544,14 @@
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>498</v>
+        <v>226</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>501</v>
+        <v>227</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|||Alt|F8|ダイアログボックス表示 [マクロ]|</v>
+        <v>|||Alt|F1|現在の範囲からグラフを作成|</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10548,32 +10559,29 @@
         <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>228</v>
+        <v>498</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>229</v>
+        <v>501</v>
       </c>
       <c r="F23" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|||Alt|PageUp(Down)|一画面分左に(右に)横スクロール|</v>
+        <v>|||Alt|F8|ダイアログボックス表示 [マクロ]|</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>451</v>
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>452</v>
+        <v>229</v>
       </c>
       <c r="F24" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|/Shift||9|選択行を非表示/表示|</v>
+        <v>|||Alt|PageUp(Down)|一画面分左に(右に)横スクロール|</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10583,15 +10591,15 @@
       <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>241</v>
+      <c r="D25" s="10" t="s">
+        <v>451</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F25" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|/Shift||0|選択列を非表示/表示|</v>
+        <v>|Ctrl|/Shift||9|選択行を非表示/表示|</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10599,17 +10607,17 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>516</v>
+        <v>241</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>494</v>
+        <v>453</v>
       </c>
       <c r="F26" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||5|表示形式 [%]|</v>
+        <v>|Ctrl|/Shift||0|選択列を非表示/表示|</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10620,14 +10628,14 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F27" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||3|表示形式 [日付]|</v>
+        <v>|Ctrl|Shift||5|表示形式 [%]|</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10638,14 +10646,14 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>492</v>
+        <v>517</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>493</v>
       </c>
       <c r="F28" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||~|表示形式 [標準]|</v>
+        <v>|Ctrl|Shift||3|表示形式 [日付]|</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10656,50 +10664,50 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>502</v>
+        <v>491</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>492</v>
       </c>
       <c r="F29" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||:|アクティブ セル領域 (アクティブ セルを含み、空白の行と列で囲まれているデータ領域) を選択|</v>
+        <v>|Ctrl|Shift||~|表示形式 [標準]|</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="F30" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||@|表示切替 値⇔数式|</v>
+        <v>|Ctrl|Shift||:|アクティブ セル領域 (アクティブ セルを含み、空白の行と列で囲まれているデータ領域) を選択|</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>506</v>
+        <v>497</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>496</v>
       </c>
       <c r="F31" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||o|コメントが入力されている全セル選択|</v>
+        <v>|Ctrl|Shift||@|表示切替 値⇔数式|</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10710,14 +10718,14 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>506</v>
       </c>
       <c r="F32" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||u|数式バー 展開/折りたたみ|</v>
+        <v>|Ctrl|Shift||o|コメントが入力されている全セル選択|</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10728,14 +10736,14 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="F33" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||p|ダイアログボックス表示 [セルの書式設定]|</v>
+        <v>|Ctrl|Shift||u|数式バー 展開/折りたたみ|</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10746,32 +10754,32 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>454</v>
+        <v>500</v>
       </c>
       <c r="F34" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||F3|選択セルから名前付き範囲を作成|</v>
+        <v>|Ctrl|Shift||p|ダイアログボックス表示 [セルの書式設定]|</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>230</v>
+        <v>450</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>231</v>
+        <v>454</v>
       </c>
       <c r="F35" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift|Alt|=|オートSUM機能|</v>
+        <v>|Ctrl|Shift||F3|選択セルから名前付き範囲を作成|</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10782,56 +10790,68 @@
         <v>2</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>514</v>
+        <v>230</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>515</v>
+        <v>231</v>
       </c>
       <c r="F36" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift|Alt|→/←|グループ化/グループ化解除|</v>
+        <v>||Shift|Alt|=|オートSUM機能|</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>0</v>
+      <c r="B37" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>444</v>
+        <v>514</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="F37" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl||Alt|v|ダイアログボックス表示 [形式を選択して貼り付け]|</v>
+        <v>||Shift|Alt|→/←|グループ化/グループ化解除|</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>1</v>
+      <c r="A38" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>525</v>
+        <v>444</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="F38" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift|Alt|7|ブックのスタイルを設定|</v>
+        <v>|Ctrl||Alt|v|ダイアログボックス表示 [形式を選択して貼り付け]|</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>526</v>
+      </c>
       <c r="F39" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
+        <v>||Shift|Alt|7|ブックのスタイルを設定|</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11184,14 +11204,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C97" xr:uid="{FF7BEE9C-E158-4724-902D-22D2E3815EC6}">
+  <dataValidations disablePrompts="1" count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C40:C97 C3:C39" xr:uid="{FF7BEE9C-E158-4724-902D-22D2E3815EC6}">
       <formula1>"Alt"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A2:A97" xr:uid="{EBB9C438-9CA0-42EE-9EB1-464C9F311612}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A40:A97 A2:A39" xr:uid="{EBB9C438-9CA0-42EE-9EB1-464C9F311612}">
       <formula1>"Ctrl"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="B2:B97" xr:uid="{67CA9DA1-15C9-4256-82FE-8BA70E1D8F27}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="B40:B97 B2:B39" xr:uid="{67CA9DA1-15C9-4256-82FE-8BA70E1D8F27}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/shortcut_keys.xlsx
+++ b/shortcut_keys.xlsx
@@ -1,39 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B57B1CA-8862-46B6-8008-369C29A6171A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3131ACF-37DE-44F4-A3BC-25EB9423FD89}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21732" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21684" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Windows10" sheetId="7" r:id="rId1"/>
     <sheet name="Outlook" sheetId="9" r:id="rId2"/>
     <sheet name="Excel" sheetId="10" r:id="rId3"/>
-    <sheet name="Visio" sheetId="14" r:id="rId4"/>
-    <sheet name="Word" sheetId="12" r:id="rId5"/>
-    <sheet name="Firefox" sheetId="6" r:id="rId6"/>
-    <sheet name="Thunderbird" sheetId="5" r:id="rId7"/>
-    <sheet name="iThoughts" sheetId="4" r:id="rId8"/>
-    <sheet name="Vim" sheetId="8" r:id="rId9"/>
-    <sheet name="XChangeViewer" sheetId="11" r:id="rId10"/>
-    <sheet name="X-Finder" sheetId="13" r:id="rId11"/>
-    <sheet name="秀丸" sheetId="15" r:id="rId12"/>
+    <sheet name="Excel(alt)" sheetId="16" r:id="rId4"/>
+    <sheet name="Visio" sheetId="14" r:id="rId5"/>
+    <sheet name="Word" sheetId="12" r:id="rId6"/>
+    <sheet name="Firefox" sheetId="6" r:id="rId7"/>
+    <sheet name="Thunderbird" sheetId="5" r:id="rId8"/>
+    <sheet name="iThoughts" sheetId="4" r:id="rId9"/>
+    <sheet name="Vim" sheetId="8" r:id="rId10"/>
+    <sheet name="XChangeViewer" sheetId="11" r:id="rId11"/>
+    <sheet name="X-Finder" sheetId="13" r:id="rId12"/>
+    <sheet name="秀丸" sheetId="15" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">テーブル178[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">テーブル134[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">テーブル1[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Excel(alt)'!$A$1:$B$70</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">テーブル134[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">テーブル1[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">テーブル17[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">テーブル13[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">Vim!$A$1:$E$78</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">テーブル1312[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">テーブル13[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">Vim!$A$1:$E$78</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">テーブル1312[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">テーブル1345[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">テーブル17810[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">テーブル1789[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">テーブル1781011[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">テーブル1313[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">テーブル17810[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">テーブル1789[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">テーブル1781011[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">テーブル1313[[#All],[Ctrl]:[機能]]</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="613">
   <si>
     <t>Ctrl</t>
   </si>
@@ -2091,10 +2093,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>~</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>表示形式 [標準]</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -2270,6 +2268,622 @@
     <rPh sb="4" eb="6">
       <t>ソウニュウ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>罫線 格子</t>
+    <rPh sb="0" eb="2">
+      <t>ケイセン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>罫線 なし</t>
+    <rPh sb="0" eb="2">
+      <t>ケイセン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>罫線 太外枠</t>
+    <rPh sb="0" eb="2">
+      <t>ケイセン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>フトシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソトワク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HHN</t>
+  </si>
+  <si>
+    <t>HBN</t>
+  </si>
+  <si>
+    <t>HBA</t>
+  </si>
+  <si>
+    <t>HBT</t>
+  </si>
+  <si>
+    <t>HL1</t>
+  </si>
+  <si>
+    <t>HAC</t>
+  </si>
+  <si>
+    <t>HR</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>WFF</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>EL</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HOI</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HW</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ES</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>形式を選択して貼り付け</t>
+    <rPh sb="0" eb="2">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>WVG</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>H9</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>H0(zero)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>小数点以下 表示桁数＋＋</t>
+    <rPh sb="0" eb="3">
+      <t>ショウスウテン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケタスウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>小数点以下 表示桁数－－</t>
+    <rPh sb="0" eb="3">
+      <t>ショウスウテン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケタスウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HMU</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セル結合 解除</t>
+    <rPh sb="2" eb="4">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HFG</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォントサイズ＋＋</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォントサイズ－－</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HFS</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォントサイズ変更</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HFK</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HFC1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォントカラー変更</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>^</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>EM</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OHH</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シート 非表示</t>
+    <rPh sb="4" eb="7">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シート 削除</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シート 再表示</t>
+    <rPh sb="4" eb="5">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OHU</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>EAH</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ハイパーリンク 削除</t>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ハイパーリンク クリア</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>EAR</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HOA</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>行幅 自動調整</t>
+    <rPh sb="0" eb="1">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>列幅 自動調整</t>
+    <rPh sb="0" eb="2">
+      <t>レツハバ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OD</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「条件付き書式ルールの管理」表示</t>
+    <rPh sb="1" eb="4">
+      <t>ジョウケンツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショシキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「区切り位置」表示</t>
+    <rPh sb="1" eb="3">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「シートの移動またはコピー」表示</t>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HFF</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォント変更</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セル塗りつぶし なし</t>
+    <rPh sb="2" eb="3">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セル塗りつぶし 変更</t>
+    <rPh sb="2" eb="3">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HH</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AH</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>グループ 折りたたむ</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>グループ 展開</t>
+    <rPh sb="5" eb="7">
+      <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AJ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AM</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>重複削除</t>
+    <rPh sb="0" eb="2">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DL</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>IB</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>改ページ挿入</t>
+    <rPh sb="0" eb="1">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HFDO</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>オブジェクト選択</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ウィンドウ 枠固定 切り替え</t>
+    <rPh sb="6" eb="7">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HAT</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HAM</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HAB</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字配置 上下 中央</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チュウオウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字配置 上下 下</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字配置 上下 上</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字配置 左右 左</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字配置 左右 中央</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チュウオウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字配置 左右 右</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「データ入力規則」表示</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キソク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>折り返して全体を表示</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>枠線 表示/非表示</t>
+    <rPh sb="0" eb="2">
+      <t>ワクセン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ブック共有</t>
+    <rPh sb="3" eb="5">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RH1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コメント 表示/非表示</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MV</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>数式の検証</t>
+    <rPh sb="0" eb="2">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>|Key|機能|</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2344,7 +2958,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2376,12 +2990,174 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="168">
+  <dxfs count="176">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5413,16 +6189,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1345" displayName="テーブル1345" ref="A1:G85" headerRowDxfId="167" dataDxfId="166">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1345" displayName="テーブル1345" ref="A1:G85" headerRowDxfId="175" dataDxfId="174">
   <autoFilter ref="A1:G85" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="165" totalsRowDxfId="164"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Shift" dataDxfId="163" totalsRowDxfId="162"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Alt" dataDxfId="161" totalsRowDxfId="160" dataCellStyle="標準 2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Win" dataDxfId="159" totalsRowDxfId="158"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Key" dataDxfId="157" totalsRowDxfId="156"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="機能" dataDxfId="155" totalsRowDxfId="154"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="|Ctrl|Shift|Alt|Win|Key|機能|" totalsRowFunction="count" dataDxfId="153" totalsRowDxfId="152" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="173" totalsRowDxfId="172"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Shift" dataDxfId="171" totalsRowDxfId="170"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Alt" dataDxfId="169" totalsRowDxfId="168" dataCellStyle="標準 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Win" dataDxfId="167" totalsRowDxfId="166"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Key" dataDxfId="165" totalsRowDxfId="164"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="機能" dataDxfId="163" totalsRowDxfId="162"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="|Ctrl|Shift|Alt|Win|Key|機能|" totalsRowFunction="count" dataDxfId="161" totalsRowDxfId="160" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5431,15 +6207,32 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{74162BA7-0E42-48B6-B99F-4D7F769D24F9}" name="テーブル1789" displayName="テーブル1789" ref="A1:F99" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="テーブル13456" displayName="テーブル13456" ref="A1:F78" headerRowDxfId="62" dataDxfId="61">
+  <autoFilter ref="A1:F78" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Shift" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Alt" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Key" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="機能" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="標準 2">
+      <calculatedColumnFormula>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{74162BA7-0E42-48B6-B99F-4D7F769D24F9}" name="テーブル1789" displayName="テーブル1789" ref="A1:F99" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{62FA586D-EF03-4D43-A10E-78D2AF735C71}" name="Ctrl" totalsRowLabel="集計" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{C5A7C3F6-4F42-4530-8FD3-1990CF3F9124}" name="Shift" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{A05CE0D9-140D-45A0-888F-253BF948A770}" name="Alt" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{7DA7D284-C06D-4102-9404-5695C13F122B}" name="Key" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{3D010DA0-57B1-4C00-9C5F-DCCF15D9FD17}" name="機能" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{E74BE0E9-7F88-484C-9AEE-D35FA3AED34A}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{62FA586D-EF03-4D43-A10E-78D2AF735C71}" name="Ctrl" totalsRowLabel="集計" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{C5A7C3F6-4F42-4530-8FD3-1990CF3F9124}" name="Shift" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{A05CE0D9-140D-45A0-888F-253BF948A770}" name="Alt" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{7DA7D284-C06D-4102-9404-5695C13F122B}" name="Key" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{3D010DA0-57B1-4C00-9C5F-DCCF15D9FD17}" name="機能" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{E74BE0E9-7F88-484C-9AEE-D35FA3AED34A}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="36" totalsRowDxfId="35" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5447,16 +6240,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E6EF7B9C-FAC1-42B1-BC95-AF668093141D}" name="テーブル1781011" displayName="テーブル1781011" ref="A1:F88" headerRowDxfId="26" dataDxfId="25">
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E6EF7B9C-FAC1-42B1-BC95-AF668093141D}" name="テーブル1781011" displayName="テーブル1781011" ref="A1:F88" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A1:F88" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{10591B97-DA49-4E0D-BF23-0888174E098F}" name="Ctrl" totalsRowLabel="集計" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{EDA168A4-45CB-47AC-9F73-DAC9B98B27C9}" name="Shift" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{3CB7FF1C-24DD-4B0B-8123-C85716EAD21F}" name="Alt" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="標準 2"/>
-    <tableColumn id="4" xr3:uid="{8AEA5FCE-4FCC-42AA-A7BC-DD61C011D20F}" name="Key" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{1A91CD22-6C43-43F8-AD49-13837BC29411}" name="機能" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{B88C40F9-0361-4D7D-B3EE-F9FB5D80EF07}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{10591B97-DA49-4E0D-BF23-0888174E098F}" name="Ctrl" totalsRowLabel="集計" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{EDA168A4-45CB-47AC-9F73-DAC9B98B27C9}" name="Shift" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{3CB7FF1C-24DD-4B0B-8123-C85716EAD21F}" name="Alt" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{8AEA5FCE-4FCC-42AA-A7BC-DD61C011D20F}" name="Key" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{1A91CD22-6C43-43F8-AD49-13837BC29411}" name="機能" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{B88C40F9-0361-4D7D-B3EE-F9FB5D80EF07}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5464,16 +6257,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{C8B815C4-BB09-4BB3-8BF3-B5822B84DC0A}" name="テーブル1313" displayName="テーブル1313" ref="A1:F96" headerRowDxfId="13" dataDxfId="12">
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{C8B815C4-BB09-4BB3-8BF3-B5822B84DC0A}" name="テーブル1313" displayName="テーブル1313" ref="A1:F96" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:F96" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{50BEC15D-85D4-415C-9037-D51742AD182A}" name="Ctrl" totalsRowLabel="集計" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{925401EF-C46F-4093-8B20-CD2F27E0D0F5}" name="Shift" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{D4F623E9-6A08-459F-AC9D-50F2770A3DAF}" name="Alt" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{2256EA4B-2B95-47F9-A6E3-B25D81FBE39C}" name="Key" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{32073BBC-2DE3-4101-87D5-F9CEA501F790}" name="機能" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{9108A34A-CB76-4BC9-B009-AFA797F495EB}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{50BEC15D-85D4-415C-9037-D51742AD182A}" name="Ctrl" totalsRowLabel="集計" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{925401EF-C46F-4093-8B20-CD2F27E0D0F5}" name="Shift" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{D4F623E9-6A08-459F-AC9D-50F2770A3DAF}" name="Alt" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{2256EA4B-2B95-47F9-A6E3-B25D81FBE39C}" name="Key" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{32073BBC-2DE3-4101-87D5-F9CEA501F790}" name="機能" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{9108A34A-CB76-4BC9-B009-AFA797F495EB}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5482,15 +6275,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5B3D110-E258-4597-BB86-3913C990E2CB}" name="テーブル17" displayName="テーブル17" ref="A1:F99" headerRowDxfId="151" dataDxfId="150">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5B3D110-E258-4597-BB86-3913C990E2CB}" name="テーブル17" displayName="テーブル17" ref="A1:F99" headerRowDxfId="159" dataDxfId="158">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A339EFE5-6258-4149-86B3-E1CEAA4BEE00}" name="Ctrl" totalsRowLabel="集計" dataDxfId="149" totalsRowDxfId="148"/>
-    <tableColumn id="2" xr3:uid="{95FE279B-8D22-4BC8-8A2E-858DDB73272E}" name="Shift" dataDxfId="147" totalsRowDxfId="146"/>
-    <tableColumn id="3" xr3:uid="{38818F14-8583-4816-90BC-42EC8E0CEF9E}" name="Alt" dataDxfId="145" totalsRowDxfId="144"/>
-    <tableColumn id="4" xr3:uid="{59B72529-4238-4F15-B172-C15FB4893E65}" name="Key" dataDxfId="143" totalsRowDxfId="142"/>
-    <tableColumn id="5" xr3:uid="{1D07021F-1DC8-467F-922D-781773F86854}" name="機能" dataDxfId="141" totalsRowDxfId="140"/>
-    <tableColumn id="7" xr3:uid="{B99A910B-404C-4E9F-ABC8-6C1CF3E22617}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="139" totalsRowDxfId="138" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{A339EFE5-6258-4149-86B3-E1CEAA4BEE00}" name="Ctrl" totalsRowLabel="集計" dataDxfId="157" totalsRowDxfId="156"/>
+    <tableColumn id="2" xr3:uid="{95FE279B-8D22-4BC8-8A2E-858DDB73272E}" name="Shift" dataDxfId="155" totalsRowDxfId="154"/>
+    <tableColumn id="3" xr3:uid="{38818F14-8583-4816-90BC-42EC8E0CEF9E}" name="Alt" dataDxfId="153" totalsRowDxfId="152"/>
+    <tableColumn id="4" xr3:uid="{59B72529-4238-4F15-B172-C15FB4893E65}" name="Key" dataDxfId="151" totalsRowDxfId="150"/>
+    <tableColumn id="5" xr3:uid="{1D07021F-1DC8-467F-922D-781773F86854}" name="機能" dataDxfId="149" totalsRowDxfId="148"/>
+    <tableColumn id="7" xr3:uid="{B99A910B-404C-4E9F-ABC8-6C1CF3E22617}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="147" totalsRowDxfId="146" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5499,15 +6292,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3651D7F7-A056-4B9F-A254-BC10C8DFD165}" name="テーブル178" displayName="テーブル178" ref="A1:F97" headerRowDxfId="137" dataDxfId="136">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3651D7F7-A056-4B9F-A254-BC10C8DFD165}" name="テーブル178" displayName="テーブル178" ref="A1:F97" headerRowDxfId="145" dataDxfId="144">
   <autoFilter ref="A1:F97" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{68752F33-5B3F-4E9C-B091-B22CC2989F38}" name="Ctrl" totalsRowLabel="集計" dataDxfId="135" totalsRowDxfId="134"/>
-    <tableColumn id="2" xr3:uid="{5167CBDE-CFFA-48FA-949C-7754DEBB5471}" name="Shift" dataDxfId="133" totalsRowDxfId="132"/>
-    <tableColumn id="3" xr3:uid="{A2117648-5D51-418A-8399-3A653EB882CF}" name="Alt" dataDxfId="131" totalsRowDxfId="130"/>
-    <tableColumn id="4" xr3:uid="{2372578A-8AA5-480D-AA77-FC8F0A78D0EA}" name="Key" dataDxfId="129" totalsRowDxfId="128"/>
-    <tableColumn id="5" xr3:uid="{3BE13509-C9C9-46C8-8667-7EAECC678335}" name="機能" dataDxfId="127" totalsRowDxfId="126"/>
-    <tableColumn id="7" xr3:uid="{AE1A202E-0809-4E6C-9470-DFFA229D9669}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="125" totalsRowDxfId="124" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{68752F33-5B3F-4E9C-B091-B22CC2989F38}" name="Ctrl" totalsRowLabel="集計" dataDxfId="143" totalsRowDxfId="142"/>
+    <tableColumn id="2" xr3:uid="{5167CBDE-CFFA-48FA-949C-7754DEBB5471}" name="Shift" dataDxfId="141" totalsRowDxfId="140"/>
+    <tableColumn id="3" xr3:uid="{A2117648-5D51-418A-8399-3A653EB882CF}" name="Alt" dataDxfId="139" totalsRowDxfId="138"/>
+    <tableColumn id="4" xr3:uid="{2372578A-8AA5-480D-AA77-FC8F0A78D0EA}" name="Key" dataDxfId="137" totalsRowDxfId="136"/>
+    <tableColumn id="5" xr3:uid="{3BE13509-C9C9-46C8-8667-7EAECC678335}" name="機能" dataDxfId="135" totalsRowDxfId="134"/>
+    <tableColumn id="7" xr3:uid="{AE1A202E-0809-4E6C-9470-DFFA229D9669}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="133" totalsRowDxfId="132" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5516,15 +6309,27 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{64C7855A-AE6E-4D1B-95FD-A0F7F70CC417}" name="テーブル1312" displayName="テーブル1312" ref="A1:F80" headerRowDxfId="123" dataDxfId="122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{20717FDD-4026-4F7F-936C-BEEC867C938B}" name="テーブル17814" displayName="テーブル17814" ref="A1:C105" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:C105" xr:uid="{4CB39E0E-759A-4F48-9321-000A7B6C0DCA}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{2BA4D145-86D8-46D1-B04B-FE00E26FDAB6}" name="Key" dataDxfId="1" totalsRowDxfId="2" dataCellStyle="標準 2"/>
+    <tableColumn id="5" xr3:uid="{A76CCD34-8166-44D0-8998-F212D2DFCFFB}" name="機能" dataDxfId="4" totalsRowDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{6F6BD55F-093D-4EEF-8239-C97ACF4A285C}" name="|Key|機能|" totalsRowFunction="count" dataDxfId="0" totalsRowDxfId="3" dataCellStyle="標準 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{64C7855A-AE6E-4D1B-95FD-A0F7F70CC417}" name="テーブル1312" displayName="テーブル1312" ref="A1:F80" headerRowDxfId="131" dataDxfId="130">
   <autoFilter ref="A1:F80" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3B675F56-1F29-4E78-BDB6-CA41FB9B1F5C}" name="Ctrl" totalsRowLabel="集計" dataDxfId="121" totalsRowDxfId="120"/>
-    <tableColumn id="2" xr3:uid="{B7008E7C-6419-42EC-940A-5B6A0748F5B1}" name="Shift" dataDxfId="119" totalsRowDxfId="118"/>
-    <tableColumn id="3" xr3:uid="{D10E9664-9EFA-48AC-A609-71DE9D6B26CA}" name="Alt" dataDxfId="117" totalsRowDxfId="116"/>
-    <tableColumn id="4" xr3:uid="{04E5B1BB-D2DF-4C83-97E5-127E5BD91A73}" name="Key" dataDxfId="115" totalsRowDxfId="114"/>
-    <tableColumn id="5" xr3:uid="{1EE32BB4-F6DB-4221-AFF6-F34183FE5769}" name="機能" dataDxfId="113" totalsRowDxfId="112"/>
-    <tableColumn id="7" xr3:uid="{3266105D-4A94-4CBB-8500-927634878533}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="111" totalsRowDxfId="110" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{3B675F56-1F29-4E78-BDB6-CA41FB9B1F5C}" name="Ctrl" totalsRowLabel="集計" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="2" xr3:uid="{B7008E7C-6419-42EC-940A-5B6A0748F5B1}" name="Shift" dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="3" xr3:uid="{D10E9664-9EFA-48AC-A609-71DE9D6B26CA}" name="Alt" dataDxfId="125" totalsRowDxfId="124"/>
+    <tableColumn id="4" xr3:uid="{04E5B1BB-D2DF-4C83-97E5-127E5BD91A73}" name="Key" dataDxfId="123" totalsRowDxfId="122"/>
+    <tableColumn id="5" xr3:uid="{1EE32BB4-F6DB-4221-AFF6-F34183FE5769}" name="機能" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="7" xr3:uid="{3266105D-4A94-4CBB-8500-927634878533}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="119" totalsRowDxfId="118" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5532,16 +6337,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0BE3AAD5-252A-42BC-B735-5702B821C9F5}" name="テーブル17810" displayName="テーブル17810" ref="A1:F95" headerRowDxfId="109" dataDxfId="108">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0BE3AAD5-252A-42BC-B735-5702B821C9F5}" name="テーブル17810" displayName="テーブル17810" ref="A1:F95" headerRowDxfId="117" dataDxfId="116">
   <autoFilter ref="A1:F95" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AC738BBB-3009-41EE-B57C-C49F293EF770}" name="Ctrl" totalsRowLabel="集計" dataDxfId="107" totalsRowDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{0FA728AD-25AD-41FC-AC69-C8FD9D439BB0}" name="Shift" dataDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{A5C1728F-F016-41C4-894F-916122C25955}" name="Alt" dataDxfId="104" totalsRowDxfId="103" dataCellStyle="標準 2"/>
-    <tableColumn id="4" xr3:uid="{7A760A73-B1FA-44DC-9BF4-F09C9E1325A2}" name="Key" dataDxfId="102" totalsRowDxfId="101"/>
-    <tableColumn id="5" xr3:uid="{99F9108C-C22A-4625-A879-60C0A5850F2D}" name="機能" dataDxfId="100" totalsRowDxfId="99"/>
-    <tableColumn id="7" xr3:uid="{0F2ABE32-0915-4657-86F2-4FEBDC3CD8A8}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="98" totalsRowDxfId="97" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{AC738BBB-3009-41EE-B57C-C49F293EF770}" name="Ctrl" totalsRowLabel="集計" dataDxfId="115" totalsRowDxfId="114"/>
+    <tableColumn id="2" xr3:uid="{0FA728AD-25AD-41FC-AC69-C8FD9D439BB0}" name="Shift" dataDxfId="113"/>
+    <tableColumn id="3" xr3:uid="{A5C1728F-F016-41C4-894F-916122C25955}" name="Alt" dataDxfId="112" totalsRowDxfId="111" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{7A760A73-B1FA-44DC-9BF4-F09C9E1325A2}" name="Key" dataDxfId="110" totalsRowDxfId="109"/>
+    <tableColumn id="5" xr3:uid="{99F9108C-C22A-4625-A879-60C0A5850F2D}" name="機能" dataDxfId="108" totalsRowDxfId="107"/>
+    <tableColumn id="7" xr3:uid="{0F2ABE32-0915-4657-86F2-4FEBDC3CD8A8}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="106" totalsRowDxfId="105" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5549,16 +6354,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="テーブル134" displayName="テーブル134" ref="A1:F91" headerRowDxfId="96" dataDxfId="95">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="テーブル134" displayName="テーブル134" ref="A1:F91" headerRowDxfId="104" dataDxfId="103">
   <autoFilter ref="A1:F91" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="94" totalsRowDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Shift" dataDxfId="92" totalsRowDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Alt" dataDxfId="90" totalsRowDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Key" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="機能" dataDxfId="86" totalsRowDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Shift" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Alt" dataDxfId="98" totalsRowDxfId="97"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Key" dataDxfId="96" totalsRowDxfId="95"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="機能" dataDxfId="94" totalsRowDxfId="93"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5566,16 +6371,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="テーブル13" displayName="テーブル13" ref="A1:F91" headerRowDxfId="82" dataDxfId="81">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="テーブル13" displayName="テーブル13" ref="A1:F91" headerRowDxfId="90" dataDxfId="89">
   <autoFilter ref="A1:F91" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="80" totalsRowDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Shift" dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Alt" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Key" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="機能" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Shift" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Alt" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Key" dataDxfId="82" totalsRowDxfId="81"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="機能" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="78" totalsRowDxfId="77" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5583,34 +6388,17 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="テーブル1" displayName="テーブル1" ref="A1:F99" headerRowDxfId="68" dataDxfId="67">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="テーブル1" displayName="テーブル1" ref="A1:F99" headerRowDxfId="76" dataDxfId="75">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Shift" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Alt" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Key" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="機能" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Shift" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Alt" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Key" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="機能" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="テーブル13456" displayName="テーブル13456" ref="A1:F78" headerRowDxfId="54" dataDxfId="53">
-  <autoFilter ref="A1:F78" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Shift" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Alt" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="標準 2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Key" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="機能" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="標準 2">
-      <calculatedColumnFormula>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5945,7 +6733,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7029,6 +7817,689 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:F78"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="6.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.77734375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="50.21875" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="2" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="1.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v>|:---|:---|:---|:---|:---|</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift||[/]|移動 前/次の空行|</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||gv|再度同じ範囲を選択|</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||ge|前単語の末尾へ移動|</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||&lt;C-r&gt; /|最後に検索に使用したワード検索|</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||v ⇒ o |選択範囲の末尾にカーソルを移動|</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||挿入モード⇒&lt;C-r&gt;=0xFFFF|簡易16⇒10進数変換（例では65535）|</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||/\V |テキストで検索|</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift||h/m/l|カーソル移動 画面 最上行/中央/最下行|</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||+/-|先頭に移動 次行/前行|</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||f/b|移動 1画面分 上/下|</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||u/d|移動 半画面分 上/下|</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="2"/>
+      <c r="F14" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="2"/>
+      <c r="F15" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="2"/>
+      <c r="F16" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="2"/>
+      <c r="F17" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="2"/>
+      <c r="F18" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="2"/>
+      <c r="F19" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="2"/>
+      <c r="F20" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="2"/>
+      <c r="F21" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="2"/>
+      <c r="F22" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="2"/>
+      <c r="F23" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="2"/>
+      <c r="F24" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E25" s="2"/>
+      <c r="F25" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E26" s="2"/>
+      <c r="F26" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E27" s="2"/>
+      <c r="F27" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E28" s="2"/>
+      <c r="F28" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="2"/>
+      <c r="F29" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E30" s="2"/>
+      <c r="F30" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E31" s="2"/>
+      <c r="F31" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="2"/>
+      <c r="F32" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="2"/>
+      <c r="F33" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="2"/>
+      <c r="F34" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E35" s="2"/>
+      <c r="F35" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="2"/>
+      <c r="F36" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E37" s="2"/>
+      <c r="F37" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E38" s="2"/>
+      <c r="F38" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D39" s="6"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="2"/>
+      <c r="F40" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="2"/>
+      <c r="F41" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E42" s="2"/>
+      <c r="F42" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E43" s="2"/>
+      <c r="F43" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E44" s="2"/>
+      <c r="F44" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E45" s="2"/>
+      <c r="F45" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E46" s="2"/>
+      <c r="F46" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E47" s="2"/>
+      <c r="F47" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E48" s="2"/>
+      <c r="F48" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E49" s="2"/>
+      <c r="F49" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E50" s="2"/>
+      <c r="F50" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E51" s="2"/>
+      <c r="F51" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E52" s="2"/>
+      <c r="F52" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E53" s="2"/>
+      <c r="F53" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E54" s="2"/>
+      <c r="F54" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E55" s="2"/>
+      <c r="F55" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E56" s="2"/>
+      <c r="F56" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E57" s="2"/>
+      <c r="F57" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E58" s="2"/>
+      <c r="F58" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E59" s="2"/>
+      <c r="F59" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E60" s="2"/>
+      <c r="F60" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E61" s="2"/>
+      <c r="F61" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E62" s="2"/>
+      <c r="F62" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E63" s="2"/>
+      <c r="F63" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E64" s="2"/>
+      <c r="F64" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E65" s="2"/>
+      <c r="F65" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E66" s="2"/>
+      <c r="F66" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E67" s="2"/>
+      <c r="F67" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E68" s="2"/>
+      <c r="F68" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E69" s="2"/>
+      <c r="F69" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E70" s="2"/>
+      <c r="F70" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E71" s="2"/>
+      <c r="F71" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E72" s="2"/>
+      <c r="F72" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E73" s="2"/>
+      <c r="F73" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E74" s="2"/>
+      <c r="F74" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E75" s="2"/>
+      <c r="F75" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E76" s="2"/>
+      <c r="F76" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E77" s="2"/>
+      <c r="F77" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E78" s="2"/>
+      <c r="F78" s="3" t="str">
+        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C78" xr:uid="{00000000-0002-0000-0400-000000000000}">
+      <formula1>"Alt"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B3:B78" xr:uid="{00000000-0002-0000-0400-000001000000}">
+      <formula1>"Shift"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:A78" xr:uid="{00000000-0002-0000-0400-000002000000}">
+      <formula1>"Ctrl"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D44D25-11F0-4B75-B08C-CCE87BE573F8}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:F99"/>
@@ -7704,7 +9175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175ECC7F-1CF8-41ED-848A-01EC97406150}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:F88"/>
@@ -8571,7 +10042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B994306-1A5A-45E0-B1F2-C6B62D4DBA46}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:F96"/>
@@ -10225,7 +11696,7 @@
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="F39" sqref="F1:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10295,7 +11766,7 @@
         <v>152</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -10307,7 +11778,7 @@
         <v>161</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -10319,7 +11790,7 @@
         <v>237</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -10343,7 +11814,7 @@
         <v>240</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F8" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -10355,7 +11826,7 @@
         <v>156</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -10364,7 +11835,7 @@
     </row>
     <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>488</v>
@@ -10379,10 +11850,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>528</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -10397,7 +11868,7 @@
         <v>210</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -10409,10 +11880,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F13" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -10424,10 +11895,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>509</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>510</v>
       </c>
       <c r="F14" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -10442,7 +11913,7 @@
         <v>487</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -10469,10 +11940,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -10511,13 +11982,13 @@
     </row>
     <row r="20" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>449</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F20" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -10559,10 +12030,10 @@
         <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F23" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -10628,10 +12099,10 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F27" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -10646,10 +12117,10 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F28" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -10664,14 +12135,14 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>491</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>492</v>
       </c>
       <c r="F29" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||~|表示形式 [標準]|</v>
+        <v>|Ctrl|Shift||^|表示形式 [標準]|</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10682,10 +12153,10 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F30" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -10700,10 +12171,10 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F31" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -10718,10 +12189,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>505</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>506</v>
       </c>
       <c r="F32" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -10739,7 +12210,7 @@
         <v>455</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F33" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -10757,7 +12228,7 @@
         <v>456</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F34" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -10808,10 +12279,10 @@
         <v>2</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>515</v>
       </c>
       <c r="F37" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -10829,7 +12300,7 @@
         <v>444</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F38" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -10844,10 +12315,10 @@
         <v>2</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>526</v>
       </c>
       <c r="F39" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -11204,7 +12675,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C40:C97 C3:C39" xr:uid="{FF7BEE9C-E158-4724-902D-22D2E3815EC6}">
       <formula1>"Alt"</formula1>
     </dataValidation>
@@ -11222,6 +12693,1046 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CCE274-753E-4411-9164-55FB9DF6F4C8}">
+  <dimension ref="A1:C105"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="2" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="1.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|:---|:---|</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C3" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|HHN|セル塗りつぶし なし|</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C4" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|HH|セル塗りつぶし 変更|</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C5" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|HBN|罫線 なし|</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C6" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|HBA|罫線 格子|</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C7" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|HBT|罫線 太外枠|</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="C8" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|HL1|文字配置 左右 左|</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="C9" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|HAC|文字配置 左右 中央|</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="C10" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|HR|文字配置 左右 右|</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="C11" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|HAT|文字配置 上下 上|</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="C12" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|HAM|文字配置 上下 中央|</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="C13" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|HAB|文字配置 上下 下|</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C14" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|WFF|ウィンドウ 枠固定 切り替え|</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C15" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|EL|シート 削除|</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C16" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|OHH|シート 非表示|</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C17" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|OHU|シート 再表示|</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C18" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|HOI|列幅 自動調整|</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C19" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|HOA|行幅 自動調整|</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="C20" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|HW|折り返して全体を表示|</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="C21" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|ES|形式を選択して貼り付け|</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="C22" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|WVG|枠線 表示/非表示|</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C23" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|H0(zero)|小数点以下 表示桁数＋＋|</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C24" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|H9|小数点以下 表示桁数－－|</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C25" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|HMU|セル結合 解除|</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C26" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|HFF|フォント変更|</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C27" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|HFG|フォントサイズ＋＋|</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C28" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|HFK|フォントサイズ－－|</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="C29" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|HFS|フォントサイズ変更|</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C30" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|HFC1|フォントカラー変更|</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C31" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>||ブック共有|</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C32" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|EM|「シートの移動またはコピー」表示|</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C33" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|EAR|ハイパーリンク 削除|</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C34" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|EAH|ハイパーリンク クリア|</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C35" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|OD|「条件付き書式ルールの管理」表示|</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C36" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|AE|「区切り位置」表示|</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="C37" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|AH|グループ 折りたたむ|</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="C38" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|AJ|グループ 展開|</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C39" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|AM|重複削除|</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="C40" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|DL|「データ入力規則」表示|</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C41" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|IB|改ページ挿入|</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C42" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|HFDO|オブジェクト選択|</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C43" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|RH1|コメント 表示/非表示|</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C44" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|MV|数式の検証|</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F33B2-7FA2-4740-86D0-2AD97053E21B}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F80"/>
@@ -11995,7 +14506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41991D50-28F6-403B-8295-1028362E0434}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F95"/>
@@ -13540,7 +16051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F91"/>
@@ -14176,7 +16687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F91"/>
@@ -14968,7 +17479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F99"/>
@@ -15830,687 +18341,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:F78"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="3" width="6.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="42.77734375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="50.21875" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="2" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="1.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v>|:---|:---|:---|:---|:---|</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift||[/]|移動 前/次の空行|</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F4" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||gv|再度同じ範囲を選択|</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F5" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||ge|前単語の末尾へ移動|</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D6" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F6" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||&lt;C-r&gt; /|最後に検索に使用したワード検索|</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F7" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||v ⇒ o |選択範囲の末尾にカーソルを移動|</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F8" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||挿入モード⇒&lt;C-r&gt;=0xFFFF|簡易16⇒10進数変換（例では65535）|</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F9" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||/\V |テキストで検索|</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F10" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift||h/m/l|カーソル移動 画面 最上行/中央/最下行|</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F11" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||+/-|先頭に移動 次行/前行|</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F12" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||f/b|移動 1画面分 上/下|</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F13" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||u/d|移動 半画面分 上/下|</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E14" s="2"/>
-      <c r="F14" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E15" s="2"/>
-      <c r="F15" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E16" s="2"/>
-      <c r="F16" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E17" s="2"/>
-      <c r="F17" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E18" s="2"/>
-      <c r="F18" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E19" s="2"/>
-      <c r="F19" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E20" s="2"/>
-      <c r="F20" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E21" s="2"/>
-      <c r="F21" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="2"/>
-      <c r="F22" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="2"/>
-      <c r="F23" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E24" s="2"/>
-      <c r="F24" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E25" s="2"/>
-      <c r="F25" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E26" s="2"/>
-      <c r="F26" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="2"/>
-      <c r="F27" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E28" s="2"/>
-      <c r="F28" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E29" s="2"/>
-      <c r="F29" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E30" s="2"/>
-      <c r="F30" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E31" s="2"/>
-      <c r="F31" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E32" s="2"/>
-      <c r="F32" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E33" s="2"/>
-      <c r="F33" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E34" s="2"/>
-      <c r="F34" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E35" s="2"/>
-      <c r="F35" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E36" s="2"/>
-      <c r="F36" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E37" s="2"/>
-      <c r="F37" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E38" s="2"/>
-      <c r="F38" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D39" s="6"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E40" s="2"/>
-      <c r="F40" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E41" s="2"/>
-      <c r="F41" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E42" s="2"/>
-      <c r="F42" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E43" s="2"/>
-      <c r="F43" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E44" s="2"/>
-      <c r="F44" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E45" s="2"/>
-      <c r="F45" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E46" s="2"/>
-      <c r="F46" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E47" s="2"/>
-      <c r="F47" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E48" s="2"/>
-      <c r="F48" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E49" s="2"/>
-      <c r="F49" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E50" s="2"/>
-      <c r="F50" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E51" s="2"/>
-      <c r="F51" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E52" s="2"/>
-      <c r="F52" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E53" s="2"/>
-      <c r="F53" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E54" s="2"/>
-      <c r="F54" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E55" s="2"/>
-      <c r="F55" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E56" s="2"/>
-      <c r="F56" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E57" s="2"/>
-      <c r="F57" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E58" s="2"/>
-      <c r="F58" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E59" s="2"/>
-      <c r="F59" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E60" s="2"/>
-      <c r="F60" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E61" s="2"/>
-      <c r="F61" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E62" s="2"/>
-      <c r="F62" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E63" s="2"/>
-      <c r="F63" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E64" s="2"/>
-      <c r="F64" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E65" s="2"/>
-      <c r="F65" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E66" s="2"/>
-      <c r="F66" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E67" s="2"/>
-      <c r="F67" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E68" s="2"/>
-      <c r="F68" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E69" s="2"/>
-      <c r="F69" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E70" s="2"/>
-      <c r="F70" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E71" s="2"/>
-      <c r="F71" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E72" s="2"/>
-      <c r="F72" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E73" s="2"/>
-      <c r="F73" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E74" s="2"/>
-      <c r="F74" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E75" s="2"/>
-      <c r="F75" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E76" s="2"/>
-      <c r="F76" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E77" s="2"/>
-      <c r="F77" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E78" s="2"/>
-      <c r="F78" s="3" t="str">
-        <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C78" xr:uid="{00000000-0002-0000-0400-000000000000}">
-      <formula1>"Alt"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B3:B78" xr:uid="{00000000-0002-0000-0400-000001000000}">
-      <formula1>"Shift"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:A78" xr:uid="{00000000-0002-0000-0400-000002000000}">
-      <formula1>"Ctrl"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/shortcut_keys.xlsx
+++ b/shortcut_keys.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3131ACF-37DE-44F4-A3BC-25EB9423FD89}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE16F025-8531-49A4-8D9E-D78939EE7F15}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21684" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21684" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Windows10" sheetId="7" r:id="rId1"/>
@@ -3008,156 +3008,6 @@
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="176">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5416,6 +5266,156 @@
         <sz val="9"/>
         <color theme="1"/>
         <name val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -6207,15 +6207,15 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="テーブル13456" displayName="テーブル13456" ref="A1:F78" headerRowDxfId="62" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="テーブル13456" displayName="テーブル13456" ref="A1:F78" headerRowDxfId="54" dataDxfId="53">
   <autoFilter ref="A1:F78" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Shift" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Alt" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="標準 2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Key" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="機能" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Shift" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Alt" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Key" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="機能" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6224,15 +6224,15 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{74162BA7-0E42-48B6-B99F-4D7F769D24F9}" name="テーブル1789" displayName="テーブル1789" ref="A1:F99" headerRowDxfId="48" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{74162BA7-0E42-48B6-B99F-4D7F769D24F9}" name="テーブル1789" displayName="テーブル1789" ref="A1:F99" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{62FA586D-EF03-4D43-A10E-78D2AF735C71}" name="Ctrl" totalsRowLabel="集計" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{C5A7C3F6-4F42-4530-8FD3-1990CF3F9124}" name="Shift" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{A05CE0D9-140D-45A0-888F-253BF948A770}" name="Alt" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{7DA7D284-C06D-4102-9404-5695C13F122B}" name="Key" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{3D010DA0-57B1-4C00-9C5F-DCCF15D9FD17}" name="機能" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{E74BE0E9-7F88-484C-9AEE-D35FA3AED34A}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="36" totalsRowDxfId="35" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{62FA586D-EF03-4D43-A10E-78D2AF735C71}" name="Ctrl" totalsRowLabel="集計" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{C5A7C3F6-4F42-4530-8FD3-1990CF3F9124}" name="Shift" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{A05CE0D9-140D-45A0-888F-253BF948A770}" name="Alt" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{7DA7D284-C06D-4102-9404-5695C13F122B}" name="Key" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{3D010DA0-57B1-4C00-9C5F-DCCF15D9FD17}" name="機能" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{E74BE0E9-7F88-484C-9AEE-D35FA3AED34A}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6241,15 +6241,15 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E6EF7B9C-FAC1-42B1-BC95-AF668093141D}" name="テーブル1781011" displayName="テーブル1781011" ref="A1:F88" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E6EF7B9C-FAC1-42B1-BC95-AF668093141D}" name="テーブル1781011" displayName="テーブル1781011" ref="A1:F88" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:F88" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{10591B97-DA49-4E0D-BF23-0888174E098F}" name="Ctrl" totalsRowLabel="集計" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{EDA168A4-45CB-47AC-9F73-DAC9B98B27C9}" name="Shift" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{3CB7FF1C-24DD-4B0B-8123-C85716EAD21F}" name="Alt" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="標準 2"/>
-    <tableColumn id="4" xr3:uid="{8AEA5FCE-4FCC-42AA-A7BC-DD61C011D20F}" name="Key" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{1A91CD22-6C43-43F8-AD49-13837BC29411}" name="機能" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{B88C40F9-0361-4D7D-B3EE-F9FB5D80EF07}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{10591B97-DA49-4E0D-BF23-0888174E098F}" name="Ctrl" totalsRowLabel="集計" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{EDA168A4-45CB-47AC-9F73-DAC9B98B27C9}" name="Shift" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{3CB7FF1C-24DD-4B0B-8123-C85716EAD21F}" name="Alt" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{8AEA5FCE-4FCC-42AA-A7BC-DD61C011D20F}" name="Key" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{1A91CD22-6C43-43F8-AD49-13837BC29411}" name="機能" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{B88C40F9-0361-4D7D-B3EE-F9FB5D80EF07}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6258,15 +6258,15 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{C8B815C4-BB09-4BB3-8BF3-B5822B84DC0A}" name="テーブル1313" displayName="テーブル1313" ref="A1:F96" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{C8B815C4-BB09-4BB3-8BF3-B5822B84DC0A}" name="テーブル1313" displayName="テーブル1313" ref="A1:F96" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:F96" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{50BEC15D-85D4-415C-9037-D51742AD182A}" name="Ctrl" totalsRowLabel="集計" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{925401EF-C46F-4093-8B20-CD2F27E0D0F5}" name="Shift" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{D4F623E9-6A08-459F-AC9D-50F2770A3DAF}" name="Alt" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{2256EA4B-2B95-47F9-A6E3-B25D81FBE39C}" name="Key" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{32073BBC-2DE3-4101-87D5-F9CEA501F790}" name="機能" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{9108A34A-CB76-4BC9-B009-AFA797F495EB}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{50BEC15D-85D4-415C-9037-D51742AD182A}" name="Ctrl" totalsRowLabel="集計" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{925401EF-C46F-4093-8B20-CD2F27E0D0F5}" name="Shift" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{D4F623E9-6A08-459F-AC9D-50F2770A3DAF}" name="Alt" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{2256EA4B-2B95-47F9-A6E3-B25D81FBE39C}" name="Key" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{32073BBC-2DE3-4101-87D5-F9CEA501F790}" name="機能" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{9108A34A-CB76-4BC9-B009-AFA797F495EB}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6309,27 +6309,27 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{20717FDD-4026-4F7F-936C-BEEC867C938B}" name="テーブル17814" displayName="テーブル17814" ref="A1:C105" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{20717FDD-4026-4F7F-936C-BEEC867C938B}" name="テーブル17814" displayName="テーブル17814" ref="A1:C105" headerRowDxfId="131" dataDxfId="130">
   <autoFilter ref="A1:C105" xr:uid="{4CB39E0E-759A-4F48-9321-000A7B6C0DCA}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2BA4D145-86D8-46D1-B04B-FE00E26FDAB6}" name="Key" dataDxfId="1" totalsRowDxfId="2" dataCellStyle="標準 2"/>
-    <tableColumn id="5" xr3:uid="{A76CCD34-8166-44D0-8998-F212D2DFCFFB}" name="機能" dataDxfId="4" totalsRowDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{6F6BD55F-093D-4EEF-8239-C97ACF4A285C}" name="|Key|機能|" totalsRowFunction="count" dataDxfId="0" totalsRowDxfId="3" dataCellStyle="標準 2"/>
+    <tableColumn id="1" xr3:uid="{2BA4D145-86D8-46D1-B04B-FE00E26FDAB6}" name="Key" dataDxfId="129" totalsRowDxfId="128" dataCellStyle="標準 2"/>
+    <tableColumn id="5" xr3:uid="{A76CCD34-8166-44D0-8998-F212D2DFCFFB}" name="機能" dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="7" xr3:uid="{6F6BD55F-093D-4EEF-8239-C97ACF4A285C}" name="|Key|機能|" totalsRowFunction="count" dataDxfId="125" totalsRowDxfId="124" dataCellStyle="標準 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{64C7855A-AE6E-4D1B-95FD-A0F7F70CC417}" name="テーブル1312" displayName="テーブル1312" ref="A1:F80" headerRowDxfId="131" dataDxfId="130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{64C7855A-AE6E-4D1B-95FD-A0F7F70CC417}" name="テーブル1312" displayName="テーブル1312" ref="A1:F80" headerRowDxfId="123" dataDxfId="122">
   <autoFilter ref="A1:F80" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3B675F56-1F29-4E78-BDB6-CA41FB9B1F5C}" name="Ctrl" totalsRowLabel="集計" dataDxfId="129" totalsRowDxfId="128"/>
-    <tableColumn id="2" xr3:uid="{B7008E7C-6419-42EC-940A-5B6A0748F5B1}" name="Shift" dataDxfId="127" totalsRowDxfId="126"/>
-    <tableColumn id="3" xr3:uid="{D10E9664-9EFA-48AC-A609-71DE9D6B26CA}" name="Alt" dataDxfId="125" totalsRowDxfId="124"/>
-    <tableColumn id="4" xr3:uid="{04E5B1BB-D2DF-4C83-97E5-127E5BD91A73}" name="Key" dataDxfId="123" totalsRowDxfId="122"/>
-    <tableColumn id="5" xr3:uid="{1EE32BB4-F6DB-4221-AFF6-F34183FE5769}" name="機能" dataDxfId="121" totalsRowDxfId="120"/>
-    <tableColumn id="7" xr3:uid="{3266105D-4A94-4CBB-8500-927634878533}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="119" totalsRowDxfId="118" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{3B675F56-1F29-4E78-BDB6-CA41FB9B1F5C}" name="Ctrl" totalsRowLabel="集計" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{B7008E7C-6419-42EC-940A-5B6A0748F5B1}" name="Shift" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="3" xr3:uid="{D10E9664-9EFA-48AC-A609-71DE9D6B26CA}" name="Alt" dataDxfId="117" totalsRowDxfId="116"/>
+    <tableColumn id="4" xr3:uid="{04E5B1BB-D2DF-4C83-97E5-127E5BD91A73}" name="Key" dataDxfId="115" totalsRowDxfId="114"/>
+    <tableColumn id="5" xr3:uid="{1EE32BB4-F6DB-4221-AFF6-F34183FE5769}" name="機能" dataDxfId="113" totalsRowDxfId="112"/>
+    <tableColumn id="7" xr3:uid="{3266105D-4A94-4CBB-8500-927634878533}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="111" totalsRowDxfId="110" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6338,15 +6338,15 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0BE3AAD5-252A-42BC-B735-5702B821C9F5}" name="テーブル17810" displayName="テーブル17810" ref="A1:F95" headerRowDxfId="117" dataDxfId="116">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0BE3AAD5-252A-42BC-B735-5702B821C9F5}" name="テーブル17810" displayName="テーブル17810" ref="A1:F95" headerRowDxfId="109" dataDxfId="108">
   <autoFilter ref="A1:F95" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AC738BBB-3009-41EE-B57C-C49F293EF770}" name="Ctrl" totalsRowLabel="集計" dataDxfId="115" totalsRowDxfId="114"/>
-    <tableColumn id="2" xr3:uid="{0FA728AD-25AD-41FC-AC69-C8FD9D439BB0}" name="Shift" dataDxfId="113"/>
-    <tableColumn id="3" xr3:uid="{A5C1728F-F016-41C4-894F-916122C25955}" name="Alt" dataDxfId="112" totalsRowDxfId="111" dataCellStyle="標準 2"/>
-    <tableColumn id="4" xr3:uid="{7A760A73-B1FA-44DC-9BF4-F09C9E1325A2}" name="Key" dataDxfId="110" totalsRowDxfId="109"/>
-    <tableColumn id="5" xr3:uid="{99F9108C-C22A-4625-A879-60C0A5850F2D}" name="機能" dataDxfId="108" totalsRowDxfId="107"/>
-    <tableColumn id="7" xr3:uid="{0F2ABE32-0915-4657-86F2-4FEBDC3CD8A8}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="106" totalsRowDxfId="105" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{AC738BBB-3009-41EE-B57C-C49F293EF770}" name="Ctrl" totalsRowLabel="集計" dataDxfId="107" totalsRowDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{0FA728AD-25AD-41FC-AC69-C8FD9D439BB0}" name="Shift" dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{A5C1728F-F016-41C4-894F-916122C25955}" name="Alt" dataDxfId="104" totalsRowDxfId="103" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{7A760A73-B1FA-44DC-9BF4-F09C9E1325A2}" name="Key" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="5" xr3:uid="{99F9108C-C22A-4625-A879-60C0A5850F2D}" name="機能" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="7" xr3:uid="{0F2ABE32-0915-4657-86F2-4FEBDC3CD8A8}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="98" totalsRowDxfId="97" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6355,15 +6355,15 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="テーブル134" displayName="テーブル134" ref="A1:F91" headerRowDxfId="104" dataDxfId="103">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="テーブル134" displayName="テーブル134" ref="A1:F91" headerRowDxfId="96" dataDxfId="95">
   <autoFilter ref="A1:F91" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="102" totalsRowDxfId="101"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Shift" dataDxfId="100" totalsRowDxfId="99"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Alt" dataDxfId="98" totalsRowDxfId="97"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Key" dataDxfId="96" totalsRowDxfId="95"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="機能" dataDxfId="94" totalsRowDxfId="93"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="94" totalsRowDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Shift" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Alt" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Key" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="機能" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6372,15 +6372,15 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="テーブル13" displayName="テーブル13" ref="A1:F91" headerRowDxfId="90" dataDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="テーブル13" displayName="テーブル13" ref="A1:F91" headerRowDxfId="82" dataDxfId="81">
   <autoFilter ref="A1:F91" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Shift" dataDxfId="86" totalsRowDxfId="85"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Alt" dataDxfId="84" totalsRowDxfId="83"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Key" dataDxfId="82" totalsRowDxfId="81"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="機能" dataDxfId="80" totalsRowDxfId="79"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="78" totalsRowDxfId="77" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Shift" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Alt" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Key" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="機能" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6389,15 +6389,15 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="テーブル1" displayName="テーブル1" ref="A1:F99" headerRowDxfId="76" dataDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="テーブル1" displayName="テーブル1" ref="A1:F99" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Shift" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Alt" dataDxfId="70" totalsRowDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Key" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="機能" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Shift" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Alt" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Key" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="機能" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6729,11 +6729,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11691,12 +11691,12 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomRight" activeCell="F39" sqref="F1:F39"/>
+      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/shortcut_keys.xlsx
+++ b/shortcut_keys.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE16F025-8531-49A4-8D9E-D78939EE7F15}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EC4DA7-06C4-4AC9-8F63-B121284ACFEE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21684" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21684" windowHeight="13176" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Windows10" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">テーブル178[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Excel(alt)'!$A$1:$B$70</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Excel(alt)'!$A$1:$D$71</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">テーブル134[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">テーブル1[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">テーブル17[[#All],[Ctrl]:[機能]]</definedName>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="639">
   <si>
     <t>Ctrl</t>
   </si>
@@ -368,17 +368,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>迷惑マーク 付与</t>
-    <rPh sb="6" eb="8">
-      <t>フヨ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>迷惑マーク 解除</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>スター 付与/解除</t>
     <rPh sb="4" eb="6">
       <t>フヨ</t>
@@ -2301,48 +2290,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>HHN</t>
-  </si>
-  <si>
-    <t>HBN</t>
-  </si>
-  <si>
-    <t>HBA</t>
-  </si>
-  <si>
-    <t>HBT</t>
-  </si>
-  <si>
-    <t>HL1</t>
-  </si>
-  <si>
-    <t>HAC</t>
-  </si>
-  <si>
-    <t>HR</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>WFF</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>EL</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>HOI</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>HW</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ES</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>形式を選択して貼り付け</t>
     <rPh sb="0" eb="2">
       <t>ケイシキ</t>
@@ -2359,18 +2306,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>WVG</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>H9</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>H0(zero)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>小数点以下 表示桁数＋＋</t>
     <rPh sb="0" eb="3">
       <t>ショウスウテン</t>
@@ -2403,10 +2338,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>HMU</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>セル結合 解除</t>
     <rPh sb="2" eb="4">
       <t>ケツゴウ</t>
@@ -2417,53 +2348,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>HFG</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>フォントサイズ＋＋</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>フォントサイズ－－</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>HFS</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>フォントサイズ変更</t>
-    <rPh sb="7" eb="9">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>HFK</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>HFC1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>フォントカラー変更</t>
-    <rPh sb="7" eb="9">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>^</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>EM</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>OHH</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -2491,14 +2376,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>OHU</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>EAH</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ハイパーリンク 削除</t>
     <rPh sb="8" eb="10">
       <t>サクジョ</t>
@@ -2510,14 +2387,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>EAR</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>HOA</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>行幅 自動調整</t>
     <rPh sb="0" eb="1">
       <t>ギョウ</t>
@@ -2547,10 +2416,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>OD</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>「条件付き書式ルールの管理」表示</t>
     <rPh sb="1" eb="4">
       <t>ジョウケンツ</t>
@@ -2567,10 +2432,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>AE</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>「区切り位置」表示</t>
     <rPh sb="1" eb="3">
       <t>クギ</t>
@@ -2591,17 +2452,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>HFF</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>フォント変更</t>
-    <rPh sb="4" eb="6">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>セル塗りつぶし なし</t>
     <rPh sb="2" eb="3">
       <t>ヌ</t>
@@ -2619,14 +2469,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>HH</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>AH</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>グループ 折りたたむ</t>
     <rPh sb="5" eb="6">
       <t>オ</t>
@@ -2641,14 +2483,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>AJ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>AM</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>重複削除</t>
     <rPh sb="0" eb="2">
       <t>チョウフク</t>
@@ -2659,14 +2493,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>DL</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>IB</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>改ページ挿入</t>
     <rPh sb="0" eb="1">
       <t>カイ</t>
@@ -2677,10 +2503,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>HFDO</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>オブジェクト選択</t>
     <rPh sb="6" eb="8">
       <t>センタク</t>
@@ -2704,18 +2526,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>HAT</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>HAM</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>HAB</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>文字配置 上下 中央</t>
     <rPh sb="0" eb="2">
       <t>モジ</t>
@@ -2855,10 +2665,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>RH1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>コメント 表示/非表示</t>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
@@ -2869,10 +2675,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>MV</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>数式の検証</t>
     <rPh sb="0" eb="2">
       <t>スウシキ</t>
@@ -2883,7 +2685,329 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>|Key|機能|</t>
+    <t>リボン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォント 変更</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォント サイズ＋＋</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォント サイズ－－</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォント サイズ変更</t>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォント カラー変更</t>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>H B N</t>
+  </si>
+  <si>
+    <t>H B A</t>
+  </si>
+  <si>
+    <t>H B T</t>
+  </si>
+  <si>
+    <t>H L 1</t>
+  </si>
+  <si>
+    <t>H A C</t>
+  </si>
+  <si>
+    <t>H R</t>
+  </si>
+  <si>
+    <t>H A T</t>
+  </si>
+  <si>
+    <t>H A M</t>
+  </si>
+  <si>
+    <t>H A B</t>
+  </si>
+  <si>
+    <t>H O I</t>
+  </si>
+  <si>
+    <t>H O A</t>
+  </si>
+  <si>
+    <t>H F F</t>
+  </si>
+  <si>
+    <t>H F G</t>
+  </si>
+  <si>
+    <t>H F K</t>
+  </si>
+  <si>
+    <t>H F S</t>
+  </si>
+  <si>
+    <t>H F C 1</t>
+  </si>
+  <si>
+    <t>H H N</t>
+  </si>
+  <si>
+    <t>H H</t>
+  </si>
+  <si>
+    <t>H F D O</t>
+  </si>
+  <si>
+    <t>H W</t>
+  </si>
+  <si>
+    <t>H M U</t>
+  </si>
+  <si>
+    <t>H 0(zero)</t>
+  </si>
+  <si>
+    <t>H 9</t>
+  </si>
+  <si>
+    <t>W F F</t>
+  </si>
+  <si>
+    <t>W V G</t>
+  </si>
+  <si>
+    <t>E L</t>
+  </si>
+  <si>
+    <t>E S</t>
+  </si>
+  <si>
+    <t>E M</t>
+  </si>
+  <si>
+    <t>E A R</t>
+  </si>
+  <si>
+    <t>E A H</t>
+  </si>
+  <si>
+    <t>O H H</t>
+  </si>
+  <si>
+    <t>O H U</t>
+  </si>
+  <si>
+    <t>O D</t>
+  </si>
+  <si>
+    <t>A E</t>
+  </si>
+  <si>
+    <t>A H</t>
+  </si>
+  <si>
+    <t>A J</t>
+  </si>
+  <si>
+    <t>A M</t>
+  </si>
+  <si>
+    <t>D L</t>
+  </si>
+  <si>
+    <t>I B</t>
+  </si>
+  <si>
+    <t>M V</t>
+  </si>
+  <si>
+    <t>ホーム-フォント</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ホーム-配置</t>
+    <rPh sb="4" eb="6">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ホーム-セル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シート 見出しの色</t>
+    <rPh sb="4" eb="6">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ショク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シート</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カテゴリ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>H O T</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ウィンドウ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ホーム-編集</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ホーム-数値</t>
+    <rPh sb="4" eb="6">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>表示-ウィンドウ</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>表示-表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データ-データツール</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データ-アウトライン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>校閲-コメント</t>
+    <rPh sb="0" eb="2">
+      <t>コウエツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>数式-ワークシート分析</t>
+    <rPh sb="0" eb="2">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セル表示</t>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シート表示</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シート操作</t>
+    <rPh sb="3" eb="5">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セル操作</t>
+    <rPh sb="2" eb="4">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>R H 1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>R U 2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>校閲</t>
+    <rPh sb="0" eb="2">
+      <t>コウエツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>校閲-保護</t>
+    <rPh sb="0" eb="2">
+      <t>コウエツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>|リボン|カテゴリ|Key|機能|</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>迷惑マーク 付与/解除</t>
+    <rPh sb="6" eb="8">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/Shift</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2891,7 +3015,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2928,6 +3052,12 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2958,7 +3088,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3002,12 +3132,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="176">
+  <dxfs count="180">
     <dxf>
       <font>
         <b val="0"/>
@@ -5362,6 +5495,80 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
         <color rgb="FF000000"/>
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
@@ -6189,16 +6396,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1345" displayName="テーブル1345" ref="A1:G85" headerRowDxfId="175" dataDxfId="174">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1345" displayName="テーブル1345" ref="A1:G85" headerRowDxfId="179" dataDxfId="178">
   <autoFilter ref="A1:G85" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="173" totalsRowDxfId="172"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Shift" dataDxfId="171" totalsRowDxfId="170"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Alt" dataDxfId="169" totalsRowDxfId="168" dataCellStyle="標準 2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Win" dataDxfId="167" totalsRowDxfId="166"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Key" dataDxfId="165" totalsRowDxfId="164"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="機能" dataDxfId="163" totalsRowDxfId="162"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="|Ctrl|Shift|Alt|Win|Key|機能|" totalsRowFunction="count" dataDxfId="161" totalsRowDxfId="160" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="177" totalsRowDxfId="176"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Shift" dataDxfId="175" totalsRowDxfId="174"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Alt" dataDxfId="173" totalsRowDxfId="172" dataCellStyle="標準 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Win" dataDxfId="171" totalsRowDxfId="170"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Key" dataDxfId="169" totalsRowDxfId="168"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="機能" dataDxfId="167" totalsRowDxfId="166"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="|Ctrl|Shift|Alt|Win|Key|機能|" totalsRowFunction="count" dataDxfId="165" totalsRowDxfId="164" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6275,15 +6482,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5B3D110-E258-4597-BB86-3913C990E2CB}" name="テーブル17" displayName="テーブル17" ref="A1:F99" headerRowDxfId="159" dataDxfId="158">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5B3D110-E258-4597-BB86-3913C990E2CB}" name="テーブル17" displayName="テーブル17" ref="A1:F99" headerRowDxfId="163" dataDxfId="162">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A339EFE5-6258-4149-86B3-E1CEAA4BEE00}" name="Ctrl" totalsRowLabel="集計" dataDxfId="157" totalsRowDxfId="156"/>
-    <tableColumn id="2" xr3:uid="{95FE279B-8D22-4BC8-8A2E-858DDB73272E}" name="Shift" dataDxfId="155" totalsRowDxfId="154"/>
-    <tableColumn id="3" xr3:uid="{38818F14-8583-4816-90BC-42EC8E0CEF9E}" name="Alt" dataDxfId="153" totalsRowDxfId="152"/>
-    <tableColumn id="4" xr3:uid="{59B72529-4238-4F15-B172-C15FB4893E65}" name="Key" dataDxfId="151" totalsRowDxfId="150"/>
-    <tableColumn id="5" xr3:uid="{1D07021F-1DC8-467F-922D-781773F86854}" name="機能" dataDxfId="149" totalsRowDxfId="148"/>
-    <tableColumn id="7" xr3:uid="{B99A910B-404C-4E9F-ABC8-6C1CF3E22617}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="147" totalsRowDxfId="146" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{A339EFE5-6258-4149-86B3-E1CEAA4BEE00}" name="Ctrl" totalsRowLabel="集計" dataDxfId="161" totalsRowDxfId="160"/>
+    <tableColumn id="2" xr3:uid="{95FE279B-8D22-4BC8-8A2E-858DDB73272E}" name="Shift" dataDxfId="159" totalsRowDxfId="158"/>
+    <tableColumn id="3" xr3:uid="{38818F14-8583-4816-90BC-42EC8E0CEF9E}" name="Alt" dataDxfId="157" totalsRowDxfId="156"/>
+    <tableColumn id="4" xr3:uid="{59B72529-4238-4F15-B172-C15FB4893E65}" name="Key" dataDxfId="155" totalsRowDxfId="154"/>
+    <tableColumn id="5" xr3:uid="{1D07021F-1DC8-467F-922D-781773F86854}" name="機能" dataDxfId="153" totalsRowDxfId="152"/>
+    <tableColumn id="7" xr3:uid="{B99A910B-404C-4E9F-ABC8-6C1CF3E22617}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="151" totalsRowDxfId="150" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6292,15 +6499,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3651D7F7-A056-4B9F-A254-BC10C8DFD165}" name="テーブル178" displayName="テーブル178" ref="A1:F97" headerRowDxfId="145" dataDxfId="144">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3651D7F7-A056-4B9F-A254-BC10C8DFD165}" name="テーブル178" displayName="テーブル178" ref="A1:F97" headerRowDxfId="149" dataDxfId="148">
   <autoFilter ref="A1:F97" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{68752F33-5B3F-4E9C-B091-B22CC2989F38}" name="Ctrl" totalsRowLabel="集計" dataDxfId="143" totalsRowDxfId="142"/>
-    <tableColumn id="2" xr3:uid="{5167CBDE-CFFA-48FA-949C-7754DEBB5471}" name="Shift" dataDxfId="141" totalsRowDxfId="140"/>
-    <tableColumn id="3" xr3:uid="{A2117648-5D51-418A-8399-3A653EB882CF}" name="Alt" dataDxfId="139" totalsRowDxfId="138"/>
-    <tableColumn id="4" xr3:uid="{2372578A-8AA5-480D-AA77-FC8F0A78D0EA}" name="Key" dataDxfId="137" totalsRowDxfId="136"/>
-    <tableColumn id="5" xr3:uid="{3BE13509-C9C9-46C8-8667-7EAECC678335}" name="機能" dataDxfId="135" totalsRowDxfId="134"/>
-    <tableColumn id="7" xr3:uid="{AE1A202E-0809-4E6C-9470-DFFA229D9669}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="133" totalsRowDxfId="132" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{68752F33-5B3F-4E9C-B091-B22CC2989F38}" name="Ctrl" totalsRowLabel="集計" dataDxfId="147" totalsRowDxfId="146"/>
+    <tableColumn id="2" xr3:uid="{5167CBDE-CFFA-48FA-949C-7754DEBB5471}" name="Shift" dataDxfId="145" totalsRowDxfId="144"/>
+    <tableColumn id="3" xr3:uid="{A2117648-5D51-418A-8399-3A653EB882CF}" name="Alt" dataDxfId="143" totalsRowDxfId="142"/>
+    <tableColumn id="4" xr3:uid="{2372578A-8AA5-480D-AA77-FC8F0A78D0EA}" name="Key" dataDxfId="141" totalsRowDxfId="140"/>
+    <tableColumn id="5" xr3:uid="{3BE13509-C9C9-46C8-8667-7EAECC678335}" name="機能" dataDxfId="139" totalsRowDxfId="138"/>
+    <tableColumn id="7" xr3:uid="{AE1A202E-0809-4E6C-9470-DFFA229D9669}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="137" totalsRowDxfId="136" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6309,12 +6516,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{20717FDD-4026-4F7F-936C-BEEC867C938B}" name="テーブル17814" displayName="テーブル17814" ref="A1:C105" headerRowDxfId="131" dataDxfId="130">
-  <autoFilter ref="A1:C105" xr:uid="{4CB39E0E-759A-4F48-9321-000A7B6C0DCA}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2BA4D145-86D8-46D1-B04B-FE00E26FDAB6}" name="Key" dataDxfId="129" totalsRowDxfId="128" dataCellStyle="標準 2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{20717FDD-4026-4F7F-936C-BEEC867C938B}" name="テーブル17814" displayName="テーブル17814" ref="A1:E106" headerRowDxfId="135" dataDxfId="134">
+  <autoFilter ref="A1:E106" xr:uid="{4CB39E0E-759A-4F48-9321-000A7B6C0DCA}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{2BA4D145-86D8-46D1-B04B-FE00E26FDAB6}" name="リボン" dataDxfId="133" totalsRowDxfId="132" dataCellStyle="標準 2"/>
+    <tableColumn id="3" xr3:uid="{329DFB08-CE24-452B-BEBF-989FF7FD4600}" name="カテゴリ" dataDxfId="131" totalsRowDxfId="130" dataCellStyle="標準 2"/>
+    <tableColumn id="2" xr3:uid="{3AEEA09D-295D-4DA2-B1DC-7199FAFF0781}" name="Key" dataDxfId="129" totalsRowDxfId="128" dataCellStyle="標準 2"/>
     <tableColumn id="5" xr3:uid="{A76CCD34-8166-44D0-8998-F212D2DFCFFB}" name="機能" dataDxfId="127" totalsRowDxfId="126"/>
-    <tableColumn id="7" xr3:uid="{6F6BD55F-093D-4EEF-8239-C97ACF4A285C}" name="|Key|機能|" totalsRowFunction="count" dataDxfId="125" totalsRowDxfId="124" dataCellStyle="標準 2"/>
+    <tableColumn id="7" xr3:uid="{6F6BD55F-093D-4EEF-8239-C97ACF4A285C}" name="|リボン|カテゴリ|Key|機能|" totalsRowFunction="count" dataDxfId="125" totalsRowDxfId="124" dataCellStyle="標準 2">
+      <calculatedColumnFormula>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6372,8 +6583,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="テーブル13" displayName="テーブル13" ref="A1:F91" headerRowDxfId="82" dataDxfId="81">
-  <autoFilter ref="A1:F91" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="テーブル13" displayName="テーブル13" ref="A1:F90" headerRowDxfId="82" dataDxfId="81">
+  <autoFilter ref="A1:F90" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="80" totalsRowDxfId="79"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Shift" dataDxfId="78" totalsRowDxfId="77"/>
@@ -6729,11 +6940,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F44" sqref="F44"/>
+      <selection pane="bottomRight" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6757,16 +6968,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="1.8" customHeight="1" x14ac:dyDescent="0.2">
@@ -6799,10 +7010,10 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G3" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -6818,7 +7029,7 @@
         <v>49</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G4" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -6831,10 +7042,10 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G5" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -6847,10 +7058,10 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G6" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -6863,10 +7074,10 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G7" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -6882,7 +7093,7 @@
         <v>50</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G8" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -6895,10 +7106,10 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G9" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -6914,7 +7125,7 @@
         <v>51</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G10" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -6930,7 +7141,7 @@
         <v>48</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G11" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -6943,10 +7154,10 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G12" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -6959,10 +7170,10 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G13" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -6975,10 +7186,10 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G14" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -6991,10 +7202,10 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G15" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7010,10 +7221,10 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G16" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7029,10 +7240,10 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G17" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7045,10 +7256,10 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G18" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7061,10 +7272,10 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G19" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7077,10 +7288,10 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G20" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7093,10 +7304,10 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G21" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7112,7 +7323,7 @@
         <v>52</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G22" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7125,10 +7336,10 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G23" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7141,10 +7352,10 @@
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G24" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7157,10 +7368,10 @@
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G25" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7173,10 +7384,10 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G26" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7186,10 +7397,10 @@
     <row r="27" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D27" s="1"/>
       <c r="E27" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G27" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7199,10 +7410,10 @@
     <row r="28" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D28" s="1"/>
       <c r="E28" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G28" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7212,10 +7423,10 @@
     <row r="29" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D29" s="1"/>
       <c r="E29" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G29" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7225,10 +7436,10 @@
     <row r="30" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D30" s="1"/>
       <c r="E30" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G30" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7241,7 +7452,7 @@
         <v>53</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G31" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7251,10 +7462,10 @@
     <row r="32" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D32" s="1"/>
       <c r="E32" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G32" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7264,10 +7475,10 @@
     <row r="33" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D33" s="1"/>
       <c r="E33" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G33" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7277,10 +7488,10 @@
     <row r="34" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D34" s="1"/>
       <c r="E34" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G34" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7289,13 +7500,13 @@
     </row>
     <row r="35" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D35" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G35" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7304,13 +7515,13 @@
     </row>
     <row r="36" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D36" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G36" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7322,13 +7533,13 @@
         <v>0</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G37" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7340,13 +7551,13 @@
         <v>0</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G38" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7355,13 +7566,13 @@
     </row>
     <row r="39" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D39" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G39" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7370,13 +7581,13 @@
     </row>
     <row r="40" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D40" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G40" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7385,13 +7596,13 @@
     </row>
     <row r="41" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D41" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G41" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7400,13 +7611,13 @@
     </row>
     <row r="42" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D42" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G42" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7415,13 +7626,13 @@
     </row>
     <row r="43" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D43" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="G43" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7430,13 +7641,13 @@
     </row>
     <row r="44" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D44" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G44" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7445,13 +7656,13 @@
     </row>
     <row r="45" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D45" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G45" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7460,13 +7671,13 @@
     </row>
     <row r="46" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D46" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G46" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7475,13 +7686,13 @@
     </row>
     <row r="47" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D47" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G47" s="3" t="str">
         <f>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</f>
@@ -7848,13 +8059,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="1.8" customHeight="1" x14ac:dyDescent="0.2">
@@ -7883,10 +8094,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F3" s="3" t="str">
         <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
@@ -7895,10 +8106,10 @@
     </row>
     <row r="4" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
@@ -7907,10 +8118,10 @@
     </row>
     <row r="5" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
@@ -7919,10 +8130,10 @@
     </row>
     <row r="6" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
@@ -7931,10 +8142,10 @@
     </row>
     <row r="7" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
@@ -7943,10 +8154,10 @@
     </row>
     <row r="8" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D8" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F8" s="3" t="str">
         <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
@@ -7955,10 +8166,10 @@
     </row>
     <row r="9" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
@@ -7970,10 +8181,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F10" s="3" t="str">
         <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
@@ -7982,10 +8193,10 @@
     </row>
     <row r="11" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
@@ -7997,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
@@ -8012,10 +8223,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F13" s="3" t="str">
         <f>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</f>
@@ -8532,13 +8743,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="1.8" customHeight="1" x14ac:dyDescent="0.2">
@@ -8567,10 +8778,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F3" s="3" t="str">
         <f>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</f>
@@ -9208,13 +9419,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="1.8" customHeight="1" x14ac:dyDescent="0.2">
@@ -9240,10 +9451,10 @@
     </row>
     <row r="3" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F3" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9252,10 +9463,10 @@
     </row>
     <row r="4" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9264,10 +9475,10 @@
     </row>
     <row r="5" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9276,10 +9487,10 @@
     </row>
     <row r="6" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9288,10 +9499,10 @@
     </row>
     <row r="7" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9300,10 +9511,10 @@
     </row>
     <row r="8" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D8" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F8" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9312,10 +9523,10 @@
     </row>
     <row r="9" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9324,10 +9535,10 @@
     </row>
     <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F10" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9336,10 +9547,10 @@
     </row>
     <row r="11" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9348,10 +9559,10 @@
     </row>
     <row r="12" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D12" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9360,10 +9571,10 @@
     </row>
     <row r="13" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D13" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F13" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9372,10 +9583,10 @@
     </row>
     <row r="14" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D14" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F14" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9384,10 +9595,10 @@
     </row>
     <row r="15" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D15" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9396,10 +9607,10 @@
     </row>
     <row r="16" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D16" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F16" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9408,10 +9619,10 @@
     </row>
     <row r="17" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D17" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9420,10 +9631,10 @@
     </row>
     <row r="18" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F18" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9432,10 +9643,10 @@
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D19" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F19" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9444,10 +9655,10 @@
     </row>
     <row r="20" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F20" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9459,10 +9670,10 @@
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F21" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9474,10 +9685,10 @@
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9489,10 +9700,10 @@
         <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F23" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9504,10 +9715,10 @@
         <v>0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F24" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9519,10 +9730,10 @@
         <v>0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F25" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9540,7 +9751,7 @@
         <v>55</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F26" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9555,7 +9766,7 @@
         <v>55</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F27" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9567,10 +9778,10 @@
         <v>0</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F28" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9582,10 +9793,10 @@
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F29" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9600,10 +9811,10 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F30" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9618,10 +9829,10 @@
         <v>2</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F31" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9636,10 +9847,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F32" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9654,10 +9865,10 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F33" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9669,10 +9880,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F34" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9681,10 +9892,10 @@
     </row>
     <row r="35" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D35" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F35" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -9699,10 +9910,10 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F36" s="3" t="str">
         <f>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</f>
@@ -10075,13 +10286,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="1.8" customHeight="1" x14ac:dyDescent="0.2">
@@ -10107,10 +10318,10 @@
     </row>
     <row r="3" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F3" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -10119,10 +10330,10 @@
     </row>
     <row r="4" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -10131,10 +10342,10 @@
     </row>
     <row r="5" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -10143,10 +10354,10 @@
     </row>
     <row r="6" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -10158,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -10173,10 +10384,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F8" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -10188,10 +10399,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -10203,10 +10414,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F10" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -10218,10 +10429,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -10233,10 +10444,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -10248,10 +10459,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F13" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -10263,10 +10474,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F14" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -10278,10 +10489,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -10293,10 +10504,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F16" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -10311,10 +10522,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -10329,10 +10540,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F18" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -10347,10 +10558,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F19" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -10365,10 +10576,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F20" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -10383,10 +10594,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F21" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -10401,10 +10612,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -10416,10 +10627,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F23" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -10434,10 +10645,10 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F24" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -10449,10 +10660,10 @@
         <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F25" s="3" t="str">
         <f>IF(ISBLANK(テーブル1313[[#This Row],[機能]]),"","|"&amp;テーブル1313[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1313[[#This Row],[Shift]]&amp;"|"&amp;テーブル1313[[#This Row],[Alt]]&amp;"|"&amp;テーブル1313[[#This Row],[Key]]&amp;"|"&amp;テーブル1313[[#This Row],[機能]]&amp;"|")</f>
@@ -10939,13 +11150,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="1.8" customHeight="1" x14ac:dyDescent="0.2">
@@ -10974,10 +11185,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F3" s="3" t="str">
         <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
@@ -10989,10 +11200,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
@@ -11004,10 +11215,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
@@ -11022,10 +11233,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
@@ -11040,10 +11251,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
@@ -11058,10 +11269,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F8" s="3" t="str">
         <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
@@ -11076,10 +11287,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
@@ -11091,10 +11302,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F10" s="3" t="str">
         <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
@@ -11106,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
@@ -11124,10 +11335,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
@@ -11139,10 +11350,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F13" s="3" t="str">
         <f>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</f>
@@ -11719,13 +11930,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="1.8" customHeight="1" x14ac:dyDescent="0.2">
@@ -11751,10 +11962,10 @@
     </row>
     <row r="3" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F3" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -11763,10 +11974,10 @@
     </row>
     <row r="4" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -11775,10 +11986,10 @@
     </row>
     <row r="5" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -11787,10 +11998,10 @@
     </row>
     <row r="6" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -11799,10 +12010,10 @@
     </row>
     <row r="7" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -11811,10 +12022,10 @@
     </row>
     <row r="8" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D8" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F8" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -11823,10 +12034,10 @@
     </row>
     <row r="9" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -11835,10 +12046,10 @@
     </row>
     <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F10" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -11850,10 +12061,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -11865,10 +12076,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -11880,10 +12091,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F13" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -11895,10 +12106,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F14" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -11910,10 +12121,10 @@
         <v>0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -11925,10 +12136,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F16" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -11940,10 +12151,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -11955,10 +12166,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F18" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -11970,10 +12181,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F19" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -11982,13 +12193,13 @@
     </row>
     <row r="20" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F20" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -12000,10 +12211,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F21" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -12015,10 +12226,10 @@
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -12030,10 +12241,10 @@
         <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F23" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -12045,10 +12256,10 @@
         <v>2</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F24" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -12063,10 +12274,10 @@
         <v>65</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F25" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -12081,10 +12292,10 @@
         <v>65</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F26" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -12099,10 +12310,10 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F27" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -12117,10 +12328,10 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F28" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -12135,10 +12346,10 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>559</v>
+        <v>533</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F29" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -12153,10 +12364,10 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F30" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -12171,10 +12382,10 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F31" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -12189,10 +12400,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F32" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -12207,10 +12418,10 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F33" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -12225,10 +12436,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F34" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -12243,10 +12454,10 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F35" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -12261,10 +12472,10 @@
         <v>2</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F36" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -12279,10 +12490,10 @@
         <v>2</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F37" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -12297,10 +12508,10 @@
         <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F38" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -12315,10 +12526,10 @@
         <v>2</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F39" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
@@ -12694,1031 +12905,1436 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CCE274-753E-4411-9164-55FB9DF6F4C8}">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="2" style="3"/>
+    <col min="1" max="1" width="19.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="2" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>98</v>
+        <v>564</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="1.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="14" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="1.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|:---|:---|</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|:---||:---|:---|</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="E3" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|ホーム-配置|セル表示|H L 1|文字配置 左右 左|</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="E4" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|ホーム-配置|セル表示|H A C|文字配置 左右 中央|</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="E5" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|ホーム-配置|セル表示|H R|文字配置 左右 右|</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="E6" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|ホーム-配置|セル表示|H A T|文字配置 上下 上|</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="E7" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|ホーム-配置|セル表示|H A M|文字配置 上下 中央|</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="E8" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|ホーム-配置|セル表示|H A B|文字配置 上下 下|</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E9" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|ホーム-セル|セル表示|H O I|列幅 自動調整|</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E10" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|ホーム-セル|セル表示|H O A|行幅 自動調整|</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="E11" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|ホーム-セル|シート|H O T|シート 見出しの色|</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E12" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|ホーム-フォント|セル表示|H B N|罫線 なし|</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E13" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|ホーム-フォント|セル表示|H B A|罫線 格子|</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E14" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|ホーム-フォント|セル表示|H B T|罫線 太外枠|</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="E15" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|ホーム-フォント|セル表示|H F F|フォント 変更|</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E16" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|ホーム-フォント|セル表示|H F G|フォント サイズ＋＋|</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E17" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|ホーム-フォント|セル表示|H F K|フォント サイズ－－|</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="E18" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|ホーム-フォント|セル表示|H F S|フォント サイズ変更|</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E19" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|ホーム-フォント|セル表示|H F C 1|フォント カラー変更|</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E20" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|ホーム-フォント|セル表示|H H N|セル塗りつぶし なし|</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E21" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|ホーム-フォント|セル表示|H H|セル塗りつぶし 変更|</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E22" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|ホーム-編集|セル操作|H F D O|オブジェクト選択|</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="E23" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|ホーム-配置|セル表示|H W|折り返して全体を表示|</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E24" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|ホーム-配置|セル表示|H M U|セル結合 解除|</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E25" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|ホーム-数値|セル表示|H 0(zero)|小数点以下 表示桁数＋＋|</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C3" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|HHN|セル塗りつぶし なし|</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>582</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="C4" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|HH|セル塗りつぶし 変更|</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="E26" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|ホーム-数値|セル表示|H 9|小数点以下 表示桁数－－|</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E27" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|表示-ウィンドウ|ウィンドウ|W F F|ウィンドウ 枠固定 切り替え|</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="E28" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|表示-表示|ウィンドウ|W V G|枠線 表示/非表示|</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E29" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|なし|シート|E L|シート 削除|</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="C5" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|HBN|罫線 なし|</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C6" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|HBA|罫線 格子|</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="E30" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|なし|セル操作|E S|形式を選択して貼り付け|</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E31" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|なし|シート操作|E M|「シートの移動またはコピー」表示|</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E32" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|なし|セル表示|E A R|ハイパーリンク 削除|</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E33" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|なし|セル表示|E A H|ハイパーリンク クリア|</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="C7" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|HBT|罫線 太外枠|</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="C8" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|HL1|文字配置 左右 左|</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="E34" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|なし|シート操作|O H H|シート 非表示|</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>602</v>
-      </c>
-      <c r="C9" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|HAC|文字配置 左右 中央|</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="E35" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|なし|シート操作|O H U|シート 再表示|</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="C10" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|HR|文字配置 左右 右|</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>600</v>
-      </c>
-      <c r="C11" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|HAT|文字配置 上下 上|</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>598</v>
-      </c>
-      <c r="C12" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|HAM|文字配置 上下 中央|</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>599</v>
-      </c>
-      <c r="C13" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|HAB|文字配置 上下 下|</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="C14" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|WFF|ウィンドウ 枠固定 切り替え|</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="D36" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E36" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|なし|セル表示|O D|「条件付き書式ルールの管理」表示|</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E37" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|データ-データツール|セル操作|A E|「区切り位置」表示|</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="E38" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|データ-アウトライン|セル操作|A H|グループ 折りたたむ|</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="E39" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|データ-アウトライン|セル操作|A J|グループ 展開|</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E40" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|データ-データツール|セル操作|A M|重複削除|</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="E41" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|データ-データツール|セル表示|D L|「データ入力規則」表示|</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E42" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|なし|シート表示|I B|改ページ挿入|</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E43" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|校閲-コメント|セル表示|R H 1|コメント 表示/非表示|</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="C15" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|EL|シート 削除|</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="E44" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|数式-ワークシート分析|セル表示|M V|数式の検証|</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="C16" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|OHH|シート 非表示|</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="C17" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|OHU|シート 再表示|</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="C18" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|HOI|列幅 自動調整|</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="C19" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|HOA|行幅 自動調整|</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="C20" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|HW|折り返して全体を表示|</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="C21" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|ES|形式を選択して貼り付け|</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="C22" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|WVG|枠線 表示/非表示|</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="C23" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|H0(zero)|小数点以下 表示桁数＋＋|</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="C24" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|H9|小数点以下 表示桁数－－|</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="C25" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|HMU|セル結合 解除|</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="C26" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|HFF|フォント変更|</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="C27" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|HFG|フォントサイズ＋＋|</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C28" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|HFK|フォントサイズ－－|</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="C29" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|HFS|フォントサイズ変更|</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="C30" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|HFC1|フォントカラー変更|</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="C31" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>||ブック共有|</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="C32" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|EM|「シートの移動またはコピー」表示|</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="C33" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|EAR|ハイパーリンク 削除|</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="C34" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|EAH|ハイパーリンク クリア|</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="C35" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|OD|「条件付き書式ルールの管理」表示|</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="C36" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|AE|「区切り位置」表示|</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="C37" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|AH|グループ 折りたたむ|</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>585</v>
-      </c>
-      <c r="C38" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|AJ|グループ 展開|</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="C39" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|AM|重複削除|</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="C40" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|DL|「データ入力規則」表示|</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="C41" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|IB|改ページ挿入|</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="C42" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|HFDO|オブジェクト選択|</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="C43" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|RH1|コメント 表示/非表示|</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="C44" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v>|MV|数式の検証|</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E45" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v>|校閲-保護|校閲|R U 2|ブック共有|</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
-      <c r="C60" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
-      <c r="C61" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="14" t="str">
+        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[リボン]]&amp;"|"&amp;テーブル17814[[#This Row],[カテゴリ]]&amp;"|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="14" t="str">
-        <f>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]